--- a/MASTER_MS5673.xlsx
+++ b/MASTER_MS5673.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U\Desktop\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7E01DA-ADC7-40B2-AEF2-DF15F6FB365A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1A3C42-C5DC-4945-9373-F9972F944F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
+    <workbookView xWindow="1620" yWindow="795" windowWidth="22260" windowHeight="13545" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4834" uniqueCount="2361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4807" uniqueCount="2365">
   <si>
     <t>무역거래처상호</t>
   </si>
@@ -8172,6 +8172,21 @@
   </si>
   <si>
     <t>WST-SFP+LR-C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-067248 (0F38604)</t>
+  </si>
+  <si>
+    <t>Western Digital-HDD,3.5 IN,26. MODEL:US7SSS200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>US7SSS200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-R-WDT-US7SSS200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8719,9 +8734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}">
   <dimension ref="A1:K1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="784" topLeftCell="A1020" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A973" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F993" sqref="F993"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25996,11 +26010,27 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="991" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B991" t="s">
+        <v>190</v>
+      </c>
+      <c r="C991" t="s">
+        <v>2361</v>
+      </c>
+      <c r="D991" t="s">
+        <v>2362</v>
+      </c>
+      <c r="E991" t="s">
+        <v>2363</v>
+      </c>
+      <c r="F991" t="s">
+        <v>2364</v>
+      </c>
+    </row>
     <row r="1003" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D1003" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K990" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C1048576">
     <cfRule type="duplicateValues" dxfId="9" priority="14"/>

--- a/MASTER_MS5673.xlsx
+++ b/MASTER_MS5673.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U\Desktop\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1A3C42-C5DC-4945-9373-F9972F944F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7DF334-EFB8-49AE-92F0-488A1F7AE164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="795" windowWidth="22260" windowHeight="13545" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
+    <workbookView xWindow="1545" yWindow="1950" windowWidth="17970" windowHeight="13545" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4807" uniqueCount="2365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4816" uniqueCount="2371">
   <si>
     <t>무역거래처상호</t>
   </si>
@@ -8187,6 +8187,28 @@
   </si>
   <si>
     <t>R-R-WDT-US7SSS200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-063979 (AFPDU024005)</t>
+  </si>
+  <si>
+    <t>PDU 34.4KW(AD-240/32N-A-S1 REV:A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8537105090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KNIPEX 82 01 150 SB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNIPEX 82 01 150 SB TWINGRIP PLIERS, SLIP JOINT, 16 MM JAW OPENING, 150 MM OVERALL LENGTH, TWINGRIP SERIES </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8203201000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8734,8 +8756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}">
   <dimension ref="A1:K1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A973" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F993" sqref="F993"/>
+    <sheetView tabSelected="1" topLeftCell="A981" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A992" sqref="A992"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26011,6 +26033,9 @@
       </c>
     </row>
     <row r="991" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A991" t="s">
+        <v>28</v>
+      </c>
       <c r="B991" t="s">
         <v>190</v>
       </c>
@@ -26027,7 +26052,35 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="1003" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A992" t="s">
+        <v>48</v>
+      </c>
+      <c r="B992" s="1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="C992" t="s">
+        <v>2365</v>
+      </c>
+      <c r="D992" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A993" t="s">
+        <v>17</v>
+      </c>
+      <c r="B993" s="1" t="s">
+        <v>2370</v>
+      </c>
+      <c r="C993" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D993" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D1003" s="4"/>
     </row>
   </sheetData>

--- a/MASTER_MS5673.xlsx
+++ b/MASTER_MS5673.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U\Desktop\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7DF334-EFB8-49AE-92F0-488A1F7AE164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4163D3-9270-4EF0-8AE6-A4AF2F2E34FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1545" yWindow="1950" windowWidth="17970" windowHeight="13545" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4816" uniqueCount="2371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4820" uniqueCount="2374">
   <si>
     <t>무역거래처상호</t>
   </si>
@@ -8209,6 +8209,17 @@
   </si>
   <si>
     <t>8203201000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TZE­221 Black on White</t>
+  </si>
+  <si>
+    <t>TZE-221 BLACK ON WHITE BROTHER TAPE CASSETTE BLACK ON WHITE 9MM TZE-221</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8443999000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8757,7 +8768,7 @@
   <dimension ref="A1:K1003"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A981" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A992" sqref="A992"/>
+      <selection activeCell="A994" sqref="A994"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26080,15 +26091,29 @@
         <v>2369</v>
       </c>
     </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A994" t="s">
+        <v>17</v>
+      </c>
+      <c r="B994" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C994" s="2" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D994" t="s">
+        <v>2372</v>
+      </c>
+    </row>
     <row r="1003" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D1003" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C1048576">
+  <conditionalFormatting sqref="C2:C993 C995:C1048576">
     <cfRule type="duplicateValues" dxfId="9" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C1048576">
+  <conditionalFormatting sqref="C2:C993 C995:C1048576">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E710">

--- a/MASTER_MS5673.xlsx
+++ b/MASTER_MS5673.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U\Desktop\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4163D3-9270-4EF0-8AE6-A4AF2F2E34FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB2299A-1E8F-4A6B-BFA2-3A73BCA6F3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1545" yWindow="1950" windowWidth="17970" windowHeight="13545" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
   </bookViews>
@@ -8212,14 +8212,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TZE­221 Black on White</t>
-  </si>
-  <si>
     <t>TZE-221 BLACK ON WHITE BROTHER TAPE CASSETTE BLACK ON WHITE 9MM TZE-221</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8443999000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TZE-221 BLACK ON WHITE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8767,8 +8768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}">
   <dimension ref="A1:K1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A981" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A994" sqref="A994"/>
+    <sheetView tabSelected="1" topLeftCell="B981" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C997" sqref="C997"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26096,13 +26097,13 @@
         <v>17</v>
       </c>
       <c r="B994" s="1" t="s">
+        <v>2372</v>
+      </c>
+      <c r="C994" s="2" t="s">
         <v>2373</v>
       </c>
-      <c r="C994" s="2" t="s">
+      <c r="D994" t="s">
         <v>2371</v>
-      </c>
-      <c r="D994" t="s">
-        <v>2372</v>
       </c>
     </row>
     <row r="1003" spans="1:4" x14ac:dyDescent="0.3">

--- a/MASTER_MS5673.xlsx
+++ b/MASTER_MS5673.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer_CA\★ Strim---MS Helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F02C35F-2EBF-4126-80C8-61177C14ABF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E20F13-B304-4671-9C50-88B80A298011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31935" yWindow="5190" windowWidth="20775" windowHeight="8160" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
+    <workbookView xWindow="29475" yWindow="90" windowWidth="24225" windowHeight="14415" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4815" uniqueCount="2372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4819" uniqueCount="2375">
   <si>
     <t>무역거래처상호</t>
   </si>
@@ -8214,6 +8214,17 @@
   </si>
   <si>
     <t>TZE-221 BLACK ON WHITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-079150 (MTFDKBG960TFR-1BC1EF)</t>
+  </si>
+  <si>
+    <t>8523511000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MICRON-SSD,M.2,NVME,960GB,MICR MODEL:MTFDKBG960TFR-1BC1EFCMA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8761,8 +8772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}">
   <dimension ref="A1:K1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B520" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B526" sqref="A526:XFD526"/>
+    <sheetView tabSelected="1" topLeftCell="A969" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D994" sqref="D994"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26079,6 +26090,20 @@
       </c>
       <c r="D993" t="s">
         <v>2369</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A994" t="s">
+        <v>28</v>
+      </c>
+      <c r="B994" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="C994" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D994" t="s">
+        <v>2374</v>
       </c>
     </row>
     <row r="1002" spans="1:4" x14ac:dyDescent="0.3">

--- a/MASTER_MS5673.xlsx
+++ b/MASTER_MS5673.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer_CA\★ Strim---MS Helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F91A5E-112A-4D3D-A618-F9AACCB6801E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7D2E95-FE62-484D-B588-37310AA105F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
+    <workbookView xWindow="4845" yWindow="375" windowWidth="17970" windowHeight="14415" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4819" uniqueCount="2374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4828" uniqueCount="2377">
   <si>
     <t>무역거래처상호</t>
   </si>
@@ -8226,6 +8226,18 @@
   </si>
   <si>
     <t>ZT SYSTEMS - EMASSY,FAN,80MM,D VOLT:DC 12V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-100GAOC-36M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100G QSFP28 ACTIVE OPTICAL CABLE, 36M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SINGLE MODE DUPLEX FIBER UNIBOOT PATCH CORD YELLOW 8M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8233,7 +8245,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8360,7 +8372,27 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8773,11 +8805,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}">
   <dimension ref="A1:K1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+    <sheetView tabSelected="1" topLeftCell="A971" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D997" sqref="D997"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
@@ -8792,7 +8824,7 @@
     <col min="11" max="11" width="35.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="6" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -8827,7 +8859,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -8842,7 +8874,7 @@
       </c>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -8857,7 +8889,7 @@
       </c>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -8872,7 +8904,7 @@
       </c>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -8887,7 +8919,7 @@
       </c>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -8902,7 +8934,7 @@
       </c>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -8917,7 +8949,7 @@
       </c>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -8932,7 +8964,7 @@
       </c>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -8964,7 +8996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -8982,7 +9014,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -8997,7 +9029,7 @@
       </c>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -9012,7 +9044,7 @@
       </c>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -9027,7 +9059,7 @@
       </c>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -9042,7 +9074,7 @@
       </c>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -9060,7 +9092,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -9078,7 +9110,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -9096,7 +9128,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -9111,7 +9143,7 @@
       </c>
       <c r="I18"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -9126,7 +9158,7 @@
       </c>
       <c r="I19"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -9144,7 +9176,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -9159,7 +9191,7 @@
       </c>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -9174,7 +9206,7 @@
       </c>
       <c r="I22"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -9192,7 +9224,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -9207,7 +9239,7 @@
       </c>
       <c r="I24"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -9222,7 +9254,7 @@
       </c>
       <c r="I25"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -9237,7 +9269,7 @@
       </c>
       <c r="I26"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -9252,7 +9284,7 @@
       </c>
       <c r="I27"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -9267,7 +9299,7 @@
       </c>
       <c r="I28"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -9282,7 +9314,7 @@
       </c>
       <c r="I29"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -9297,7 +9329,7 @@
       </c>
       <c r="I30"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -9312,7 +9344,7 @@
       </c>
       <c r="I31"/>
     </row>
-    <row r="32" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="5" customFormat="1">
       <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
@@ -9329,7 +9361,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -9344,7 +9376,7 @@
       </c>
       <c r="I33"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -9359,7 +9391,7 @@
       </c>
       <c r="I34"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -9374,7 +9406,7 @@
       </c>
       <c r="I35"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -9397,7 +9429,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -9412,7 +9444,7 @@
       </c>
       <c r="I37"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -9427,7 +9459,7 @@
       </c>
       <c r="I38"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -9450,7 +9482,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -9465,7 +9497,7 @@
       </c>
       <c r="I40"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -9480,7 +9512,7 @@
       </c>
       <c r="I41"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -9495,7 +9527,7 @@
       </c>
       <c r="I42"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -9510,7 +9542,7 @@
       </c>
       <c r="I43"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -9528,7 +9560,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -9543,7 +9575,7 @@
       </c>
       <c r="I45"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -9558,7 +9590,7 @@
       </c>
       <c r="I46"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -9573,7 +9605,7 @@
       </c>
       <c r="I47"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -9588,7 +9620,7 @@
       </c>
       <c r="I48"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -9603,7 +9635,7 @@
       </c>
       <c r="I49"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -9618,7 +9650,7 @@
       </c>
       <c r="I50"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -9633,7 +9665,7 @@
       </c>
       <c r="I51"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -9648,7 +9680,7 @@
       </c>
       <c r="I52"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -9663,7 +9695,7 @@
       </c>
       <c r="I53"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -9678,7 +9710,7 @@
       </c>
       <c r="I54"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -9693,7 +9725,7 @@
       </c>
       <c r="I55"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -9708,7 +9740,7 @@
       </c>
       <c r="I56"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -9726,7 +9758,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -9744,7 +9776,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -9762,7 +9794,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -9780,7 +9812,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -9798,7 +9830,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -9816,7 +9848,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>28</v>
       </c>
@@ -9831,7 +9863,7 @@
       </c>
       <c r="I63"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -9846,7 +9878,7 @@
       </c>
       <c r="I64"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -9861,7 +9893,7 @@
       </c>
       <c r="I65"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -9879,7 +9911,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -9902,7 +9934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -9917,7 +9949,7 @@
       </c>
       <c r="I68"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -9932,7 +9964,7 @@
       </c>
       <c r="I69"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -9950,7 +9982,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -9970,7 +10002,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -9985,7 +10017,7 @@
       </c>
       <c r="I72"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -10000,7 +10032,7 @@
       </c>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -10018,7 +10050,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -10036,7 +10068,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -10051,7 +10083,7 @@
       </c>
       <c r="I76"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>28</v>
       </c>
@@ -10069,7 +10101,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -10084,7 +10116,7 @@
       </c>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>28</v>
       </c>
@@ -10099,7 +10131,7 @@
       </c>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>28</v>
       </c>
@@ -10117,7 +10149,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>28</v>
       </c>
@@ -10135,7 +10167,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>28</v>
       </c>
@@ -10150,7 +10182,7 @@
       </c>
       <c r="I82"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>28</v>
       </c>
@@ -10165,7 +10197,7 @@
       </c>
       <c r="I83"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>28</v>
       </c>
@@ -10197,7 +10229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -10212,7 +10244,7 @@
       </c>
       <c r="I85"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>28</v>
       </c>
@@ -10227,7 +10259,7 @@
       </c>
       <c r="I86"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>28</v>
       </c>
@@ -10242,7 +10274,7 @@
       </c>
       <c r="I87"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>28</v>
       </c>
@@ -10260,7 +10292,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>28</v>
       </c>
@@ -10278,7 +10310,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>28</v>
       </c>
@@ -10293,7 +10325,7 @@
       </c>
       <c r="I90"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>28</v>
       </c>
@@ -10308,7 +10340,7 @@
       </c>
       <c r="I91"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>28</v>
       </c>
@@ -10323,7 +10355,7 @@
       </c>
       <c r="I92"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>28</v>
       </c>
@@ -10338,7 +10370,7 @@
       </c>
       <c r="I93"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>28</v>
       </c>
@@ -10353,7 +10385,7 @@
       </c>
       <c r="I94"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>28</v>
       </c>
@@ -10376,7 +10408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>28</v>
       </c>
@@ -10391,7 +10423,7 @@
       </c>
       <c r="I96"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>28</v>
       </c>
@@ -10406,7 +10438,7 @@
       </c>
       <c r="I97"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>28</v>
       </c>
@@ -10424,7 +10456,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>28</v>
       </c>
@@ -10442,7 +10474,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>28</v>
       </c>
@@ -10457,7 +10489,7 @@
       </c>
       <c r="I100"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -10472,7 +10504,7 @@
       </c>
       <c r="I101"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>28</v>
       </c>
@@ -10490,7 +10522,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>28</v>
       </c>
@@ -10513,7 +10545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>28</v>
       </c>
@@ -10536,7 +10568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>28</v>
       </c>
@@ -10559,7 +10591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>28</v>
       </c>
@@ -10574,7 +10606,7 @@
       </c>
       <c r="I106"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>28</v>
       </c>
@@ -10592,7 +10624,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
         <v>28</v>
       </c>
@@ -10610,7 +10642,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
         <v>28</v>
       </c>
@@ -10633,7 +10665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
         <v>28</v>
       </c>
@@ -10651,7 +10683,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
         <v>28</v>
       </c>
@@ -10666,7 +10698,7 @@
       </c>
       <c r="I111"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
         <v>28</v>
       </c>
@@ -10681,7 +10713,7 @@
       </c>
       <c r="I112"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
         <v>28</v>
       </c>
@@ -10696,7 +10728,7 @@
       </c>
       <c r="I113"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
         <v>28</v>
       </c>
@@ -10711,7 +10743,7 @@
       </c>
       <c r="I114"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
         <v>28</v>
       </c>
@@ -10726,7 +10758,7 @@
       </c>
       <c r="I115"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
         <v>28</v>
       </c>
@@ -10741,7 +10773,7 @@
       </c>
       <c r="I116"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
         <v>28</v>
       </c>
@@ -10756,7 +10788,7 @@
       </c>
       <c r="I117"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
         <v>28</v>
       </c>
@@ -10771,7 +10803,7 @@
       </c>
       <c r="I118"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -10789,7 +10821,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
         <v>28</v>
       </c>
@@ -10804,7 +10836,7 @@
       </c>
       <c r="I120"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
         <v>28</v>
       </c>
@@ -10819,7 +10851,7 @@
       </c>
       <c r="I121"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
         <v>28</v>
       </c>
@@ -10834,7 +10866,7 @@
       </c>
       <c r="I122"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
         <v>28</v>
       </c>
@@ -10849,7 +10881,7 @@
       </c>
       <c r="I123"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
         <v>28</v>
       </c>
@@ -10864,7 +10896,7 @@
       </c>
       <c r="I124"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
         <v>28</v>
       </c>
@@ -10879,7 +10911,7 @@
       </c>
       <c r="I125"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
         <v>28</v>
       </c>
@@ -10894,7 +10926,7 @@
       </c>
       <c r="I126"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
         <v>28</v>
       </c>
@@ -10926,7 +10958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
         <v>28</v>
       </c>
@@ -10941,7 +10973,7 @@
       </c>
       <c r="I128"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
         <v>28</v>
       </c>
@@ -10959,7 +10991,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
         <v>28</v>
       </c>
@@ -10974,7 +11006,7 @@
       </c>
       <c r="I130"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
         <v>28</v>
       </c>
@@ -10989,7 +11021,7 @@
       </c>
       <c r="I131"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
         <v>28</v>
       </c>
@@ -11004,7 +11036,7 @@
       </c>
       <c r="I132"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
         <v>28</v>
       </c>
@@ -11022,7 +11054,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
         <v>28</v>
       </c>
@@ -11040,7 +11072,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
         <v>28</v>
       </c>
@@ -11055,7 +11087,7 @@
       </c>
       <c r="I135"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
         <v>28</v>
       </c>
@@ -11073,7 +11105,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
         <v>28</v>
       </c>
@@ -11096,7 +11128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
         <v>28</v>
       </c>
@@ -11111,7 +11143,7 @@
       </c>
       <c r="I138"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
         <v>28</v>
       </c>
@@ -11126,7 +11158,7 @@
       </c>
       <c r="I139"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
         <v>28</v>
       </c>
@@ -11149,7 +11181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
         <v>28</v>
       </c>
@@ -11164,7 +11196,7 @@
       </c>
       <c r="I141"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
         <v>28</v>
       </c>
@@ -11179,7 +11211,7 @@
       </c>
       <c r="I142"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
         <v>28</v>
       </c>
@@ -11197,7 +11229,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
         <v>28</v>
       </c>
@@ -11215,7 +11247,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
         <v>28</v>
       </c>
@@ -11230,7 +11262,7 @@
       </c>
       <c r="I145"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10">
       <c r="A146" t="s">
         <v>28</v>
       </c>
@@ -11245,7 +11277,7 @@
       </c>
       <c r="I146"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10">
       <c r="A147" t="s">
         <v>28</v>
       </c>
@@ -11268,7 +11300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10">
       <c r="A148" t="s">
         <v>28</v>
       </c>
@@ -11283,7 +11315,7 @@
       </c>
       <c r="I148"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10">
       <c r="A149" t="s">
         <v>28</v>
       </c>
@@ -11315,7 +11347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
         <v>28</v>
       </c>
@@ -11347,7 +11379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10">
       <c r="A151" t="s">
         <v>28</v>
       </c>
@@ -11379,7 +11411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
         <v>28</v>
       </c>
@@ -11394,7 +11426,7 @@
       </c>
       <c r="I152"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10">
       <c r="A153" t="s">
         <v>28</v>
       </c>
@@ -11417,7 +11449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10">
       <c r="A154" t="s">
         <v>28</v>
       </c>
@@ -11449,7 +11481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10">
       <c r="A155" t="s">
         <v>28</v>
       </c>
@@ -11464,7 +11496,7 @@
       </c>
       <c r="I155"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10">
       <c r="A156" t="s">
         <v>28</v>
       </c>
@@ -11479,7 +11511,7 @@
       </c>
       <c r="I156"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10">
       <c r="A157" t="s">
         <v>28</v>
       </c>
@@ -11494,7 +11526,7 @@
       </c>
       <c r="I157"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10">
       <c r="A158" t="s">
         <v>28</v>
       </c>
@@ -11509,7 +11541,7 @@
       </c>
       <c r="I158"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10">
       <c r="A159" t="s">
         <v>28</v>
       </c>
@@ -11524,7 +11556,7 @@
       </c>
       <c r="I159"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10">
       <c r="A160" t="s">
         <v>28</v>
       </c>
@@ -11542,7 +11574,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10">
       <c r="A161" t="s">
         <v>28</v>
       </c>
@@ -11557,7 +11589,7 @@
       </c>
       <c r="I161"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10">
       <c r="A162" t="s">
         <v>28</v>
       </c>
@@ -11572,7 +11604,7 @@
       </c>
       <c r="I162"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10">
       <c r="A163" t="s">
         <v>28</v>
       </c>
@@ -11587,7 +11619,7 @@
       </c>
       <c r="I163"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10">
       <c r="A164" t="s">
         <v>28</v>
       </c>
@@ -11605,7 +11637,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10">
       <c r="A165" t="s">
         <v>28</v>
       </c>
@@ -11637,7 +11669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10">
       <c r="A166" t="s">
         <v>28</v>
       </c>
@@ -11652,7 +11684,7 @@
       </c>
       <c r="I166"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10">
       <c r="A167" t="s">
         <v>28</v>
       </c>
@@ -11667,7 +11699,7 @@
       </c>
       <c r="I167"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10">
       <c r="A168" t="s">
         <v>28</v>
       </c>
@@ -11685,7 +11717,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10">
       <c r="A169" t="s">
         <v>28</v>
       </c>
@@ -11700,7 +11732,7 @@
       </c>
       <c r="I169"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10">
       <c r="A170" t="s">
         <v>48</v>
       </c>
@@ -11718,7 +11750,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10">
       <c r="A171" t="s">
         <v>48</v>
       </c>
@@ -11736,7 +11768,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10">
       <c r="A172" t="s">
         <v>48</v>
       </c>
@@ -11754,7 +11786,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10">
       <c r="A173" t="s">
         <v>48</v>
       </c>
@@ -11769,7 +11801,7 @@
       </c>
       <c r="I173"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10">
       <c r="A174" t="s">
         <v>48</v>
       </c>
@@ -11784,7 +11816,7 @@
       </c>
       <c r="I174"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10">
       <c r="A175" t="s">
         <v>48</v>
       </c>
@@ -11799,7 +11831,7 @@
       </c>
       <c r="I175"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10">
       <c r="A176" t="s">
         <v>48</v>
       </c>
@@ -11814,7 +11846,7 @@
       </c>
       <c r="I176"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10">
       <c r="A177" t="s">
         <v>48</v>
       </c>
@@ -11829,7 +11861,7 @@
       </c>
       <c r="I177"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10">
       <c r="A178" t="s">
         <v>48</v>
       </c>
@@ -11844,7 +11876,7 @@
       </c>
       <c r="I178"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10">
       <c r="A179" t="s">
         <v>48</v>
       </c>
@@ -11859,7 +11891,7 @@
       </c>
       <c r="I179"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10">
       <c r="A180" t="s">
         <v>48</v>
       </c>
@@ -11874,7 +11906,7 @@
       </c>
       <c r="I180"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10">
       <c r="A181" t="s">
         <v>48</v>
       </c>
@@ -11897,7 +11929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10">
       <c r="A182" t="s">
         <v>48</v>
       </c>
@@ -11912,7 +11944,7 @@
       </c>
       <c r="I182"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10">
       <c r="A183" t="s">
         <v>48</v>
       </c>
@@ -11927,7 +11959,7 @@
       </c>
       <c r="I183"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10">
       <c r="A184" t="s">
         <v>48</v>
       </c>
@@ -11942,7 +11974,7 @@
       </c>
       <c r="I184"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10">
       <c r="A185" t="s">
         <v>48</v>
       </c>
@@ -11957,7 +11989,7 @@
       </c>
       <c r="I185"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10">
       <c r="A186" t="s">
         <v>48</v>
       </c>
@@ -11972,7 +12004,7 @@
       </c>
       <c r="I186"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10">
       <c r="A187" t="s">
         <v>48</v>
       </c>
@@ -11987,7 +12019,7 @@
       </c>
       <c r="I187"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10">
       <c r="A188" t="s">
         <v>48</v>
       </c>
@@ -12002,7 +12034,7 @@
       </c>
       <c r="I188"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10">
       <c r="A189" t="s">
         <v>48</v>
       </c>
@@ -12017,7 +12049,7 @@
       </c>
       <c r="I189"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10">
       <c r="A190" t="s">
         <v>48</v>
       </c>
@@ -12032,7 +12064,7 @@
       </c>
       <c r="I190"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10">
       <c r="A191" t="s">
         <v>48</v>
       </c>
@@ -12055,7 +12087,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10">
       <c r="A192" t="s">
         <v>48</v>
       </c>
@@ -12070,7 +12102,7 @@
       </c>
       <c r="I192"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10">
       <c r="A193" t="s">
         <v>48</v>
       </c>
@@ -12085,7 +12117,7 @@
       </c>
       <c r="I193"/>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10">
       <c r="A194" t="s">
         <v>48</v>
       </c>
@@ -12100,7 +12132,7 @@
       </c>
       <c r="I194"/>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10">
       <c r="A195" t="s">
         <v>48</v>
       </c>
@@ -12118,7 +12150,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10">
       <c r="A196" t="s">
         <v>48</v>
       </c>
@@ -12133,7 +12165,7 @@
       </c>
       <c r="I196"/>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10">
       <c r="A197" t="s">
         <v>48</v>
       </c>
@@ -12151,7 +12183,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10">
       <c r="A198" t="s">
         <v>48</v>
       </c>
@@ -12166,7 +12198,7 @@
       </c>
       <c r="I198"/>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10">
       <c r="A199" t="s">
         <v>48</v>
       </c>
@@ -12181,7 +12213,7 @@
       </c>
       <c r="I199"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10">
       <c r="A200" t="s">
         <v>48</v>
       </c>
@@ -12196,7 +12228,7 @@
       </c>
       <c r="I200"/>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10">
       <c r="A201" t="s">
         <v>48</v>
       </c>
@@ -12211,7 +12243,7 @@
       </c>
       <c r="I201"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10">
       <c r="A202" t="s">
         <v>48</v>
       </c>
@@ -12226,7 +12258,7 @@
       </c>
       <c r="I202"/>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10">
       <c r="A203" t="s">
         <v>48</v>
       </c>
@@ -12258,7 +12290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10">
       <c r="A204" t="s">
         <v>48</v>
       </c>
@@ -12276,7 +12308,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10">
       <c r="A205" t="s">
         <v>48</v>
       </c>
@@ -12294,7 +12326,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10">
       <c r="A206" t="s">
         <v>48</v>
       </c>
@@ -12312,7 +12344,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10">
       <c r="A207" t="s">
         <v>48</v>
       </c>
@@ -12330,7 +12362,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10">
       <c r="A208" t="s">
         <v>48</v>
       </c>
@@ -12345,7 +12377,7 @@
       </c>
       <c r="I208"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10">
       <c r="A209" t="s">
         <v>48</v>
       </c>
@@ -12363,7 +12395,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10">
       <c r="A210" t="s">
         <v>48</v>
       </c>
@@ -12381,7 +12413,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10">
       <c r="A211" t="s">
         <v>48</v>
       </c>
@@ -12399,7 +12431,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10">
       <c r="A212" t="s">
         <v>48</v>
       </c>
@@ -12414,7 +12446,7 @@
       </c>
       <c r="I212"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10">
       <c r="A213" t="s">
         <v>48</v>
       </c>
@@ -12429,7 +12461,7 @@
       </c>
       <c r="I213"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10">
       <c r="A214" t="s">
         <v>48</v>
       </c>
@@ -12447,7 +12479,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10">
       <c r="A215" t="s">
         <v>48</v>
       </c>
@@ -12465,7 +12497,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10">
       <c r="A216" t="s">
         <v>48</v>
       </c>
@@ -12480,7 +12512,7 @@
       </c>
       <c r="I216"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10">
       <c r="A217" t="s">
         <v>48</v>
       </c>
@@ -12495,7 +12527,7 @@
       </c>
       <c r="I217"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10">
       <c r="A218" t="s">
         <v>48</v>
       </c>
@@ -12510,7 +12542,7 @@
       </c>
       <c r="I218"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10">
       <c r="A219" t="s">
         <v>48</v>
       </c>
@@ -12528,7 +12560,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10">
       <c r="A220" t="s">
         <v>48</v>
       </c>
@@ -12546,7 +12578,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10">
       <c r="A221" t="s">
         <v>48</v>
       </c>
@@ -12564,7 +12596,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10">
       <c r="A222" t="s">
         <v>48</v>
       </c>
@@ -12582,7 +12614,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10">
       <c r="A223" t="s">
         <v>48</v>
       </c>
@@ -12597,7 +12629,7 @@
       </c>
       <c r="I223"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10">
       <c r="A224" t="s">
         <v>48</v>
       </c>
@@ -12612,7 +12644,7 @@
       </c>
       <c r="I224"/>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10">
       <c r="A225" t="s">
         <v>48</v>
       </c>
@@ -12627,7 +12659,7 @@
       </c>
       <c r="I225"/>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10">
       <c r="A226" t="s">
         <v>48</v>
       </c>
@@ -12642,7 +12674,7 @@
       </c>
       <c r="I226"/>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10">
       <c r="A227" t="s">
         <v>48</v>
       </c>
@@ -12657,7 +12689,7 @@
       </c>
       <c r="I227"/>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10">
       <c r="A228" t="s">
         <v>48</v>
       </c>
@@ -12672,7 +12704,7 @@
       </c>
       <c r="I228"/>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10">
       <c r="A229" t="s">
         <v>48</v>
       </c>
@@ -12690,7 +12722,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10">
       <c r="A230" t="s">
         <v>48</v>
       </c>
@@ -12705,7 +12737,7 @@
       </c>
       <c r="I230"/>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10">
       <c r="A231" t="s">
         <v>48</v>
       </c>
@@ -12720,7 +12752,7 @@
       </c>
       <c r="I231"/>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10">
       <c r="A232" t="s">
         <v>48</v>
       </c>
@@ -12735,7 +12767,7 @@
       </c>
       <c r="I232"/>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10">
       <c r="A233" t="s">
         <v>48</v>
       </c>
@@ -12750,7 +12782,7 @@
       </c>
       <c r="I233"/>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10">
       <c r="A234" t="s">
         <v>48</v>
       </c>
@@ -12765,7 +12797,7 @@
       </c>
       <c r="I234"/>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10">
       <c r="A235" t="s">
         <v>48</v>
       </c>
@@ -12780,7 +12812,7 @@
       </c>
       <c r="I235"/>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10">
       <c r="A236" t="s">
         <v>17</v>
       </c>
@@ -12795,7 +12827,7 @@
       </c>
       <c r="I236"/>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -12813,7 +12845,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -12831,7 +12863,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10">
       <c r="A239" t="s">
         <v>17</v>
       </c>
@@ -12849,7 +12881,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10">
       <c r="A240" t="s">
         <v>17</v>
       </c>
@@ -12867,7 +12899,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10">
       <c r="A241" t="s">
         <v>17</v>
       </c>
@@ -12885,7 +12917,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10">
       <c r="A242" t="s">
         <v>17</v>
       </c>
@@ -12903,7 +12935,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10">
       <c r="A243" t="s">
         <v>17</v>
       </c>
@@ -12921,7 +12953,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10">
       <c r="A244" t="s">
         <v>17</v>
       </c>
@@ -12939,7 +12971,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -12957,7 +12989,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -12975,7 +13007,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10">
       <c r="A247" t="s">
         <v>17</v>
       </c>
@@ -12990,7 +13022,7 @@
       </c>
       <c r="I247"/>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -13008,7 +13040,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10">
       <c r="A249" t="s">
         <v>17</v>
       </c>
@@ -13026,7 +13058,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10">
       <c r="A250" t="s">
         <v>17</v>
       </c>
@@ -13044,7 +13076,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -13062,7 +13094,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -13080,7 +13112,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10">
       <c r="A253" t="s">
         <v>17</v>
       </c>
@@ -13098,7 +13130,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10">
       <c r="A254" t="s">
         <v>17</v>
       </c>
@@ -13116,7 +13148,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10">
       <c r="A255" t="s">
         <v>17</v>
       </c>
@@ -13134,7 +13166,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10">
       <c r="A256" t="s">
         <v>17</v>
       </c>
@@ -13152,7 +13184,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10">
       <c r="A257" t="s">
         <v>17</v>
       </c>
@@ -13170,7 +13202,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10">
       <c r="A258" t="s">
         <v>17</v>
       </c>
@@ -13188,7 +13220,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -13203,7 +13235,7 @@
       </c>
       <c r="I259"/>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10">
       <c r="A260" t="s">
         <v>17</v>
       </c>
@@ -13218,7 +13250,7 @@
       </c>
       <c r="I260"/>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10">
       <c r="A261" t="s">
         <v>17</v>
       </c>
@@ -13233,7 +13265,7 @@
       </c>
       <c r="I261"/>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10">
       <c r="A262" t="s">
         <v>17</v>
       </c>
@@ -13248,7 +13280,7 @@
       </c>
       <c r="I262"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10">
       <c r="A263" t="s">
         <v>17</v>
       </c>
@@ -13266,7 +13298,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10">
       <c r="A264" t="s">
         <v>17</v>
       </c>
@@ -13281,7 +13313,7 @@
       </c>
       <c r="I264"/>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10">
       <c r="A265" t="s">
         <v>17</v>
       </c>
@@ -13299,7 +13331,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10">
       <c r="A266" t="s">
         <v>17</v>
       </c>
@@ -13317,7 +13349,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10">
       <c r="A267" t="s">
         <v>17</v>
       </c>
@@ -13335,7 +13367,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10">
       <c r="A268" t="s">
         <v>17</v>
       </c>
@@ -13353,7 +13385,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10">
       <c r="A269" t="s">
         <v>17</v>
       </c>
@@ -13371,7 +13403,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10">
       <c r="A270" t="s">
         <v>17</v>
       </c>
@@ -13389,7 +13421,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10">
       <c r="A271" t="s">
         <v>17</v>
       </c>
@@ -13407,7 +13439,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10">
       <c r="A272" t="s">
         <v>17</v>
       </c>
@@ -13422,7 +13454,7 @@
       </c>
       <c r="I272"/>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10">
       <c r="A273" t="s">
         <v>17</v>
       </c>
@@ -13440,7 +13472,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10">
       <c r="A274" t="s">
         <v>17</v>
       </c>
@@ -13458,7 +13490,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10">
       <c r="A275" t="s">
         <v>17</v>
       </c>
@@ -13473,7 +13505,7 @@
       </c>
       <c r="I275"/>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10">
       <c r="A276" t="s">
         <v>17</v>
       </c>
@@ -13491,7 +13523,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10">
       <c r="A277" t="s">
         <v>17</v>
       </c>
@@ -13509,7 +13541,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10">
       <c r="A278" t="s">
         <v>17</v>
       </c>
@@ -13527,7 +13559,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10">
       <c r="A279" t="s">
         <v>17</v>
       </c>
@@ -13542,7 +13574,7 @@
       </c>
       <c r="I279"/>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10">
       <c r="A280" t="s">
         <v>17</v>
       </c>
@@ -13557,7 +13589,7 @@
       </c>
       <c r="I280"/>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10">
       <c r="A281" t="s">
         <v>17</v>
       </c>
@@ -13572,7 +13604,7 @@
       </c>
       <c r="I281"/>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10">
       <c r="A282" t="s">
         <v>17</v>
       </c>
@@ -13587,7 +13619,7 @@
       </c>
       <c r="I282"/>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10">
       <c r="A283" t="s">
         <v>17</v>
       </c>
@@ -13602,7 +13634,7 @@
       </c>
       <c r="I283"/>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10">
       <c r="A284" t="s">
         <v>17</v>
       </c>
@@ -13617,7 +13649,7 @@
       </c>
       <c r="I284"/>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10">
       <c r="A285" t="s">
         <v>17</v>
       </c>
@@ -13635,7 +13667,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10">
       <c r="A286" t="s">
         <v>17</v>
       </c>
@@ -13650,7 +13682,7 @@
       </c>
       <c r="I286"/>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10">
       <c r="A287" t="s">
         <v>17</v>
       </c>
@@ -13665,7 +13697,7 @@
       </c>
       <c r="I287"/>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10">
       <c r="A288" t="s">
         <v>17</v>
       </c>
@@ -13683,7 +13715,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10">
       <c r="A289" t="s">
         <v>17</v>
       </c>
@@ -13698,7 +13730,7 @@
       </c>
       <c r="I289"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10">
       <c r="A290" t="s">
         <v>17</v>
       </c>
@@ -13716,7 +13748,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10">
       <c r="A291" t="s">
         <v>17</v>
       </c>
@@ -13734,7 +13766,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10">
       <c r="A292" t="s">
         <v>17</v>
       </c>
@@ -13752,7 +13784,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10">
       <c r="A293" t="s">
         <v>17</v>
       </c>
@@ -13767,7 +13799,7 @@
       </c>
       <c r="I293"/>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10">
       <c r="A294" t="s">
         <v>17</v>
       </c>
@@ -13782,7 +13814,7 @@
       </c>
       <c r="I294"/>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10">
       <c r="A295" t="s">
         <v>17</v>
       </c>
@@ -13797,7 +13829,7 @@
       </c>
       <c r="I295"/>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10">
       <c r="A296" t="s">
         <v>17</v>
       </c>
@@ -13812,7 +13844,7 @@
       </c>
       <c r="I296"/>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10">
       <c r="A297" t="s">
         <v>17</v>
       </c>
@@ -13827,7 +13859,7 @@
       </c>
       <c r="I297"/>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10">
       <c r="A298" t="s">
         <v>17</v>
       </c>
@@ -13842,7 +13874,7 @@
       </c>
       <c r="I298"/>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10">
       <c r="A299" t="s">
         <v>17</v>
       </c>
@@ -13860,7 +13892,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10">
       <c r="A300" t="s">
         <v>17</v>
       </c>
@@ -13878,7 +13910,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10">
       <c r="A301" t="s">
         <v>17</v>
       </c>
@@ -13896,7 +13928,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10">
       <c r="A302" t="s">
         <v>17</v>
       </c>
@@ -13914,7 +13946,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10">
       <c r="A303" t="s">
         <v>17</v>
       </c>
@@ -13932,7 +13964,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10">
       <c r="A304" t="s">
         <v>17</v>
       </c>
@@ -13947,7 +13979,7 @@
       </c>
       <c r="I304"/>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10">
       <c r="A305" t="s">
         <v>17</v>
       </c>
@@ -13965,7 +13997,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10">
       <c r="A306" t="s">
         <v>17</v>
       </c>
@@ -13983,7 +14015,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10">
       <c r="A307" t="s">
         <v>17</v>
       </c>
@@ -13998,7 +14030,7 @@
       </c>
       <c r="I307"/>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10">
       <c r="A308" t="s">
         <v>17</v>
       </c>
@@ -14013,7 +14045,7 @@
       </c>
       <c r="I308"/>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10">
       <c r="A309" t="s">
         <v>17</v>
       </c>
@@ -14031,7 +14063,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10">
       <c r="A310" t="s">
         <v>17</v>
       </c>
@@ -14049,7 +14081,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10">
       <c r="A311" t="s">
         <v>17</v>
       </c>
@@ -14067,7 +14099,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10">
       <c r="A312" t="s">
         <v>17</v>
       </c>
@@ -14082,7 +14114,7 @@
       </c>
       <c r="I312"/>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10">
       <c r="A313" t="s">
         <v>17</v>
       </c>
@@ -14100,7 +14132,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10">
       <c r="A314" t="s">
         <v>17</v>
       </c>
@@ -14118,7 +14150,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10">
       <c r="A315" t="s">
         <v>17</v>
       </c>
@@ -14136,7 +14168,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10">
       <c r="A316" t="s">
         <v>17</v>
       </c>
@@ -14151,7 +14183,7 @@
       </c>
       <c r="I316"/>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10">
       <c r="A317" t="s">
         <v>17</v>
       </c>
@@ -14166,7 +14198,7 @@
       </c>
       <c r="I317"/>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10">
       <c r="A318" t="s">
         <v>17</v>
       </c>
@@ -14184,7 +14216,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10">
       <c r="A319" t="s">
         <v>17</v>
       </c>
@@ -14199,7 +14231,7 @@
       </c>
       <c r="I319"/>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10">
       <c r="A320" t="s">
         <v>17</v>
       </c>
@@ -14217,7 +14249,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10">
       <c r="A321" t="s">
         <v>17</v>
       </c>
@@ -14232,7 +14264,7 @@
       </c>
       <c r="I321"/>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10">
       <c r="A322" t="s">
         <v>17</v>
       </c>
@@ -14250,7 +14282,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10">
       <c r="A323" t="s">
         <v>17</v>
       </c>
@@ -14268,7 +14300,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10">
       <c r="A324" t="s">
         <v>17</v>
       </c>
@@ -14286,7 +14318,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10">
       <c r="A325" t="s">
         <v>17</v>
       </c>
@@ -14304,7 +14336,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10">
       <c r="A326" t="s">
         <v>17</v>
       </c>
@@ -14322,7 +14354,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10">
       <c r="A327" t="s">
         <v>17</v>
       </c>
@@ -14340,7 +14372,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10">
       <c r="A328" t="s">
         <v>17</v>
       </c>
@@ -14358,7 +14390,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10">
       <c r="A329" t="s">
         <v>17</v>
       </c>
@@ -14376,7 +14408,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10">
       <c r="A330" t="s">
         <v>17</v>
       </c>
@@ -14394,7 +14426,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10">
       <c r="A331" t="s">
         <v>17</v>
       </c>
@@ -14412,7 +14444,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10">
       <c r="A332" t="s">
         <v>17</v>
       </c>
@@ -14430,7 +14462,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10">
       <c r="A333" t="s">
         <v>17</v>
       </c>
@@ -14448,7 +14480,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10">
       <c r="A334" t="s">
         <v>17</v>
       </c>
@@ -14466,7 +14498,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10">
       <c r="A335" t="s">
         <v>17</v>
       </c>
@@ -14484,7 +14516,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10">
       <c r="A336" t="s">
         <v>17</v>
       </c>
@@ -14502,7 +14534,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10">
       <c r="A337" t="s">
         <v>17</v>
       </c>
@@ -14520,7 +14552,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10">
       <c r="A338" t="s">
         <v>17</v>
       </c>
@@ -14538,7 +14570,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10">
       <c r="A339" t="s">
         <v>17</v>
       </c>
@@ -14556,7 +14588,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10">
       <c r="A340" t="s">
         <v>17</v>
       </c>
@@ -14574,7 +14606,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10">
       <c r="A341" t="s">
         <v>17</v>
       </c>
@@ -14592,7 +14624,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10">
       <c r="A342" t="s">
         <v>17</v>
       </c>
@@ -14610,7 +14642,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10">
       <c r="A343" t="s">
         <v>17</v>
       </c>
@@ -14625,7 +14657,7 @@
       </c>
       <c r="I343"/>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10">
       <c r="A344" t="s">
         <v>17</v>
       </c>
@@ -14643,7 +14675,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10">
       <c r="A345" t="s">
         <v>17</v>
       </c>
@@ -14661,7 +14693,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10">
       <c r="A346" t="s">
         <v>17</v>
       </c>
@@ -14679,7 +14711,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10">
       <c r="A347" t="s">
         <v>17</v>
       </c>
@@ -14694,7 +14726,7 @@
       </c>
       <c r="I347"/>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10">
       <c r="A348" t="s">
         <v>17</v>
       </c>
@@ -14709,7 +14741,7 @@
       </c>
       <c r="I348"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10">
       <c r="A349" t="s">
         <v>17</v>
       </c>
@@ -14724,7 +14756,7 @@
       </c>
       <c r="I349"/>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10">
       <c r="A350" t="s">
         <v>17</v>
       </c>
@@ -14739,7 +14771,7 @@
       </c>
       <c r="I350"/>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10">
       <c r="A351" t="s">
         <v>17</v>
       </c>
@@ -14757,7 +14789,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10">
       <c r="A352" t="s">
         <v>17</v>
       </c>
@@ -14775,7 +14807,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10">
       <c r="A353" t="s">
         <v>17</v>
       </c>
@@ -14793,7 +14825,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10">
       <c r="A354" t="s">
         <v>17</v>
       </c>
@@ -14811,7 +14843,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10">
       <c r="A355" t="s">
         <v>17</v>
       </c>
@@ -14826,7 +14858,7 @@
       </c>
       <c r="I355"/>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10">
       <c r="A356" t="s">
         <v>17</v>
       </c>
@@ -14841,7 +14873,7 @@
       </c>
       <c r="I356"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10">
       <c r="A357" t="s">
         <v>17</v>
       </c>
@@ -14856,7 +14888,7 @@
       </c>
       <c r="I357"/>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10">
       <c r="A358" t="s">
         <v>17</v>
       </c>
@@ -14874,7 +14906,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10">
       <c r="A359" t="s">
         <v>17</v>
       </c>
@@ -14889,7 +14921,7 @@
       </c>
       <c r="I359"/>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10">
       <c r="A360" t="s">
         <v>17</v>
       </c>
@@ -14904,7 +14936,7 @@
       </c>
       <c r="I360"/>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10">
       <c r="A361" t="s">
         <v>17</v>
       </c>
@@ -14919,7 +14951,7 @@
       </c>
       <c r="I361"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10">
       <c r="A362" t="s">
         <v>17</v>
       </c>
@@ -14934,7 +14966,7 @@
       </c>
       <c r="I362"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10">
       <c r="A363" t="s">
         <v>17</v>
       </c>
@@ -14949,7 +14981,7 @@
       </c>
       <c r="I363"/>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10">
       <c r="A364" t="s">
         <v>17</v>
       </c>
@@ -14964,7 +14996,7 @@
       </c>
       <c r="I364"/>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10">
       <c r="A365" t="s">
         <v>17</v>
       </c>
@@ -14979,7 +15011,7 @@
       </c>
       <c r="I365"/>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10">
       <c r="A366" t="s">
         <v>17</v>
       </c>
@@ -14994,7 +15026,7 @@
       </c>
       <c r="I366"/>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10">
       <c r="A367" t="s">
         <v>17</v>
       </c>
@@ -15009,7 +15041,7 @@
       </c>
       <c r="I367"/>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10">
       <c r="A368" t="s">
         <v>17</v>
       </c>
@@ -15024,7 +15056,7 @@
       </c>
       <c r="I368"/>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9">
       <c r="A369" t="s">
         <v>17</v>
       </c>
@@ -15039,7 +15071,7 @@
       </c>
       <c r="I369"/>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9">
       <c r="A370" t="s">
         <v>17</v>
       </c>
@@ -15054,7 +15086,7 @@
       </c>
       <c r="I370"/>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9">
       <c r="A371" t="s">
         <v>17</v>
       </c>
@@ -15069,7 +15101,7 @@
       </c>
       <c r="I371"/>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9">
       <c r="A372" t="s">
         <v>17</v>
       </c>
@@ -15084,7 +15116,7 @@
       </c>
       <c r="I372"/>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9">
       <c r="A373" t="s">
         <v>17</v>
       </c>
@@ -15099,7 +15131,7 @@
       </c>
       <c r="I373"/>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9">
       <c r="A374" t="s">
         <v>17</v>
       </c>
@@ -15114,7 +15146,7 @@
       </c>
       <c r="I374"/>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9">
       <c r="A375" t="s">
         <v>17</v>
       </c>
@@ -15129,7 +15161,7 @@
       </c>
       <c r="I375"/>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9">
       <c r="A376" t="s">
         <v>17</v>
       </c>
@@ -15144,7 +15176,7 @@
       </c>
       <c r="I376"/>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9">
       <c r="A377" t="s">
         <v>17</v>
       </c>
@@ -15159,7 +15191,7 @@
       </c>
       <c r="I377"/>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9">
       <c r="A378" t="s">
         <v>17</v>
       </c>
@@ -15174,7 +15206,7 @@
       </c>
       <c r="I378"/>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9">
       <c r="A379" t="s">
         <v>17</v>
       </c>
@@ -15189,7 +15221,7 @@
       </c>
       <c r="I379"/>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9">
       <c r="A380" t="s">
         <v>17</v>
       </c>
@@ -15204,7 +15236,7 @@
       </c>
       <c r="I380"/>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9">
       <c r="A381" t="s">
         <v>17</v>
       </c>
@@ -15219,7 +15251,7 @@
       </c>
       <c r="I381"/>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9">
       <c r="A382" t="s">
         <v>17</v>
       </c>
@@ -15234,7 +15266,7 @@
       </c>
       <c r="I382"/>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9">
       <c r="A383" t="s">
         <v>17</v>
       </c>
@@ -15249,7 +15281,7 @@
       </c>
       <c r="I383"/>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9">
       <c r="A384" t="s">
         <v>17</v>
       </c>
@@ -15264,7 +15296,7 @@
       </c>
       <c r="I384"/>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10">
       <c r="A385" t="s">
         <v>17</v>
       </c>
@@ -15279,7 +15311,7 @@
       </c>
       <c r="I385"/>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10">
       <c r="A386" t="s">
         <v>17</v>
       </c>
@@ -15294,7 +15326,7 @@
       </c>
       <c r="I386"/>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10">
       <c r="A387" t="s">
         <v>17</v>
       </c>
@@ -15309,7 +15341,7 @@
       </c>
       <c r="I387"/>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10">
       <c r="A388" t="s">
         <v>17</v>
       </c>
@@ -15324,7 +15356,7 @@
       </c>
       <c r="I388"/>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:10">
       <c r="A389" t="s">
         <v>17</v>
       </c>
@@ -15339,7 +15371,7 @@
       </c>
       <c r="I389"/>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10">
       <c r="A390" t="s">
         <v>17</v>
       </c>
@@ -15354,7 +15386,7 @@
       </c>
       <c r="I390"/>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10">
       <c r="A391" t="s">
         <v>17</v>
       </c>
@@ -15369,7 +15401,7 @@
       </c>
       <c r="I391"/>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:10">
       <c r="A392" t="s">
         <v>17</v>
       </c>
@@ -15384,7 +15416,7 @@
       </c>
       <c r="I392"/>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10">
       <c r="A393" t="s">
         <v>17</v>
       </c>
@@ -15399,7 +15431,7 @@
       </c>
       <c r="I393"/>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:10">
       <c r="A394" t="s">
         <v>17</v>
       </c>
@@ -15417,7 +15449,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:10">
       <c r="A395" t="s">
         <v>17</v>
       </c>
@@ -15435,7 +15467,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10">
       <c r="A396" t="s">
         <v>17</v>
       </c>
@@ -15453,7 +15485,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10">
       <c r="A397" t="s">
         <v>17</v>
       </c>
@@ -15471,7 +15503,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:10">
       <c r="A398" t="s">
         <v>17</v>
       </c>
@@ -15486,7 +15518,7 @@
       </c>
       <c r="I398"/>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:10">
       <c r="A399" t="s">
         <v>17</v>
       </c>
@@ -15504,7 +15536,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:10">
       <c r="A400" t="s">
         <v>17</v>
       </c>
@@ -15519,7 +15551,7 @@
       </c>
       <c r="I400"/>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:10">
       <c r="A401" t="s">
         <v>17</v>
       </c>
@@ -15537,7 +15569,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:10">
       <c r="A402" t="s">
         <v>17</v>
       </c>
@@ -15552,7 +15584,7 @@
       </c>
       <c r="I402"/>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:10">
       <c r="A403" t="s">
         <v>17</v>
       </c>
@@ -15567,7 +15599,7 @@
       </c>
       <c r="I403"/>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:10">
       <c r="A404" t="s">
         <v>17</v>
       </c>
@@ -15582,7 +15614,7 @@
       </c>
       <c r="I404"/>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:10">
       <c r="A405" t="s">
         <v>17</v>
       </c>
@@ -15597,7 +15629,7 @@
       </c>
       <c r="I405"/>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:10">
       <c r="A406" t="s">
         <v>17</v>
       </c>
@@ -15615,7 +15647,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:10">
       <c r="A407" t="s">
         <v>17</v>
       </c>
@@ -15630,7 +15662,7 @@
       </c>
       <c r="I407"/>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:10">
       <c r="A408" t="s">
         <v>17</v>
       </c>
@@ -15648,7 +15680,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:10">
       <c r="A409" t="s">
         <v>17</v>
       </c>
@@ -15663,7 +15695,7 @@
       </c>
       <c r="I409"/>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:10">
       <c r="A410" t="s">
         <v>17</v>
       </c>
@@ -15678,7 +15710,7 @@
       </c>
       <c r="I410"/>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:10">
       <c r="A411" t="s">
         <v>17</v>
       </c>
@@ -15696,7 +15728,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:10">
       <c r="A412" t="s">
         <v>17</v>
       </c>
@@ -15714,7 +15746,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:10">
       <c r="A413" t="s">
         <v>17</v>
       </c>
@@ -15732,7 +15764,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:10">
       <c r="A414" t="s">
         <v>17</v>
       </c>
@@ -15750,7 +15782,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:10">
       <c r="A415" t="s">
         <v>17</v>
       </c>
@@ -15768,7 +15800,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:10">
       <c r="A416" t="s">
         <v>17</v>
       </c>
@@ -15786,7 +15818,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:10">
       <c r="A417" t="s">
         <v>17</v>
       </c>
@@ -15804,7 +15836,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:10">
       <c r="A418" t="s">
         <v>17</v>
       </c>
@@ -15822,7 +15854,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:10">
       <c r="A419" t="s">
         <v>17</v>
       </c>
@@ -15837,7 +15869,7 @@
       </c>
       <c r="I419"/>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:10">
       <c r="A420" t="s">
         <v>17</v>
       </c>
@@ -15855,7 +15887,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:10">
       <c r="A421" t="s">
         <v>17</v>
       </c>
@@ -15873,7 +15905,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:10">
       <c r="A422" t="s">
         <v>17</v>
       </c>
@@ -15891,7 +15923,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:10">
       <c r="A423" t="s">
         <v>17</v>
       </c>
@@ -15909,7 +15941,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:10">
       <c r="A424" t="s">
         <v>17</v>
       </c>
@@ -15924,7 +15956,7 @@
       </c>
       <c r="I424"/>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:10">
       <c r="A425" t="s">
         <v>17</v>
       </c>
@@ -15942,7 +15974,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:10">
       <c r="A426" t="s">
         <v>17</v>
       </c>
@@ -15960,7 +15992,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:10">
       <c r="A427" t="s">
         <v>17</v>
       </c>
@@ -15978,7 +16010,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:10">
       <c r="A428" t="s">
         <v>17</v>
       </c>
@@ -15993,7 +16025,7 @@
       </c>
       <c r="I428"/>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:10">
       <c r="A429" t="s">
         <v>17</v>
       </c>
@@ -16011,7 +16043,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:10">
       <c r="A430" t="s">
         <v>17</v>
       </c>
@@ -16029,7 +16061,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:10">
       <c r="A431" t="s">
         <v>17</v>
       </c>
@@ -16047,7 +16079,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:10">
       <c r="A432" t="s">
         <v>17</v>
       </c>
@@ -16065,7 +16097,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:10">
       <c r="A433" t="s">
         <v>17</v>
       </c>
@@ -16083,7 +16115,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:10">
       <c r="A434" t="s">
         <v>17</v>
       </c>
@@ -16101,7 +16133,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:10">
       <c r="A435" t="s">
         <v>17</v>
       </c>
@@ -16119,7 +16151,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:10">
       <c r="A436" t="s">
         <v>17</v>
       </c>
@@ -16137,7 +16169,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:10">
       <c r="A437" t="s">
         <v>17</v>
       </c>
@@ -16155,7 +16187,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:10">
       <c r="A438" t="s">
         <v>17</v>
       </c>
@@ -16173,7 +16205,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:10">
       <c r="A439" t="s">
         <v>17</v>
       </c>
@@ -16191,7 +16223,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:10">
       <c r="A440" t="s">
         <v>17</v>
       </c>
@@ -16209,7 +16241,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:10">
       <c r="A441" t="s">
         <v>17</v>
       </c>
@@ -16227,7 +16259,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:10">
       <c r="A442" t="s">
         <v>17</v>
       </c>
@@ -16242,7 +16274,7 @@
       </c>
       <c r="I442"/>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:10">
       <c r="A443" t="s">
         <v>17</v>
       </c>
@@ -16257,7 +16289,7 @@
       </c>
       <c r="I443"/>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:10">
       <c r="A444" t="s">
         <v>17</v>
       </c>
@@ -16272,7 +16304,7 @@
       </c>
       <c r="I444"/>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:10">
       <c r="A445" t="s">
         <v>17</v>
       </c>
@@ -16290,7 +16322,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:10">
       <c r="A446" t="s">
         <v>17</v>
       </c>
@@ -16305,7 +16337,7 @@
       </c>
       <c r="I446"/>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:10">
       <c r="A447" t="s">
         <v>17</v>
       </c>
@@ -16323,7 +16355,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:10">
       <c r="A448" t="s">
         <v>17</v>
       </c>
@@ -16338,7 +16370,7 @@
       </c>
       <c r="I448"/>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:10">
       <c r="A449" t="s">
         <v>17</v>
       </c>
@@ -16356,7 +16388,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:10">
       <c r="A450" t="s">
         <v>17</v>
       </c>
@@ -16371,7 +16403,7 @@
       </c>
       <c r="I450"/>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:10">
       <c r="A451" t="s">
         <v>17</v>
       </c>
@@ -16386,7 +16418,7 @@
       </c>
       <c r="I451"/>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:10">
       <c r="A452" t="s">
         <v>17</v>
       </c>
@@ -16401,7 +16433,7 @@
       </c>
       <c r="I452"/>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:10">
       <c r="A453" t="s">
         <v>17</v>
       </c>
@@ -16419,7 +16451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:10">
       <c r="A454" t="s">
         <v>17</v>
       </c>
@@ -16437,7 +16469,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:10">
       <c r="A455" t="s">
         <v>17</v>
       </c>
@@ -16452,7 +16484,7 @@
       </c>
       <c r="I455"/>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:10">
       <c r="A456" t="s">
         <v>17</v>
       </c>
@@ -16467,7 +16499,7 @@
       </c>
       <c r="I456"/>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:10">
       <c r="A457" t="s">
         <v>17</v>
       </c>
@@ -16482,7 +16514,7 @@
       </c>
       <c r="I457"/>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:10">
       <c r="A458" t="s">
         <v>17</v>
       </c>
@@ -16497,7 +16529,7 @@
       </c>
       <c r="I458"/>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:10">
       <c r="A459" t="s">
         <v>17</v>
       </c>
@@ -16512,7 +16544,7 @@
       </c>
       <c r="I459"/>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:10">
       <c r="A460" t="s">
         <v>17</v>
       </c>
@@ -16530,7 +16562,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:10">
       <c r="A461" t="s">
         <v>17</v>
       </c>
@@ -16545,7 +16577,7 @@
       </c>
       <c r="I461"/>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:10">
       <c r="A462" t="s">
         <v>17</v>
       </c>
@@ -16560,7 +16592,7 @@
       </c>
       <c r="I462"/>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:10">
       <c r="A463" t="s">
         <v>17</v>
       </c>
@@ -16575,7 +16607,7 @@
       </c>
       <c r="I463"/>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:10">
       <c r="A464" t="s">
         <v>17</v>
       </c>
@@ -16590,7 +16622,7 @@
       </c>
       <c r="I464"/>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:10">
       <c r="A465" t="s">
         <v>17</v>
       </c>
@@ -16605,7 +16637,7 @@
       </c>
       <c r="I465"/>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:10">
       <c r="A466" t="s">
         <v>17</v>
       </c>
@@ -16623,7 +16655,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:10">
       <c r="A467" t="s">
         <v>17</v>
       </c>
@@ -16638,7 +16670,7 @@
       </c>
       <c r="I467"/>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:10">
       <c r="A468" t="s">
         <v>17</v>
       </c>
@@ -16656,7 +16688,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:10">
       <c r="A469" t="s">
         <v>17</v>
       </c>
@@ -16674,7 +16706,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:10">
       <c r="A470" t="s">
         <v>17</v>
       </c>
@@ -16689,7 +16721,7 @@
       </c>
       <c r="I470"/>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:10">
       <c r="A471" t="s">
         <v>17</v>
       </c>
@@ -16704,7 +16736,7 @@
       </c>
       <c r="I471"/>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:10">
       <c r="A472" t="s">
         <v>17</v>
       </c>
@@ -16719,7 +16751,7 @@
       </c>
       <c r="I472"/>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:10">
       <c r="A473" t="s">
         <v>17</v>
       </c>
@@ -16734,7 +16766,7 @@
       </c>
       <c r="I473"/>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:10">
       <c r="A474" t="s">
         <v>17</v>
       </c>
@@ -16749,7 +16781,7 @@
       </c>
       <c r="I474"/>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:10">
       <c r="A475" t="s">
         <v>17</v>
       </c>
@@ -16764,7 +16796,7 @@
       </c>
       <c r="I475"/>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:10">
       <c r="A476" t="s">
         <v>17</v>
       </c>
@@ -16779,7 +16811,7 @@
       </c>
       <c r="I476"/>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:10">
       <c r="A477" t="s">
         <v>17</v>
       </c>
@@ -16794,7 +16826,7 @@
       </c>
       <c r="I477"/>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:10">
       <c r="A478" t="s">
         <v>17</v>
       </c>
@@ -16809,7 +16841,7 @@
       </c>
       <c r="I478"/>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:10">
       <c r="A479" t="s">
         <v>17</v>
       </c>
@@ -16824,7 +16856,7 @@
       </c>
       <c r="I479"/>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:10">
       <c r="A480" t="s">
         <v>17</v>
       </c>
@@ -16839,7 +16871,7 @@
       </c>
       <c r="I480"/>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:10">
       <c r="A481" t="s">
         <v>17</v>
       </c>
@@ -16854,7 +16886,7 @@
       </c>
       <c r="I481"/>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:10">
       <c r="A482" t="s">
         <v>17</v>
       </c>
@@ -16869,7 +16901,7 @@
       </c>
       <c r="I482"/>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:10">
       <c r="A483" t="s">
         <v>17</v>
       </c>
@@ -16884,7 +16916,7 @@
       </c>
       <c r="I483"/>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:10">
       <c r="A484" t="s">
         <v>17</v>
       </c>
@@ -16899,7 +16931,7 @@
       </c>
       <c r="I484"/>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:10">
       <c r="A485" t="s">
         <v>17</v>
       </c>
@@ -16914,7 +16946,7 @@
       </c>
       <c r="I485"/>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:10">
       <c r="A486" t="s">
         <v>17</v>
       </c>
@@ -16932,7 +16964,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:10">
       <c r="A487" t="s">
         <v>17</v>
       </c>
@@ -16950,7 +16982,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:10">
       <c r="A488" t="s">
         <v>17</v>
       </c>
@@ -16968,7 +17000,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:10">
       <c r="A489" t="s">
         <v>17</v>
       </c>
@@ -16983,7 +17015,7 @@
       </c>
       <c r="I489"/>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:10">
       <c r="A490" t="s">
         <v>17</v>
       </c>
@@ -17001,7 +17033,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:10">
       <c r="A491" t="s">
         <v>17</v>
       </c>
@@ -17019,7 +17051,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:10">
       <c r="A492" t="s">
         <v>17</v>
       </c>
@@ -17037,7 +17069,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:10">
       <c r="A493" t="s">
         <v>17</v>
       </c>
@@ -17052,7 +17084,7 @@
       </c>
       <c r="I493"/>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:10">
       <c r="A494" t="s">
         <v>17</v>
       </c>
@@ -17067,7 +17099,7 @@
       </c>
       <c r="I494"/>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:10">
       <c r="A495" t="s">
         <v>17</v>
       </c>
@@ -17082,7 +17114,7 @@
       </c>
       <c r="I495"/>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:10">
       <c r="A496" t="s">
         <v>17</v>
       </c>
@@ -17097,7 +17129,7 @@
       </c>
       <c r="I496"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11">
       <c r="A497" t="s">
         <v>17</v>
       </c>
@@ -17112,7 +17144,7 @@
       </c>
       <c r="I497"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11">
       <c r="A498" t="s">
         <v>17</v>
       </c>
@@ -17127,7 +17159,7 @@
       </c>
       <c r="I498"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11">
       <c r="A499" t="s">
         <v>17</v>
       </c>
@@ -17142,7 +17174,7 @@
       </c>
       <c r="I499"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11">
       <c r="A500" t="s">
         <v>17</v>
       </c>
@@ -17157,7 +17189,7 @@
       </c>
       <c r="I500"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11">
       <c r="A501" t="s">
         <v>17</v>
       </c>
@@ -17172,7 +17204,7 @@
       </c>
       <c r="I501"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11">
       <c r="A502" t="s">
         <v>17</v>
       </c>
@@ -17187,7 +17219,7 @@
       </c>
       <c r="I502"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11">
       <c r="A503" t="s">
         <v>17</v>
       </c>
@@ -17205,7 +17237,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11">
       <c r="A504" t="s">
         <v>17</v>
       </c>
@@ -17220,7 +17252,7 @@
       </c>
       <c r="I504"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11">
       <c r="A505" t="s">
         <v>17</v>
       </c>
@@ -17238,7 +17270,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11">
       <c r="A506" t="s">
         <v>17</v>
       </c>
@@ -17253,7 +17285,7 @@
       </c>
       <c r="I506"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11">
       <c r="A507" t="s">
         <v>17</v>
       </c>
@@ -17268,7 +17300,7 @@
       </c>
       <c r="I507"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11">
       <c r="A508" t="s">
         <v>17</v>
       </c>
@@ -17286,7 +17318,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11">
       <c r="A509" t="s">
         <v>17</v>
       </c>
@@ -17304,7 +17336,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11">
       <c r="A510" t="s">
         <v>17</v>
       </c>
@@ -17322,7 +17354,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="511" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" s="12" customFormat="1">
       <c r="A511" s="12" t="s">
         <v>17</v>
       </c>
@@ -17357,7 +17389,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11">
       <c r="A512" t="s">
         <v>17</v>
       </c>
@@ -17375,7 +17407,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:10">
       <c r="A513" t="s">
         <v>17</v>
       </c>
@@ -17390,7 +17422,7 @@
       </c>
       <c r="I513"/>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:10">
       <c r="A514" t="s">
         <v>17</v>
       </c>
@@ -17408,7 +17440,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:10">
       <c r="A515" t="s">
         <v>17</v>
       </c>
@@ -17426,7 +17458,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:10">
       <c r="A516" t="s">
         <v>17</v>
       </c>
@@ -17444,7 +17476,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:10">
       <c r="A517" t="s">
         <v>17</v>
       </c>
@@ -17459,7 +17491,7 @@
       </c>
       <c r="I517"/>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:10">
       <c r="A518" t="s">
         <v>17</v>
       </c>
@@ -17474,7 +17506,7 @@
       </c>
       <c r="I518"/>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:10">
       <c r="A519" t="s">
         <v>17</v>
       </c>
@@ -17489,7 +17521,7 @@
       </c>
       <c r="I519"/>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:10">
       <c r="A520" t="s">
         <v>17</v>
       </c>
@@ -17504,7 +17536,7 @@
       </c>
       <c r="I520"/>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:10">
       <c r="A521" t="s">
         <v>17</v>
       </c>
@@ -17519,7 +17551,7 @@
       </c>
       <c r="I521"/>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:10">
       <c r="A522" t="s">
         <v>17</v>
       </c>
@@ -17534,7 +17566,7 @@
       </c>
       <c r="I522"/>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:10">
       <c r="A523" t="s">
         <v>17</v>
       </c>
@@ -17549,7 +17581,7 @@
       </c>
       <c r="I523"/>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:10">
       <c r="A524" t="s">
         <v>17</v>
       </c>
@@ -17564,7 +17596,7 @@
       </c>
       <c r="I524"/>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:10">
       <c r="A525" t="s">
         <v>17</v>
       </c>
@@ -17582,7 +17614,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:10">
       <c r="A526" t="s">
         <v>17</v>
       </c>
@@ -17597,7 +17629,7 @@
       </c>
       <c r="I526"/>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:10">
       <c r="A527" t="s">
         <v>17</v>
       </c>
@@ -17612,7 +17644,7 @@
       </c>
       <c r="I527"/>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:10">
       <c r="A528" t="s">
         <v>17</v>
       </c>
@@ -17627,7 +17659,7 @@
       </c>
       <c r="I528"/>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:10">
       <c r="A529" t="s">
         <v>17</v>
       </c>
@@ -17642,7 +17674,7 @@
       </c>
       <c r="I529"/>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:10">
       <c r="A530" t="s">
         <v>17</v>
       </c>
@@ -17660,7 +17692,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:10">
       <c r="A531" t="s">
         <v>17</v>
       </c>
@@ -17675,7 +17707,7 @@
       </c>
       <c r="I531"/>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:10">
       <c r="A532" t="s">
         <v>17</v>
       </c>
@@ -17693,7 +17725,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:10">
       <c r="A533" t="s">
         <v>17</v>
       </c>
@@ -17711,7 +17743,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:10">
       <c r="A534" t="s">
         <v>17</v>
       </c>
@@ -17729,7 +17761,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:10">
       <c r="A535" t="s">
         <v>17</v>
       </c>
@@ -17747,7 +17779,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:10">
       <c r="A536" t="s">
         <v>17</v>
       </c>
@@ -17765,7 +17797,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:10">
       <c r="A537" t="s">
         <v>17</v>
       </c>
@@ -17783,7 +17815,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:10">
       <c r="A538" t="s">
         <v>17</v>
       </c>
@@ -17798,7 +17830,7 @@
       </c>
       <c r="I538"/>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:10">
       <c r="A539" t="s">
         <v>17</v>
       </c>
@@ -17813,7 +17845,7 @@
       </c>
       <c r="I539"/>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:10">
       <c r="A540" t="s">
         <v>17</v>
       </c>
@@ -17828,7 +17860,7 @@
       </c>
       <c r="I540"/>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:10">
       <c r="A541" t="s">
         <v>17</v>
       </c>
@@ -17846,7 +17878,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:10">
       <c r="A542" t="s">
         <v>17</v>
       </c>
@@ -17864,7 +17896,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:10">
       <c r="A543" t="s">
         <v>17</v>
       </c>
@@ -17882,7 +17914,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:10">
       <c r="A544" t="s">
         <v>17</v>
       </c>
@@ -17900,7 +17932,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:10">
       <c r="A545" t="s">
         <v>17</v>
       </c>
@@ -17918,7 +17950,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:10">
       <c r="A546" t="s">
         <v>17</v>
       </c>
@@ -17933,7 +17965,7 @@
       </c>
       <c r="I546"/>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:10">
       <c r="A547" t="s">
         <v>17</v>
       </c>
@@ -17951,7 +17983,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:10">
       <c r="A548" t="s">
         <v>17</v>
       </c>
@@ -17969,7 +18001,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:10">
       <c r="A549" t="s">
         <v>17</v>
       </c>
@@ -17987,7 +18019,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:10">
       <c r="A550" t="s">
         <v>17</v>
       </c>
@@ -18005,7 +18037,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:10">
       <c r="A551" t="s">
         <v>17</v>
       </c>
@@ -18020,7 +18052,7 @@
       </c>
       <c r="I551"/>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:10">
       <c r="A552" t="s">
         <v>17</v>
       </c>
@@ -18035,7 +18067,7 @@
       </c>
       <c r="I552"/>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:10">
       <c r="A553" t="s">
         <v>17</v>
       </c>
@@ -18050,7 +18082,7 @@
       </c>
       <c r="I553"/>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:10">
       <c r="A554" t="s">
         <v>17</v>
       </c>
@@ -18065,7 +18097,7 @@
       </c>
       <c r="I554"/>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:10">
       <c r="A555" t="s">
         <v>17</v>
       </c>
@@ -18083,7 +18115,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:10">
       <c r="A556" t="s">
         <v>17</v>
       </c>
@@ -18098,7 +18130,7 @@
       </c>
       <c r="I556"/>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:10">
       <c r="A557" t="s">
         <v>17</v>
       </c>
@@ -18116,7 +18148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:10">
       <c r="A558" t="s">
         <v>17</v>
       </c>
@@ -18134,7 +18166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:10">
       <c r="A559" t="s">
         <v>17</v>
       </c>
@@ -18152,7 +18184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:10">
       <c r="A560" t="s">
         <v>17</v>
       </c>
@@ -18170,7 +18202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:10">
       <c r="A561" t="s">
         <v>17</v>
       </c>
@@ -18188,7 +18220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:10">
       <c r="A562" t="s">
         <v>17</v>
       </c>
@@ -18206,7 +18238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:10">
       <c r="A563" t="s">
         <v>17</v>
       </c>
@@ -18224,7 +18256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:10">
       <c r="A564" t="s">
         <v>17</v>
       </c>
@@ -18242,7 +18274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:10">
       <c r="A565" t="s">
         <v>17</v>
       </c>
@@ -18260,7 +18292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:10">
       <c r="A566" t="s">
         <v>17</v>
       </c>
@@ -18278,7 +18310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:10">
       <c r="A567" t="s">
         <v>17</v>
       </c>
@@ -18296,7 +18328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:10">
       <c r="A568" t="s">
         <v>17</v>
       </c>
@@ -18314,7 +18346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:10">
       <c r="A569" t="s">
         <v>17</v>
       </c>
@@ -18332,7 +18364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:10">
       <c r="A570" t="s">
         <v>17</v>
       </c>
@@ -18350,7 +18382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:10">
       <c r="A571" t="s">
         <v>17</v>
       </c>
@@ -18368,7 +18400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:10">
       <c r="A572" t="s">
         <v>17</v>
       </c>
@@ -18386,7 +18418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:10">
       <c r="A573" t="s">
         <v>17</v>
       </c>
@@ -18404,7 +18436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:10">
       <c r="A574" t="s">
         <v>17</v>
       </c>
@@ -18422,7 +18454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:10">
       <c r="A575" t="s">
         <v>17</v>
       </c>
@@ -18440,7 +18472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:10">
       <c r="A576" t="s">
         <v>17</v>
       </c>
@@ -18458,7 +18490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:10">
       <c r="A577" t="s">
         <v>17</v>
       </c>
@@ -18476,7 +18508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:10">
       <c r="A578" t="s">
         <v>17</v>
       </c>
@@ -18494,7 +18526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:10">
       <c r="A579" t="s">
         <v>17</v>
       </c>
@@ -18512,7 +18544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:10">
       <c r="A580" t="s">
         <v>17</v>
       </c>
@@ -18530,7 +18562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:10">
       <c r="A581" t="s">
         <v>17</v>
       </c>
@@ -18548,7 +18580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:10">
       <c r="A582" t="s">
         <v>17</v>
       </c>
@@ -18566,7 +18598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:10">
       <c r="A583" t="s">
         <v>17</v>
       </c>
@@ -18584,7 +18616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:10">
       <c r="A584" t="s">
         <v>17</v>
       </c>
@@ -18602,7 +18634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:10">
       <c r="A585" t="s">
         <v>17</v>
       </c>
@@ -18620,7 +18652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:10">
       <c r="A586" t="s">
         <v>17</v>
       </c>
@@ -18638,7 +18670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:10">
       <c r="A587" t="s">
         <v>17</v>
       </c>
@@ -18656,7 +18688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:10">
       <c r="A588" t="s">
         <v>17</v>
       </c>
@@ -18674,7 +18706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:10">
       <c r="A589" t="s">
         <v>17</v>
       </c>
@@ -18692,7 +18724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:10">
       <c r="A590" t="s">
         <v>17</v>
       </c>
@@ -18710,7 +18742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:10">
       <c r="A591" t="s">
         <v>17</v>
       </c>
@@ -18728,7 +18760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:10">
       <c r="A592" t="s">
         <v>17</v>
       </c>
@@ -18746,7 +18778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:10">
       <c r="A593" t="s">
         <v>17</v>
       </c>
@@ -18764,7 +18796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:10">
       <c r="A594" t="s">
         <v>17</v>
       </c>
@@ -18782,7 +18814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:10">
       <c r="A595" t="s">
         <v>17</v>
       </c>
@@ -18800,7 +18832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:10">
       <c r="A596" t="s">
         <v>17</v>
       </c>
@@ -18818,7 +18850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:10">
       <c r="A597" t="s">
         <v>17</v>
       </c>
@@ -18836,7 +18868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:10">
       <c r="A598" t="s">
         <v>17</v>
       </c>
@@ -18854,7 +18886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:10">
       <c r="A599" t="s">
         <v>17</v>
       </c>
@@ -18872,7 +18904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:10">
       <c r="A600" t="s">
         <v>17</v>
       </c>
@@ -18890,7 +18922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:10">
       <c r="A601" t="s">
         <v>17</v>
       </c>
@@ -18908,7 +18940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:10">
       <c r="A602" t="s">
         <v>17</v>
       </c>
@@ -18926,7 +18958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:10">
       <c r="A603" t="s">
         <v>17</v>
       </c>
@@ -18944,7 +18976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:10">
       <c r="A604" t="s">
         <v>17</v>
       </c>
@@ -18962,7 +18994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:10">
       <c r="A605" t="s">
         <v>17</v>
       </c>
@@ -18980,7 +19012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:10">
       <c r="A606" t="s">
         <v>17</v>
       </c>
@@ -18998,7 +19030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:10">
       <c r="A607" t="s">
         <v>17</v>
       </c>
@@ -19016,7 +19048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:10">
       <c r="A608" t="s">
         <v>17</v>
       </c>
@@ -19034,7 +19066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:10">
       <c r="A609" t="s">
         <v>17</v>
       </c>
@@ -19052,7 +19084,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:10">
       <c r="A610" t="s">
         <v>17</v>
       </c>
@@ -19070,7 +19102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:10">
       <c r="A611" t="s">
         <v>17</v>
       </c>
@@ -19088,7 +19120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:10">
       <c r="A612" t="s">
         <v>17</v>
       </c>
@@ -19106,7 +19138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:10">
       <c r="A613" t="s">
         <v>17</v>
       </c>
@@ -19124,7 +19156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:10">
       <c r="A614" t="s">
         <v>17</v>
       </c>
@@ -19142,7 +19174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:10">
       <c r="A615" t="s">
         <v>17</v>
       </c>
@@ -19160,7 +19192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:10">
       <c r="A616" t="s">
         <v>17</v>
       </c>
@@ -19178,7 +19210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:10">
       <c r="A617" t="s">
         <v>17</v>
       </c>
@@ -19196,7 +19228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:10">
       <c r="A618" t="s">
         <v>17</v>
       </c>
@@ -19214,7 +19246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:10">
       <c r="A619" t="s">
         <v>17</v>
       </c>
@@ -19232,7 +19264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:10">
       <c r="A620" t="s">
         <v>17</v>
       </c>
@@ -19250,7 +19282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:10">
       <c r="A621" t="s">
         <v>17</v>
       </c>
@@ -19268,7 +19300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:10">
       <c r="A622" t="s">
         <v>17</v>
       </c>
@@ -19286,7 +19318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:10">
       <c r="A623" t="s">
         <v>17</v>
       </c>
@@ -19304,7 +19336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:10">
       <c r="A624" t="s">
         <v>17</v>
       </c>
@@ -19322,7 +19354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:10">
       <c r="A625" t="s">
         <v>17</v>
       </c>
@@ -19340,7 +19372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:10">
       <c r="A626" t="s">
         <v>17</v>
       </c>
@@ -19358,7 +19390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:10">
       <c r="A627" t="s">
         <v>17</v>
       </c>
@@ -19376,7 +19408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:10">
       <c r="A628" t="s">
         <v>17</v>
       </c>
@@ -19394,7 +19426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:10">
       <c r="A629" t="s">
         <v>17</v>
       </c>
@@ -19412,7 +19444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:10">
       <c r="A630" t="s">
         <v>17</v>
       </c>
@@ -19430,7 +19462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:10">
       <c r="A631" t="s">
         <v>17</v>
       </c>
@@ -19448,7 +19480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:10">
       <c r="A632" t="s">
         <v>17</v>
       </c>
@@ -19463,7 +19495,7 @@
       </c>
       <c r="I632"/>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:10">
       <c r="A633" t="s">
         <v>17</v>
       </c>
@@ -19478,7 +19510,7 @@
       </c>
       <c r="I633"/>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:10">
       <c r="A634" t="s">
         <v>17</v>
       </c>
@@ -19493,7 +19525,7 @@
       </c>
       <c r="I634"/>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:10">
       <c r="A635" t="s">
         <v>17</v>
       </c>
@@ -19508,7 +19540,7 @@
       </c>
       <c r="I635"/>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:10">
       <c r="A636" t="s">
         <v>17</v>
       </c>
@@ -19523,7 +19555,7 @@
       </c>
       <c r="I636"/>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:10">
       <c r="A637" t="s">
         <v>17</v>
       </c>
@@ -19538,7 +19570,7 @@
       </c>
       <c r="I637"/>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:10">
       <c r="A638" t="s">
         <v>17</v>
       </c>
@@ -19553,7 +19585,7 @@
       </c>
       <c r="I638"/>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:10">
       <c r="A639" t="s">
         <v>17</v>
       </c>
@@ -19568,7 +19600,7 @@
       </c>
       <c r="I639"/>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:10">
       <c r="A640" t="s">
         <v>17</v>
       </c>
@@ -19583,7 +19615,7 @@
       </c>
       <c r="I640"/>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:9">
       <c r="A641" t="s">
         <v>17</v>
       </c>
@@ -19598,7 +19630,7 @@
       </c>
       <c r="I641"/>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:9">
       <c r="A642" t="s">
         <v>17</v>
       </c>
@@ -19613,7 +19645,7 @@
       </c>
       <c r="I642"/>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:9">
       <c r="A643" t="s">
         <v>17</v>
       </c>
@@ -19628,7 +19660,7 @@
       </c>
       <c r="I643"/>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:9">
       <c r="A644" t="s">
         <v>17</v>
       </c>
@@ -19643,7 +19675,7 @@
       </c>
       <c r="I644"/>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:9">
       <c r="A645" t="s">
         <v>17</v>
       </c>
@@ -19658,7 +19690,7 @@
       </c>
       <c r="I645"/>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:9">
       <c r="A646" t="s">
         <v>17</v>
       </c>
@@ -19673,7 +19705,7 @@
       </c>
       <c r="I646"/>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:9">
       <c r="A647" t="s">
         <v>17</v>
       </c>
@@ -19688,7 +19720,7 @@
       </c>
       <c r="I647"/>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:9">
       <c r="A648" t="s">
         <v>17</v>
       </c>
@@ -19703,7 +19735,7 @@
       </c>
       <c r="I648"/>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:9">
       <c r="A649" t="s">
         <v>17</v>
       </c>
@@ -19718,7 +19750,7 @@
       </c>
       <c r="I649"/>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:9">
       <c r="A650" t="s">
         <v>17</v>
       </c>
@@ -19733,7 +19765,7 @@
       </c>
       <c r="I650"/>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:9">
       <c r="A651" t="s">
         <v>17</v>
       </c>
@@ -19748,7 +19780,7 @@
       </c>
       <c r="I651"/>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:9">
       <c r="A652" t="s">
         <v>17</v>
       </c>
@@ -19763,7 +19795,7 @@
       </c>
       <c r="I652"/>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:9">
       <c r="A653" t="s">
         <v>17</v>
       </c>
@@ -19778,7 +19810,7 @@
       </c>
       <c r="I653"/>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:9">
       <c r="A654" t="s">
         <v>17</v>
       </c>
@@ -19793,7 +19825,7 @@
       </c>
       <c r="I654"/>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:9">
       <c r="A655" t="s">
         <v>17</v>
       </c>
@@ -19808,7 +19840,7 @@
       </c>
       <c r="I655"/>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:9">
       <c r="A656" t="s">
         <v>17</v>
       </c>
@@ -19823,7 +19855,7 @@
       </c>
       <c r="I656"/>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:9">
       <c r="A657" t="s">
         <v>17</v>
       </c>
@@ -19838,7 +19870,7 @@
       </c>
       <c r="I657"/>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:9">
       <c r="A658" t="s">
         <v>17</v>
       </c>
@@ -19853,7 +19885,7 @@
       </c>
       <c r="I658"/>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:9">
       <c r="A659" t="s">
         <v>17</v>
       </c>
@@ -19868,7 +19900,7 @@
       </c>
       <c r="I659"/>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:9">
       <c r="A660" t="s">
         <v>17</v>
       </c>
@@ -19883,7 +19915,7 @@
       </c>
       <c r="I660"/>
     </row>
-    <row r="661" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:9" ht="15.75" customHeight="1">
       <c r="A661" t="s">
         <v>17</v>
       </c>
@@ -19898,7 +19930,7 @@
       </c>
       <c r="I661"/>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:9">
       <c r="A662" t="s">
         <v>17</v>
       </c>
@@ -19913,7 +19945,7 @@
       </c>
       <c r="I662"/>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:9">
       <c r="A663" t="s">
         <v>17</v>
       </c>
@@ -19928,7 +19960,7 @@
       </c>
       <c r="I663"/>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:9">
       <c r="A664" t="s">
         <v>17</v>
       </c>
@@ -19943,7 +19975,7 @@
       </c>
       <c r="I664"/>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:9">
       <c r="A665" t="s">
         <v>17</v>
       </c>
@@ -19958,7 +19990,7 @@
       </c>
       <c r="I665"/>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:9">
       <c r="A666" t="s">
         <v>17</v>
       </c>
@@ -19973,7 +20005,7 @@
       </c>
       <c r="I666"/>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:9">
       <c r="A667" t="s">
         <v>17</v>
       </c>
@@ -19988,7 +20020,7 @@
       </c>
       <c r="I667"/>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:9">
       <c r="A668" t="s">
         <v>17</v>
       </c>
@@ -20003,7 +20035,7 @@
       </c>
       <c r="I668"/>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:9">
       <c r="A669" t="s">
         <v>17</v>
       </c>
@@ -20018,7 +20050,7 @@
       </c>
       <c r="I669"/>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:9">
       <c r="A670" t="s">
         <v>17</v>
       </c>
@@ -20033,7 +20065,7 @@
       </c>
       <c r="I670"/>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:9">
       <c r="A671" t="s">
         <v>17</v>
       </c>
@@ -20048,7 +20080,7 @@
       </c>
       <c r="I671"/>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:9">
       <c r="A672" t="s">
         <v>17</v>
       </c>
@@ -20063,7 +20095,7 @@
       </c>
       <c r="I672"/>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:9">
       <c r="A673" t="s">
         <v>17</v>
       </c>
@@ -20078,7 +20110,7 @@
       </c>
       <c r="I673"/>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:9">
       <c r="A674" t="s">
         <v>17</v>
       </c>
@@ -20093,7 +20125,7 @@
       </c>
       <c r="I674"/>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:9">
       <c r="A675" t="s">
         <v>17</v>
       </c>
@@ -20108,7 +20140,7 @@
       </c>
       <c r="I675"/>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:9">
       <c r="A676" t="s">
         <v>17</v>
       </c>
@@ -20123,7 +20155,7 @@
       </c>
       <c r="I676"/>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:9">
       <c r="A677" t="s">
         <v>17</v>
       </c>
@@ -20138,7 +20170,7 @@
       </c>
       <c r="I677"/>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:9">
       <c r="A678" t="s">
         <v>17</v>
       </c>
@@ -20153,7 +20185,7 @@
       </c>
       <c r="I678"/>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:9">
       <c r="A679" t="s">
         <v>17</v>
       </c>
@@ -20168,7 +20200,7 @@
       </c>
       <c r="I679"/>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:9">
       <c r="A680" t="s">
         <v>17</v>
       </c>
@@ -20183,7 +20215,7 @@
       </c>
       <c r="I680"/>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:9">
       <c r="A681" t="s">
         <v>17</v>
       </c>
@@ -20198,7 +20230,7 @@
       </c>
       <c r="I681"/>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:9">
       <c r="A682" t="s">
         <v>17</v>
       </c>
@@ -20213,7 +20245,7 @@
       </c>
       <c r="I682"/>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:9">
       <c r="A683" t="s">
         <v>17</v>
       </c>
@@ -20228,7 +20260,7 @@
       </c>
       <c r="I683"/>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:9">
       <c r="A684" t="s">
         <v>17</v>
       </c>
@@ -20243,7 +20275,7 @@
       </c>
       <c r="I684"/>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:9">
       <c r="A685" t="s">
         <v>17</v>
       </c>
@@ -20258,7 +20290,7 @@
       </c>
       <c r="I685"/>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:9">
       <c r="A686" t="s">
         <v>17</v>
       </c>
@@ -20273,7 +20305,7 @@
       </c>
       <c r="I686"/>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:9">
       <c r="A687" t="s">
         <v>17</v>
       </c>
@@ -20288,7 +20320,7 @@
       </c>
       <c r="I687"/>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:9">
       <c r="A688" t="s">
         <v>17</v>
       </c>
@@ -20303,7 +20335,7 @@
       </c>
       <c r="I688"/>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:10">
       <c r="A689" t="s">
         <v>17</v>
       </c>
@@ -20318,7 +20350,7 @@
       </c>
       <c r="I689"/>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:10">
       <c r="A690" t="s">
         <v>17</v>
       </c>
@@ -20333,7 +20365,7 @@
       </c>
       <c r="I690"/>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:10">
       <c r="A691" t="s">
         <v>17</v>
       </c>
@@ -20348,7 +20380,7 @@
       </c>
       <c r="I691"/>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:10">
       <c r="A692" t="s">
         <v>17</v>
       </c>
@@ -20363,7 +20395,7 @@
       </c>
       <c r="I692"/>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:10">
       <c r="A693" t="s">
         <v>17</v>
       </c>
@@ -20378,7 +20410,7 @@
       </c>
       <c r="I693"/>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:10">
       <c r="A694" t="s">
         <v>17</v>
       </c>
@@ -20393,7 +20425,7 @@
       </c>
       <c r="I694"/>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:10">
       <c r="A695" t="s">
         <v>17</v>
       </c>
@@ -20408,7 +20440,7 @@
       </c>
       <c r="I695"/>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:10">
       <c r="A696" t="s">
         <v>17</v>
       </c>
@@ -20423,7 +20455,7 @@
       </c>
       <c r="I696"/>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:10">
       <c r="A697" t="s">
         <v>17</v>
       </c>
@@ -20438,7 +20470,7 @@
       </c>
       <c r="I697"/>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:10">
       <c r="A698" t="s">
         <v>17</v>
       </c>
@@ -20453,7 +20485,7 @@
       </c>
       <c r="I698"/>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:10">
       <c r="A699" t="s">
         <v>17</v>
       </c>
@@ -20468,7 +20500,7 @@
       </c>
       <c r="I699"/>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:10">
       <c r="A700" t="s">
         <v>17</v>
       </c>
@@ -20483,7 +20515,7 @@
       </c>
       <c r="I700"/>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:10">
       <c r="A701" t="s">
         <v>17</v>
       </c>
@@ -20498,7 +20530,7 @@
       </c>
       <c r="I701"/>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:10">
       <c r="A702" t="s">
         <v>17</v>
       </c>
@@ -20516,7 +20548,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:10">
       <c r="A703" t="s">
         <v>17</v>
       </c>
@@ -20534,7 +20566,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:10">
       <c r="A704" t="s">
         <v>3</v>
       </c>
@@ -20557,7 +20589,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:10">
       <c r="A705" t="s">
         <v>3</v>
       </c>
@@ -20575,7 +20607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:10">
       <c r="A706" t="s">
         <v>3</v>
       </c>
@@ -20590,7 +20622,7 @@
       </c>
       <c r="I706"/>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:10">
       <c r="A707" t="s">
         <v>3</v>
       </c>
@@ -20613,7 +20645,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:10">
       <c r="A708" t="s">
         <v>3</v>
       </c>
@@ -20636,7 +20668,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:10">
       <c r="A709" t="s">
         <v>3</v>
       </c>
@@ -20659,7 +20691,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:10">
       <c r="A710" t="s">
         <v>2</v>
       </c>
@@ -20677,7 +20709,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:10">
       <c r="A711" t="s">
         <v>2</v>
       </c>
@@ -20695,7 +20727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:10">
       <c r="A712" t="s">
         <v>2</v>
       </c>
@@ -20710,7 +20742,7 @@
       </c>
       <c r="I712"/>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:10">
       <c r="A713" t="s">
         <v>2</v>
       </c>
@@ -20728,7 +20760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:10">
       <c r="A714" t="s">
         <v>2</v>
       </c>
@@ -20746,7 +20778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:10">
       <c r="A715" t="s">
         <v>2</v>
       </c>
@@ -20764,7 +20796,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="716" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:10" ht="49.5">
       <c r="A716" t="s">
         <v>2</v>
       </c>
@@ -20782,7 +20814,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:10">
       <c r="A717" t="s">
         <v>2</v>
       </c>
@@ -20800,7 +20832,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:10">
       <c r="A718" t="s">
         <v>2</v>
       </c>
@@ -20818,7 +20850,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:10">
       <c r="A719" t="s">
         <v>2</v>
       </c>
@@ -20836,7 +20868,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:10">
       <c r="A720" t="s">
         <v>2</v>
       </c>
@@ -20854,7 +20886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:10">
       <c r="A721" t="s">
         <v>2</v>
       </c>
@@ -20869,7 +20901,7 @@
       </c>
       <c r="I721"/>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:10">
       <c r="A722" t="s">
         <v>2</v>
       </c>
@@ -20887,7 +20919,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:10">
       <c r="A723" t="s">
         <v>2</v>
       </c>
@@ -20905,7 +20937,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:10">
       <c r="A724" t="s">
         <v>2</v>
       </c>
@@ -20920,7 +20952,7 @@
       </c>
       <c r="I724"/>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:10">
       <c r="A725" t="s">
         <v>2</v>
       </c>
@@ -20949,7 +20981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:10">
       <c r="A726" t="s">
         <v>2</v>
       </c>
@@ -20964,7 +20996,7 @@
       </c>
       <c r="I726"/>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:10">
       <c r="A727" t="s">
         <v>2</v>
       </c>
@@ -20979,7 +21011,7 @@
       </c>
       <c r="I727"/>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:10">
       <c r="A728" t="s">
         <v>2</v>
       </c>
@@ -20994,7 +21026,7 @@
       </c>
       <c r="I728"/>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:10">
       <c r="A729" t="s">
         <v>2</v>
       </c>
@@ -21009,7 +21041,7 @@
       </c>
       <c r="I729"/>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:10">
       <c r="A730" t="s">
         <v>2</v>
       </c>
@@ -21024,7 +21056,7 @@
       </c>
       <c r="I730"/>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:10">
       <c r="A731" t="s">
         <v>2</v>
       </c>
@@ -21042,7 +21074,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:10">
       <c r="A732" t="s">
         <v>2</v>
       </c>
@@ -21057,7 +21089,7 @@
       </c>
       <c r="I732"/>
     </row>
-    <row r="733" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:10" ht="49.5">
       <c r="A733" t="s">
         <v>2</v>
       </c>
@@ -21075,7 +21107,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:10">
       <c r="A734" t="s">
         <v>2</v>
       </c>
@@ -21093,7 +21125,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:10">
       <c r="A735" t="s">
         <v>2</v>
       </c>
@@ -21108,7 +21140,7 @@
       </c>
       <c r="I735"/>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:10">
       <c r="A736" t="s">
         <v>2</v>
       </c>
@@ -21131,7 +21163,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:10">
       <c r="A737" t="s">
         <v>2</v>
       </c>
@@ -21154,7 +21186,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:10">
       <c r="A738" t="s">
         <v>2</v>
       </c>
@@ -21169,7 +21201,7 @@
       </c>
       <c r="I738"/>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:10">
       <c r="A739" t="s">
         <v>2</v>
       </c>
@@ -21192,7 +21224,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:10">
       <c r="A740" t="s">
         <v>2</v>
       </c>
@@ -21215,7 +21247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:10">
       <c r="A741" t="s">
         <v>2</v>
       </c>
@@ -21233,7 +21265,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:10">
       <c r="A742" t="s">
         <v>2</v>
       </c>
@@ -21265,7 +21297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:10">
       <c r="A743" t="s">
         <v>2</v>
       </c>
@@ -21280,7 +21312,7 @@
       </c>
       <c r="I743"/>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:10">
       <c r="A744" t="s">
         <v>2</v>
       </c>
@@ -21303,7 +21335,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:10">
       <c r="A745" t="s">
         <v>2</v>
       </c>
@@ -21318,7 +21350,7 @@
       </c>
       <c r="I745"/>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:10">
       <c r="A746" t="s">
         <v>2</v>
       </c>
@@ -21341,7 +21373,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:10">
       <c r="A747" t="s">
         <v>2</v>
       </c>
@@ -21364,7 +21396,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:10">
       <c r="A748" t="s">
         <v>2</v>
       </c>
@@ -21379,7 +21411,7 @@
       </c>
       <c r="I748"/>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:10">
       <c r="A749" t="s">
         <v>2</v>
       </c>
@@ -21397,7 +21429,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="750" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:10">
       <c r="A750" t="s">
         <v>2</v>
       </c>
@@ -21412,7 +21444,7 @@
       </c>
       <c r="I750"/>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:10">
       <c r="A751" t="s">
         <v>2</v>
       </c>
@@ -21427,7 +21459,7 @@
       </c>
       <c r="I751"/>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:10">
       <c r="A752" t="s">
         <v>2</v>
       </c>
@@ -21450,7 +21482,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:10">
       <c r="A753" t="s">
         <v>2</v>
       </c>
@@ -21473,7 +21505,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:10">
       <c r="A754" t="s">
         <v>2</v>
       </c>
@@ -21488,7 +21520,7 @@
       </c>
       <c r="I754"/>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:10">
       <c r="A755" t="s">
         <v>2</v>
       </c>
@@ -21506,7 +21538,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:10">
       <c r="A756" t="s">
         <v>2</v>
       </c>
@@ -21524,7 +21556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:10">
       <c r="A757" t="s">
         <v>2</v>
       </c>
@@ -21539,7 +21571,7 @@
       </c>
       <c r="I757"/>
     </row>
-    <row r="758" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:10" ht="49.5">
       <c r="A758" t="s">
         <v>2</v>
       </c>
@@ -21557,7 +21589,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:10">
       <c r="A759" t="s">
         <v>2</v>
       </c>
@@ -21589,7 +21621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:10">
       <c r="A760" t="s">
         <v>2</v>
       </c>
@@ -21607,7 +21639,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="761" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:10" ht="49.5">
       <c r="A761" t="s">
         <v>2</v>
       </c>
@@ -21625,7 +21657,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:10">
       <c r="A762" t="s">
         <v>2</v>
       </c>
@@ -21648,7 +21680,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:10">
       <c r="A763" t="s">
         <v>2</v>
       </c>
@@ -21663,7 +21695,7 @@
       </c>
       <c r="I763"/>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:10">
       <c r="A764" t="s">
         <v>2</v>
       </c>
@@ -21678,7 +21710,7 @@
       </c>
       <c r="I764"/>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:10">
       <c r="A765" t="s">
         <v>2</v>
       </c>
@@ -21693,7 +21725,7 @@
       </c>
       <c r="I765"/>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:10">
       <c r="A766" t="s">
         <v>2</v>
       </c>
@@ -21708,7 +21740,7 @@
       </c>
       <c r="I766"/>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:10">
       <c r="A767" t="s">
         <v>2</v>
       </c>
@@ -21723,7 +21755,7 @@
       </c>
       <c r="I767"/>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:10">
       <c r="A768" t="s">
         <v>2</v>
       </c>
@@ -21746,7 +21778,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:10">
       <c r="A769" t="s">
         <v>2</v>
       </c>
@@ -21769,7 +21801,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:10">
       <c r="A770" t="s">
         <v>2</v>
       </c>
@@ -21792,7 +21824,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:10">
       <c r="A771" t="s">
         <v>2</v>
       </c>
@@ -21815,7 +21847,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:10">
       <c r="A772" t="s">
         <v>2</v>
       </c>
@@ -21833,7 +21865,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:10">
       <c r="A773" t="s">
         <v>2</v>
       </c>
@@ -21851,7 +21883,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:10">
       <c r="A774" t="s">
         <v>2</v>
       </c>
@@ -21869,7 +21901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:10">
       <c r="A775" t="s">
         <v>2</v>
       </c>
@@ -21884,7 +21916,7 @@
       </c>
       <c r="I775"/>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:10">
       <c r="A776" t="s">
         <v>2</v>
       </c>
@@ -21902,7 +21934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:10">
       <c r="A777" t="s">
         <v>2</v>
       </c>
@@ -21920,7 +21952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:10">
       <c r="A778" t="s">
         <v>2</v>
       </c>
@@ -21938,7 +21970,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:10">
       <c r="A779" t="s">
         <v>2</v>
       </c>
@@ -21961,7 +21993,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:10">
       <c r="A780" t="s">
         <v>2</v>
       </c>
@@ -21976,7 +22008,7 @@
       </c>
       <c r="I780"/>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:10">
       <c r="A781" t="s">
         <v>2</v>
       </c>
@@ -21991,7 +22023,7 @@
       </c>
       <c r="I781"/>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:10">
       <c r="A782" t="s">
         <v>2</v>
       </c>
@@ -22014,7 +22046,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:10">
       <c r="A783" t="s">
         <v>2</v>
       </c>
@@ -22037,7 +22069,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:10">
       <c r="A784" t="s">
         <v>2</v>
       </c>
@@ -22060,7 +22092,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="785" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:10">
       <c r="A785" t="s">
         <v>2</v>
       </c>
@@ -22083,7 +22115,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="786" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:10">
       <c r="A786" t="s">
         <v>2</v>
       </c>
@@ -22106,7 +22138,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="787" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:10">
       <c r="A787" t="s">
         <v>2</v>
       </c>
@@ -22129,7 +22161,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="788" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:10">
       <c r="A788" t="s">
         <v>2</v>
       </c>
@@ -22152,7 +22184,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="789" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:10">
       <c r="A789" t="s">
         <v>2</v>
       </c>
@@ -22175,7 +22207,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="790" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:10">
       <c r="A790" t="s">
         <v>2</v>
       </c>
@@ -22198,7 +22230,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="791" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:10">
       <c r="A791" t="s">
         <v>2</v>
       </c>
@@ -22221,7 +22253,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="792" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:10">
       <c r="A792" t="s">
         <v>2</v>
       </c>
@@ -22244,7 +22276,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="793" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:10">
       <c r="A793" t="s">
         <v>2</v>
       </c>
@@ -22267,7 +22299,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="794" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:10">
       <c r="A794" t="s">
         <v>2</v>
       </c>
@@ -22282,7 +22314,7 @@
       </c>
       <c r="I794"/>
     </row>
-    <row r="795" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:10">
       <c r="A795" t="s">
         <v>2</v>
       </c>
@@ -22297,7 +22329,7 @@
       </c>
       <c r="I795"/>
     </row>
-    <row r="796" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:10">
       <c r="A796" t="s">
         <v>2</v>
       </c>
@@ -22312,7 +22344,7 @@
       </c>
       <c r="I796"/>
     </row>
-    <row r="797" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:10">
       <c r="A797" t="s">
         <v>2</v>
       </c>
@@ -22335,7 +22367,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="798" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:10">
       <c r="A798" t="s">
         <v>2</v>
       </c>
@@ -22350,7 +22382,7 @@
       </c>
       <c r="I798"/>
     </row>
-    <row r="799" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:10">
       <c r="A799" t="s">
         <v>2</v>
       </c>
@@ -22373,7 +22405,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="800" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:10">
       <c r="A800" t="s">
         <v>2</v>
       </c>
@@ -22391,7 +22423,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="801" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:10" ht="49.5">
       <c r="A801" t="s">
         <v>2</v>
       </c>
@@ -22409,7 +22441,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="802" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:10" ht="49.5">
       <c r="A802" t="s">
         <v>2</v>
       </c>
@@ -22427,7 +22459,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="803" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:10" ht="49.5">
       <c r="A803" t="s">
         <v>2</v>
       </c>
@@ -22445,7 +22477,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="804" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:10" ht="49.5">
       <c r="A804" t="s">
         <v>2</v>
       </c>
@@ -22463,7 +22495,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="805" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:10" ht="49.5">
       <c r="A805" t="s">
         <v>2</v>
       </c>
@@ -22481,7 +22513,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="806" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:10" ht="49.5">
       <c r="A806" t="s">
         <v>2</v>
       </c>
@@ -22499,7 +22531,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="807" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:10" ht="49.5">
       <c r="A807" t="s">
         <v>2</v>
       </c>
@@ -22517,7 +22549,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="808" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:10">
       <c r="A808" t="s">
         <v>2</v>
       </c>
@@ -22535,7 +22567,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:10">
       <c r="A809" t="s">
         <v>2</v>
       </c>
@@ -22553,7 +22585,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="810" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:10">
       <c r="A810" t="s">
         <v>2</v>
       </c>
@@ -22571,7 +22603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="811" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:10">
       <c r="A811" t="s">
         <v>2</v>
       </c>
@@ -22589,7 +22621,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="812" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:10">
       <c r="A812" t="s">
         <v>2</v>
       </c>
@@ -22607,7 +22639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="813" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:10">
       <c r="A813" t="s">
         <v>2</v>
       </c>
@@ -22625,7 +22657,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="814" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:10">
       <c r="A814" t="s">
         <v>2</v>
       </c>
@@ -22643,7 +22675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="815" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:10">
       <c r="A815" t="s">
         <v>2</v>
       </c>
@@ -22658,7 +22690,7 @@
       </c>
       <c r="I815"/>
     </row>
-    <row r="816" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:10">
       <c r="A816" t="s">
         <v>2</v>
       </c>
@@ -22676,7 +22708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="817" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:10">
       <c r="A817" t="s">
         <v>2</v>
       </c>
@@ -22694,7 +22726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:10">
       <c r="A818" t="s">
         <v>2</v>
       </c>
@@ -22712,7 +22744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:10">
       <c r="A819" t="s">
         <v>2</v>
       </c>
@@ -22730,7 +22762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="820" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:10">
       <c r="A820" t="s">
         <v>2</v>
       </c>
@@ -22748,7 +22780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="821" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:10">
       <c r="A821" t="s">
         <v>2</v>
       </c>
@@ -22766,7 +22798,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="822" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:10">
       <c r="A822" t="s">
         <v>2</v>
       </c>
@@ -22784,7 +22816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:10">
       <c r="A823" t="s">
         <v>2</v>
       </c>
@@ -22802,7 +22834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="824" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:10">
       <c r="A824" t="s">
         <v>2</v>
       </c>
@@ -22820,7 +22852,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="825" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:10">
       <c r="A825" t="s">
         <v>2</v>
       </c>
@@ -22838,7 +22870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="826" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:10">
       <c r="A826" t="s">
         <v>2</v>
       </c>
@@ -22856,7 +22888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="827" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:10">
       <c r="A827" t="s">
         <v>2</v>
       </c>
@@ -22874,7 +22906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="828" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:10">
       <c r="A828" t="s">
         <v>2</v>
       </c>
@@ -22892,7 +22924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="829" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:10">
       <c r="A829" t="s">
         <v>2</v>
       </c>
@@ -22910,7 +22942,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="830" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:10">
       <c r="A830" t="s">
         <v>2</v>
       </c>
@@ -22928,7 +22960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="831" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:10">
       <c r="A831" t="s">
         <v>2</v>
       </c>
@@ -22946,7 +22978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="832" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:10">
       <c r="A832" t="s">
         <v>2</v>
       </c>
@@ -22969,7 +23001,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="833" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:10">
       <c r="A833" t="s">
         <v>2</v>
       </c>
@@ -22992,7 +23024,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="834" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:10">
       <c r="A834" t="s">
         <v>2</v>
       </c>
@@ -23010,7 +23042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="835" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:10">
       <c r="A835" t="s">
         <v>2</v>
       </c>
@@ -23025,7 +23057,7 @@
       </c>
       <c r="I835"/>
     </row>
-    <row r="836" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:10">
       <c r="A836" t="s">
         <v>2</v>
       </c>
@@ -23040,7 +23072,7 @@
       </c>
       <c r="I836"/>
     </row>
-    <row r="837" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:10">
       <c r="A837" t="s">
         <v>2</v>
       </c>
@@ -23063,7 +23095,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="838" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:10">
       <c r="A838" t="s">
         <v>2</v>
       </c>
@@ -23095,7 +23127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:10">
       <c r="A839" t="s">
         <v>2</v>
       </c>
@@ -23118,7 +23150,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="840" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:10">
       <c r="A840" t="s">
         <v>2</v>
       </c>
@@ -23133,7 +23165,7 @@
       </c>
       <c r="I840"/>
     </row>
-    <row r="841" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:10" ht="49.5">
       <c r="A841" t="s">
         <v>2</v>
       </c>
@@ -23151,7 +23183,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="842" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:10">
       <c r="A842" t="s">
         <v>2</v>
       </c>
@@ -23169,7 +23201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="843" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:10">
       <c r="A843" t="s">
         <v>2</v>
       </c>
@@ -23187,7 +23219,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="844" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:10">
       <c r="A844" t="s">
         <v>2</v>
       </c>
@@ -23210,7 +23242,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="845" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:10">
       <c r="A845" t="s">
         <v>2</v>
       </c>
@@ -23225,7 +23257,7 @@
       </c>
       <c r="I845"/>
     </row>
-    <row r="846" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:10">
       <c r="A846" t="s">
         <v>2</v>
       </c>
@@ -23243,7 +23275,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="847" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:10">
       <c r="A847" t="s">
         <v>2</v>
       </c>
@@ -23258,7 +23290,7 @@
       </c>
       <c r="I847"/>
     </row>
-    <row r="848" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:10">
       <c r="A848" t="s">
         <v>2</v>
       </c>
@@ -23290,7 +23322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:10">
       <c r="A849" t="s">
         <v>2</v>
       </c>
@@ -23305,7 +23337,7 @@
       </c>
       <c r="I849"/>
     </row>
-    <row r="850" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:10">
       <c r="A850" t="s">
         <v>2</v>
       </c>
@@ -23328,7 +23360,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="851" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:10">
       <c r="A851" t="s">
         <v>2</v>
       </c>
@@ -23343,7 +23375,7 @@
       </c>
       <c r="I851"/>
     </row>
-    <row r="852" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:10">
       <c r="A852" t="s">
         <v>2</v>
       </c>
@@ -23361,7 +23393,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="853" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:10">
       <c r="A853" t="s">
         <v>2</v>
       </c>
@@ -23379,7 +23411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="854" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:10">
       <c r="A854" t="s">
         <v>2</v>
       </c>
@@ -23394,7 +23426,7 @@
       </c>
       <c r="I854"/>
     </row>
-    <row r="855" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:10">
       <c r="A855" t="s">
         <v>2</v>
       </c>
@@ -23409,7 +23441,7 @@
       </c>
       <c r="I855"/>
     </row>
-    <row r="856" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:10">
       <c r="A856" t="s">
         <v>2</v>
       </c>
@@ -23424,7 +23456,7 @@
       </c>
       <c r="I856"/>
     </row>
-    <row r="857" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:10">
       <c r="A857" t="s">
         <v>2</v>
       </c>
@@ -23439,7 +23471,7 @@
       </c>
       <c r="I857"/>
     </row>
-    <row r="858" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:10">
       <c r="A858" t="s">
         <v>2</v>
       </c>
@@ -23454,7 +23486,7 @@
       </c>
       <c r="I858"/>
     </row>
-    <row r="859" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:10">
       <c r="A859" t="s">
         <v>2</v>
       </c>
@@ -23469,7 +23501,7 @@
       </c>
       <c r="I859"/>
     </row>
-    <row r="860" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:10">
       <c r="A860" t="s">
         <v>2</v>
       </c>
@@ -23484,7 +23516,7 @@
       </c>
       <c r="I860"/>
     </row>
-    <row r="861" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:10">
       <c r="A861" t="s">
         <v>2</v>
       </c>
@@ -23499,7 +23531,7 @@
       </c>
       <c r="I861"/>
     </row>
-    <row r="862" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:10">
       <c r="A862" t="s">
         <v>2</v>
       </c>
@@ -23514,7 +23546,7 @@
       </c>
       <c r="I862"/>
     </row>
-    <row r="863" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:10">
       <c r="A863" t="s">
         <v>2</v>
       </c>
@@ -23529,7 +23561,7 @@
       </c>
       <c r="I863"/>
     </row>
-    <row r="864" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:10">
       <c r="A864" t="s">
         <v>2</v>
       </c>
@@ -23544,7 +23576,7 @@
       </c>
       <c r="I864"/>
     </row>
-    <row r="865" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:10">
       <c r="A865" t="s">
         <v>2</v>
       </c>
@@ -23559,7 +23591,7 @@
       </c>
       <c r="I865"/>
     </row>
-    <row r="866" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:10">
       <c r="A866" t="s">
         <v>2</v>
       </c>
@@ -23577,7 +23609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="867" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:10">
       <c r="A867" t="s">
         <v>2</v>
       </c>
@@ -23595,7 +23627,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="868" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:10">
       <c r="A868" t="s">
         <v>2</v>
       </c>
@@ -23613,7 +23645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="869" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:10">
       <c r="A869" t="s">
         <v>2</v>
       </c>
@@ -23631,7 +23663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="870" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:10">
       <c r="A870" t="s">
         <v>2</v>
       </c>
@@ -23654,7 +23686,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="871" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:10">
       <c r="A871" t="s">
         <v>2</v>
       </c>
@@ -23677,7 +23709,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="872" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:10">
       <c r="A872" t="s">
         <v>2</v>
       </c>
@@ -23700,7 +23732,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="873" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:10">
       <c r="A873" t="s">
         <v>2</v>
       </c>
@@ -23723,7 +23755,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="874" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:10">
       <c r="A874" t="s">
         <v>2</v>
       </c>
@@ -23741,7 +23773,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="875" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:10">
       <c r="A875" t="s">
         <v>2</v>
       </c>
@@ -23764,7 +23796,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="876" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:10">
       <c r="A876" t="s">
         <v>2</v>
       </c>
@@ -23787,7 +23819,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="877" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:10">
       <c r="A877" t="s">
         <v>2</v>
       </c>
@@ -23810,7 +23842,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="878" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:10">
       <c r="A878" t="s">
         <v>2</v>
       </c>
@@ -23828,7 +23860,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="879" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:10">
       <c r="A879" t="s">
         <v>2</v>
       </c>
@@ -23846,7 +23878,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="880" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:10">
       <c r="A880" t="s">
         <v>2</v>
       </c>
@@ -23869,7 +23901,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="881" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:10">
       <c r="A881" t="s">
         <v>2</v>
       </c>
@@ -23892,7 +23924,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="882" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:10">
       <c r="A882" t="s">
         <v>2</v>
       </c>
@@ -23910,7 +23942,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="883" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:10">
       <c r="A883" t="s">
         <v>2</v>
       </c>
@@ -23933,7 +23965,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="884" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:10">
       <c r="A884" t="s">
         <v>2</v>
       </c>
@@ -23956,7 +23988,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="885" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:10">
       <c r="A885" t="s">
         <v>2</v>
       </c>
@@ -23971,7 +24003,7 @@
       </c>
       <c r="I885"/>
     </row>
-    <row r="886" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:10">
       <c r="A886" t="s">
         <v>2</v>
       </c>
@@ -23986,7 +24018,7 @@
       </c>
       <c r="I886"/>
     </row>
-    <row r="887" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:10">
       <c r="A887" t="s">
         <v>2</v>
       </c>
@@ -24009,7 +24041,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="888" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:10">
       <c r="A888" t="s">
         <v>2</v>
       </c>
@@ -24032,7 +24064,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="889" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:10">
       <c r="A889" t="s">
         <v>2</v>
       </c>
@@ -24055,7 +24087,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="890" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:10">
       <c r="A890" t="s">
         <v>2</v>
       </c>
@@ -24078,7 +24110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:10">
       <c r="A891" t="s">
         <v>2</v>
       </c>
@@ -24101,7 +24133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:10">
       <c r="A892" t="s">
         <v>2</v>
       </c>
@@ -24124,7 +24156,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="893" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:10">
       <c r="A893" t="s">
         <v>2</v>
       </c>
@@ -24147,7 +24179,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="894" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:10">
       <c r="A894" t="s">
         <v>2</v>
       </c>
@@ -24170,7 +24202,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="895" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:10" ht="49.5">
       <c r="A895" t="s">
         <v>2</v>
       </c>
@@ -24188,7 +24220,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="896" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:10">
       <c r="A896" t="s">
         <v>2</v>
       </c>
@@ -24217,7 +24249,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="897" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:10">
       <c r="A897" t="s">
         <v>2</v>
       </c>
@@ -24246,7 +24278,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="898" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:10">
       <c r="A898" t="s">
         <v>2</v>
       </c>
@@ -24275,7 +24307,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="899" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:10">
       <c r="A899" t="s">
         <v>2</v>
       </c>
@@ -24298,7 +24330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="900" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:10">
       <c r="A900" t="s">
         <v>2</v>
       </c>
@@ -24321,7 +24353,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="901" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:10">
       <c r="A901" t="s">
         <v>2</v>
       </c>
@@ -24336,7 +24368,7 @@
       </c>
       <c r="I901"/>
     </row>
-    <row r="902" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:10">
       <c r="A902" t="s">
         <v>2</v>
       </c>
@@ -24359,7 +24391,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="903" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:10">
       <c r="A903" t="s">
         <v>2</v>
       </c>
@@ -24374,7 +24406,7 @@
       </c>
       <c r="I903"/>
     </row>
-    <row r="904" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:10">
       <c r="A904" t="s">
         <v>2</v>
       </c>
@@ -24389,7 +24421,7 @@
       </c>
       <c r="I904"/>
     </row>
-    <row r="905" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:10">
       <c r="A905" t="s">
         <v>2</v>
       </c>
@@ -24407,7 +24439,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="906" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:10">
       <c r="A906" t="s">
         <v>2</v>
       </c>
@@ -24430,7 +24462,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="907" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:10">
       <c r="A907" t="s">
         <v>2</v>
       </c>
@@ -24453,7 +24485,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="908" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:10">
       <c r="A908" t="s">
         <v>2</v>
       </c>
@@ -24476,7 +24508,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="909" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:10">
       <c r="A909" t="s">
         <v>2</v>
       </c>
@@ -24499,7 +24531,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="910" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:10">
       <c r="A910" t="s">
         <v>2</v>
       </c>
@@ -24514,7 +24546,7 @@
       </c>
       <c r="I910"/>
     </row>
-    <row r="911" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:10">
       <c r="A911" t="s">
         <v>2</v>
       </c>
@@ -24529,7 +24561,7 @@
       </c>
       <c r="I911"/>
     </row>
-    <row r="912" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:10">
       <c r="A912" t="s">
         <v>2</v>
       </c>
@@ -24544,7 +24576,7 @@
       </c>
       <c r="I912"/>
     </row>
-    <row r="913" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:10">
       <c r="A913" t="s">
         <v>2</v>
       </c>
@@ -24559,7 +24591,7 @@
       </c>
       <c r="I913"/>
     </row>
-    <row r="914" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:10">
       <c r="A914" t="s">
         <v>2</v>
       </c>
@@ -24574,7 +24606,7 @@
       </c>
       <c r="I914"/>
     </row>
-    <row r="915" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:10">
       <c r="A915" t="s">
         <v>2</v>
       </c>
@@ -24589,7 +24621,7 @@
       </c>
       <c r="I915"/>
     </row>
-    <row r="916" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:10">
       <c r="A916" t="s">
         <v>2</v>
       </c>
@@ -24604,7 +24636,7 @@
       </c>
       <c r="I916"/>
     </row>
-    <row r="917" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:10">
       <c r="A917" t="s">
         <v>2</v>
       </c>
@@ -24619,7 +24651,7 @@
       </c>
       <c r="I917"/>
     </row>
-    <row r="918" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:10">
       <c r="A918" t="s">
         <v>2</v>
       </c>
@@ -24634,7 +24666,7 @@
       </c>
       <c r="I918"/>
     </row>
-    <row r="919" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:10">
       <c r="A919" t="s">
         <v>2</v>
       </c>
@@ -24649,7 +24681,7 @@
       </c>
       <c r="I919"/>
     </row>
-    <row r="920" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:10">
       <c r="A920" t="s">
         <v>2</v>
       </c>
@@ -24667,7 +24699,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="921" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:10">
       <c r="A921" t="s">
         <v>2</v>
       </c>
@@ -24685,7 +24717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="922" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:10">
       <c r="A922" t="s">
         <v>2</v>
       </c>
@@ -24703,7 +24735,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="923" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:10">
       <c r="A923" t="s">
         <v>2</v>
       </c>
@@ -24721,7 +24753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="924" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:10">
       <c r="A924" t="s">
         <v>2</v>
       </c>
@@ -24736,7 +24768,7 @@
       </c>
       <c r="I924"/>
     </row>
-    <row r="925" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:10">
       <c r="A925" t="s">
         <v>2</v>
       </c>
@@ -24754,7 +24786,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="926" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:10">
       <c r="A926" t="s">
         <v>2</v>
       </c>
@@ -24769,7 +24801,7 @@
       </c>
       <c r="I926"/>
     </row>
-    <row r="927" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:10" ht="49.5">
       <c r="A927" t="s">
         <v>2</v>
       </c>
@@ -24787,7 +24819,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="928" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:10" ht="49.5">
       <c r="A928" t="s">
         <v>2</v>
       </c>
@@ -24805,7 +24837,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="929" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:10" ht="49.5">
       <c r="A929" t="s">
         <v>2</v>
       </c>
@@ -24823,7 +24855,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="930" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:10">
       <c r="A930" t="s">
         <v>2</v>
       </c>
@@ -24841,7 +24873,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="931" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:10">
       <c r="A931" t="s">
         <v>2</v>
       </c>
@@ -24859,7 +24891,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="932" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:10">
       <c r="A932" t="s">
         <v>2</v>
       </c>
@@ -24882,7 +24914,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="933" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:10">
       <c r="A933" t="s">
         <v>2</v>
       </c>
@@ -24897,7 +24929,7 @@
       </c>
       <c r="I933"/>
     </row>
-    <row r="934" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:10">
       <c r="A934" t="s">
         <v>2</v>
       </c>
@@ -24920,7 +24952,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="935" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:10">
       <c r="A935" t="s">
         <v>2</v>
       </c>
@@ -24943,7 +24975,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="936" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:10">
       <c r="A936" t="s">
         <v>2</v>
       </c>
@@ -24972,7 +25004,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="937" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:10">
       <c r="A937" t="s">
         <v>2</v>
       </c>
@@ -24990,7 +25022,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="938" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:10">
       <c r="A938" t="s">
         <v>2</v>
       </c>
@@ -25008,7 +25040,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="939" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:10">
       <c r="A939" t="s">
         <v>2</v>
       </c>
@@ -25026,7 +25058,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="940" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:10">
       <c r="A940" t="s">
         <v>2</v>
       </c>
@@ -25049,7 +25081,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="941" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:10">
       <c r="A941" t="s">
         <v>2</v>
       </c>
@@ -25075,7 +25107,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="942" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:10">
       <c r="A942" t="s">
         <v>2</v>
       </c>
@@ -25107,7 +25139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="943" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:10" ht="54" customHeight="1">
       <c r="A943" t="s">
         <v>2</v>
       </c>
@@ -25139,7 +25171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="944" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:10">
       <c r="A944" t="s">
         <v>2</v>
       </c>
@@ -25157,7 +25189,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="945" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:10" ht="33">
       <c r="A945" t="s">
         <v>2</v>
       </c>
@@ -25189,7 +25221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="946" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:10">
       <c r="A946" t="s">
         <v>2</v>
       </c>
@@ -25221,7 +25253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="947" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:10">
       <c r="A947" t="s">
         <v>2</v>
       </c>
@@ -25239,7 +25271,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="948" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:10">
       <c r="A948" t="s">
         <v>2</v>
       </c>
@@ -25257,7 +25289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="949" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:10">
       <c r="A949" t="s">
         <v>2</v>
       </c>
@@ -25289,7 +25321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="950" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:10">
       <c r="A950" t="s">
         <v>2</v>
       </c>
@@ -25321,7 +25353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="951" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:10">
       <c r="A951" t="s">
         <v>2</v>
       </c>
@@ -25339,7 +25371,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="952" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:10">
       <c r="A952" t="s">
         <v>2</v>
       </c>
@@ -25371,7 +25403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="953" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:10">
       <c r="A953" t="s">
         <v>2</v>
       </c>
@@ -25394,7 +25426,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="954" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:10">
       <c r="A954" t="s">
         <v>2</v>
       </c>
@@ -25412,7 +25444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="955" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:10">
       <c r="A955" t="s">
         <v>2</v>
       </c>
@@ -25430,7 +25462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="956" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:10">
       <c r="A956" t="s">
         <v>2</v>
       </c>
@@ -25448,7 +25480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="957" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:10">
       <c r="A957" t="s">
         <v>2</v>
       </c>
@@ -25463,7 +25495,7 @@
       </c>
       <c r="I957"/>
     </row>
-    <row r="958" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:10">
       <c r="A958" t="s">
         <v>2</v>
       </c>
@@ -25486,7 +25518,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="959" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:10">
       <c r="A959" t="s">
         <v>2</v>
       </c>
@@ -25509,7 +25541,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="960" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:10">
       <c r="A960" t="s">
         <v>2</v>
       </c>
@@ -25524,7 +25556,7 @@
       </c>
       <c r="I960"/>
     </row>
-    <row r="961" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:10">
       <c r="A961" t="s">
         <v>2</v>
       </c>
@@ -25547,7 +25579,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="962" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:10">
       <c r="A962" t="s">
         <v>2</v>
       </c>
@@ -25562,7 +25594,7 @@
       </c>
       <c r="I962"/>
     </row>
-    <row r="963" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:10">
       <c r="A963" t="s">
         <v>2</v>
       </c>
@@ -25585,7 +25617,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="964" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:10">
       <c r="A964" t="s">
         <v>2</v>
       </c>
@@ -25603,7 +25635,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="965" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:10">
       <c r="A965" t="s">
         <v>2</v>
       </c>
@@ -25618,7 +25650,7 @@
       </c>
       <c r="I965"/>
     </row>
-    <row r="966" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:10">
       <c r="A966" t="s">
         <v>2</v>
       </c>
@@ -25633,7 +25665,7 @@
       </c>
       <c r="I966"/>
     </row>
-    <row r="967" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:10">
       <c r="A967" t="s">
         <v>2</v>
       </c>
@@ -25648,7 +25680,7 @@
       </c>
       <c r="I967"/>
     </row>
-    <row r="968" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:10">
       <c r="A968" t="s">
         <v>2</v>
       </c>
@@ -25663,7 +25695,7 @@
       </c>
       <c r="I968"/>
     </row>
-    <row r="969" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:10">
       <c r="A969" t="s">
         <v>2</v>
       </c>
@@ -25678,7 +25710,7 @@
       </c>
       <c r="I969"/>
     </row>
-    <row r="970" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:10">
       <c r="A970" t="s">
         <v>2</v>
       </c>
@@ -25696,7 +25728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="971" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:10">
       <c r="A971" t="s">
         <v>2</v>
       </c>
@@ -25714,7 +25746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="972" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:10">
       <c r="A972" t="s">
         <v>2</v>
       </c>
@@ -25732,7 +25764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="973" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:10">
       <c r="A973" t="s">
         <v>2</v>
       </c>
@@ -25750,7 +25782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="974" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:10">
       <c r="A974" t="s">
         <v>2</v>
       </c>
@@ -25768,7 +25800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="975" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:10">
       <c r="A975" t="s">
         <v>2</v>
       </c>
@@ -25786,7 +25818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="976" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:10">
       <c r="A976" t="s">
         <v>2</v>
       </c>
@@ -25804,7 +25836,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="977" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:10">
       <c r="A977" t="s">
         <v>2</v>
       </c>
@@ -25822,7 +25854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="978" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:10">
       <c r="A978" t="s">
         <v>2</v>
       </c>
@@ -25840,7 +25872,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="979" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:10">
       <c r="A979" t="s">
         <v>2</v>
       </c>
@@ -25858,7 +25890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="980" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:10">
       <c r="A980" t="s">
         <v>2</v>
       </c>
@@ -25876,7 +25908,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="981" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:10">
       <c r="A981" t="s">
         <v>2</v>
       </c>
@@ -25894,7 +25926,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="982" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:10">
       <c r="A982" t="s">
         <v>2</v>
       </c>
@@ -25912,7 +25944,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="983" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:10">
       <c r="A983" t="s">
         <v>2</v>
       </c>
@@ -25930,7 +25962,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="984" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:10">
       <c r="A984" t="s">
         <v>2</v>
       </c>
@@ -25945,7 +25977,7 @@
       </c>
       <c r="I984"/>
     </row>
-    <row r="985" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:10">
       <c r="A985" t="s">
         <v>2</v>
       </c>
@@ -25960,7 +25992,7 @@
       </c>
       <c r="I985"/>
     </row>
-    <row r="986" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:10">
       <c r="A986" t="s">
         <v>2</v>
       </c>
@@ -25978,7 +26010,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="987" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:10">
       <c r="A987" t="s">
         <v>2</v>
       </c>
@@ -25993,7 +26025,7 @@
       </c>
       <c r="I987"/>
     </row>
-    <row r="988" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:10">
       <c r="A988" t="s">
         <v>2</v>
       </c>
@@ -26008,7 +26040,7 @@
       </c>
       <c r="I988"/>
     </row>
-    <row r="989" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:10">
       <c r="A989" t="s">
         <v>2</v>
       </c>
@@ -26031,7 +26063,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="990" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:10">
       <c r="A990" t="s">
         <v>28</v>
       </c>
@@ -26051,7 +26083,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="991" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:10">
       <c r="A991" t="s">
         <v>48</v>
       </c>
@@ -26065,7 +26097,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="992" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:10">
       <c r="A992" t="s">
         <v>17</v>
       </c>
@@ -26079,7 +26111,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="993" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:10">
       <c r="A993" t="s">
         <v>17</v>
       </c>
@@ -26093,7 +26125,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="994" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:10">
       <c r="A994" t="s">
         <v>28</v>
       </c>
@@ -26107,40 +26139,79 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="1002" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:10">
+      <c r="A995" t="s">
+        <v>17</v>
+      </c>
+      <c r="B995" t="s">
+        <v>9</v>
+      </c>
+      <c r="C995" t="s">
+        <v>2374</v>
+      </c>
+      <c r="D995" t="s">
+        <v>2375</v>
+      </c>
+      <c r="I995"/>
+      <c r="J995" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="996" spans="1:10">
+      <c r="A996" t="s">
+        <v>17</v>
+      </c>
+      <c r="B996" t="s">
+        <v>4</v>
+      </c>
+      <c r="C996" t="s">
+        <v>618</v>
+      </c>
+      <c r="D996" t="s">
+        <v>2376</v>
+      </c>
+      <c r="I996"/>
+    </row>
+    <row r="1002" spans="1:10">
       <c r="D1002" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K1002" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C994:C1048576 C2:C992">
-    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
+  <conditionalFormatting sqref="C994 C2:C992 C997:C1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C994:C1048576">
+  <conditionalFormatting sqref="C994 C997:C1048576">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E709">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E709">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E709">
+  <conditionalFormatting sqref="E769">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E709">
+  <conditionalFormatting sqref="E769">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E769">
+  <conditionalFormatting sqref="E788">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E769">
+  <conditionalFormatting sqref="E788">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E788">
+  <conditionalFormatting sqref="E832">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E788">
+  <conditionalFormatting sqref="E832">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E832">
+  <conditionalFormatting sqref="C995">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E832">
+  <conditionalFormatting sqref="C996">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MASTER_MS5673.xlsx
+++ b/MASTER_MS5673.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer_CA\★ Strim---MS Helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7D2E95-FE62-484D-B588-37310AA105F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79F022E-1615-43D2-9D12-05429536CD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="375" windowWidth="17970" windowHeight="14415" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
+    <workbookView xWindow="6075" yWindow="495" windowWidth="17970" windowHeight="14415" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4828" uniqueCount="2377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4828" uniqueCount="2378">
   <si>
     <t>무역거래처상호</t>
   </si>
@@ -8238,6 +8238,10 @@
   </si>
   <si>
     <t>SINGLE MODE DUPLEX FIBER UNIBOOT PATCH CORD YELLOW 8M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-FPC-SM-D-8M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8805,8 +8809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}">
   <dimension ref="A1:K1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A971" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D997" sqref="D997"/>
+    <sheetView tabSelected="1" topLeftCell="A966" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A995" sqref="A995:XFD995"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -26144,33 +26148,33 @@
         <v>17</v>
       </c>
       <c r="B995" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C995" t="s">
-        <v>2374</v>
+        <v>2377</v>
       </c>
       <c r="D995" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="I995"/>
-      <c r="J995" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="996" spans="1:10">
       <c r="A996" t="s">
         <v>17</v>
       </c>
       <c r="B996" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C996" t="s">
-        <v>618</v>
+        <v>2374</v>
       </c>
       <c r="D996" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I996"/>
+      <c r="J996" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="1002" spans="1:10">
       <c r="D1002" s="4"/>
@@ -26178,10 +26182,10 @@
   </sheetData>
   <autoFilter ref="A1:K1002" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C994 C2:C992 C997:C1048576">
+  <conditionalFormatting sqref="C997:C1048576 C994 C2:C992">
     <cfRule type="duplicateValues" dxfId="11" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C994 C997:C1048576">
+  <conditionalFormatting sqref="C997:C1048576 C994">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E709">
@@ -26208,12 +26212,13 @@
   <conditionalFormatting sqref="E832">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C995">
+  <conditionalFormatting sqref="C996">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C996">
+  <conditionalFormatting sqref="C995">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MASTER_MS5673.xlsx
+++ b/MASTER_MS5673.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer_CA\★ Strim---MS Helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E873110C-8D56-4026-90EF-F28C71520DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4DA02D-79E0-489F-87F5-8B19D732520F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1650" yWindow="1440" windowWidth="23910" windowHeight="13140" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8133" uniqueCount="3377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8145" uniqueCount="3386">
   <si>
     <t>무역거래처상호</t>
   </si>
@@ -11664,6 +11664,42 @@
   </si>
   <si>
     <t>MSF-066896</t>
+  </si>
+  <si>
+    <t>MSF-067203 (100-000000815)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8542311000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD-PROCSR,CPU,AMD,EPYC,GENOA,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-074685 (M1180245-002)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LENOVO-PCBA+MECH,DC-SCM,VER1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-106452 (M1180245-002)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INGRASYS-PCBA+MECH,DC-SCM,VER1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-077551 (M1199685-001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIWYNN-PCBA,RISER CARD,FULL HE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12368,12 +12404,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}">
-  <dimension ref="A1:M1087"/>
+  <dimension ref="A1:M1091"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1067" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1076" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="C1092" sqref="C1092"/>
+      <selection pane="bottomLeft" activeCell="D1094" sqref="D1094"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -31935,6 +31971,50 @@
       </c>
       <c r="D1087" t="s">
         <v>3375</v>
+      </c>
+    </row>
+    <row r="1088" spans="2:13">
+      <c r="B1088" s="1" t="s">
+        <v>3378</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>3377</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="1089" spans="2:4">
+      <c r="B1089" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>3380</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="1090" spans="2:4">
+      <c r="B1090" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>3382</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="1091" spans="2:4">
+      <c r="B1091" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>3384</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>3385</v>
       </c>
     </row>
   </sheetData>

--- a/MASTER_MS5673.xlsx
+++ b/MASTER_MS5673.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer_CA\★ Strim---MS Helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C839B0DD-863A-4101-96C3-7695A2A460FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C662F6C3-C1CE-4D11-B84D-299B83A3CB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="1260" windowWidth="24120" windowHeight="13095" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="25620" windowHeight="13095" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MASTER!$A$1:$M$1105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MASTER!$A$1:$M$1106</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$I$371</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8217" uniqueCount="3422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8241" uniqueCount="3427">
   <si>
     <t>무역거래처상호</t>
   </si>
@@ -11827,12 +11827,29 @@
     <t>100 GB QSFP28 PSM4 OPTICAL TRANSCEIVER, MTP/MPO PIGTAIL, 23M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>MSF-091317 (MIS-S-2100-ADE00-102)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>XU102866-22003C</t>
+  </si>
+  <si>
+    <t>200-240 V~/346-415 V~, 3 W+N+PE; 50/60 Hz, 5.0 A OR 200-240 V~, 3 W+PE; 50/60 Hz; 5.0 A OR 200-240 V~, 50/60 Hz, 5.0 A, X3 Output: +12.25 Vdc, 175 A Max. total output power not to exceed 2 100 W</t>
+  </si>
+  <si>
+    <t>FLEXTRONICS-PSU,P2012,MIS-S-21 MODEL:MIS-S-2100ADE00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-091317</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11911,8 +11928,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11928,6 +11952,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11962,7 +11992,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12034,12 +12064,44 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{04AB7DDF-CEE2-4E84-BB25-B76053D24319}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -12530,12 +12592,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}">
-  <dimension ref="A1:M1105"/>
+  <dimension ref="A1:M1106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1083" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1089" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="C605" sqref="C605:C1105"/>
+      <selection pane="bottomLeft" activeCell="D1110" sqref="D1110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32110,7 +32172,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="1089" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1089" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1089" s="1" t="s">
         <v>3366</v>
       </c>
@@ -32121,7 +32183,7 @@
         <v>3387</v>
       </c>
     </row>
-    <row r="1090" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1090" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1090" s="1" t="s">
         <v>3366</v>
       </c>
@@ -32132,7 +32194,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="1091" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1091" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1091" s="1" t="s">
         <v>3366</v>
       </c>
@@ -32143,7 +32205,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1092" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1092" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1092" t="s">
         <v>17</v>
       </c>
@@ -32156,8 +32218,11 @@
       <c r="D1092" t="s">
         <v>3405</v>
       </c>
-    </row>
-    <row r="1093" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J1092" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1093" t="s">
         <v>17</v>
       </c>
@@ -32170,8 +32235,11 @@
       <c r="D1093" t="s">
         <v>3406</v>
       </c>
-    </row>
-    <row r="1094" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J1093" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1094" t="s">
         <v>17</v>
       </c>
@@ -32184,8 +32252,11 @@
       <c r="D1094" t="s">
         <v>3407</v>
       </c>
-    </row>
-    <row r="1095" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J1094" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1095" t="s">
         <v>17</v>
       </c>
@@ -32198,8 +32269,11 @@
       <c r="D1095" t="s">
         <v>3408</v>
       </c>
-    </row>
-    <row r="1096" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J1095" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1096" t="s">
         <v>17</v>
       </c>
@@ -32212,8 +32286,11 @@
       <c r="D1096" t="s">
         <v>3409</v>
       </c>
-    </row>
-    <row r="1097" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J1096" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1097" t="s">
         <v>17</v>
       </c>
@@ -32226,8 +32303,11 @@
       <c r="D1097" t="s">
         <v>3410</v>
       </c>
-    </row>
-    <row r="1098" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J1097" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1098" t="s">
         <v>17</v>
       </c>
@@ -32241,7 +32321,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="1099" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1099" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1099" t="s">
         <v>17</v>
       </c>
@@ -32255,7 +32335,7 @@
         <v>3413</v>
       </c>
     </row>
-    <row r="1100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1100" t="s">
         <v>17</v>
       </c>
@@ -32268,8 +32348,11 @@
       <c r="D1100" t="s">
         <v>3415</v>
       </c>
-    </row>
-    <row r="1101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J1100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1101" t="s">
         <v>17</v>
       </c>
@@ -32282,8 +32365,11 @@
       <c r="D1101" t="s">
         <v>3416</v>
       </c>
-    </row>
-    <row r="1102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J1101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1102" t="s">
         <v>17</v>
       </c>
@@ -32296,8 +32382,11 @@
       <c r="D1102" t="s">
         <v>3418</v>
       </c>
-    </row>
-    <row r="1103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J1102" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1103" t="s">
         <v>17</v>
       </c>
@@ -32310,8 +32399,11 @@
       <c r="D1103" t="s">
         <v>3419</v>
       </c>
-    </row>
-    <row r="1104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J1103" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1104" t="s">
         <v>17</v>
       </c>
@@ -32324,8 +32416,11 @@
       <c r="D1104" t="s">
         <v>3420</v>
       </c>
-    </row>
-    <row r="1105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J1104" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1105" t="s">
         <v>17</v>
       </c>
@@ -32338,45 +32433,75 @@
       <c r="D1105" t="s">
         <v>3421</v>
       </c>
+      <c r="J1105" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1106" s="26" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C1106" s="25" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D1106" s="25" t="s">
+        <v>3425</v>
+      </c>
+      <c r="E1106" s="25" t="s">
+        <v>2134</v>
+      </c>
+      <c r="F1106" s="25" t="s">
+        <v>2150</v>
+      </c>
+      <c r="G1106" s="25" t="s">
+        <v>3423</v>
+      </c>
+      <c r="H1106" s="25" t="s">
+        <v>2147</v>
+      </c>
+      <c r="I1106" s="27" t="s">
+        <v>3424</v>
+      </c>
+      <c r="J1106" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1105" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}"/>
+  <autoFilter ref="A1:M1106" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C997:C1005 C1007:C1014 D1006 C994 C2:C992 C1016:C1046 C1048:C1048576 D1092:D1094 D1096:D1097">
-    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
+  <conditionalFormatting sqref="C997:C1005 C1007:C1014 D1006 C994 C2:C992 C1016:C1046 D1092:D1094 D1096:D1097 C1048:C1048576">
+    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C997:C1005 C1007:C1014 D1006 C994 C1016:C1046 C1048:C1048576 D1092:D1094 D1096:D1097">
-    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
+  <conditionalFormatting sqref="C997:C1005 C1007:C1014 D1006 C994 C1016:C1046 D1092:D1094 D1096:D1097 C1048:C1048576">
+    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E709">
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E709">
-    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E769">
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E769">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E788">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E788">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E832">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E832">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C996">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C995">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35595,10 +35720,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDB924F-9221-4917-B11B-3326F8C1F68D}">
-  <dimension ref="A1:N285"/>
+  <dimension ref="A1:N286"/>
   <sheetViews>
     <sheetView topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="C285" sqref="C285"/>
+      <selection activeCell="B289" sqref="B289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -41507,24 +41632,44 @@
         <v>3392</v>
       </c>
     </row>
+    <row r="286" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B286" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C286" t="s">
+        <v>3426</v>
+      </c>
+      <c r="D286" t="s">
+        <v>3422</v>
+      </c>
+      <c r="E286" t="s">
+        <v>3425</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D271:D278 D267:D269 E266 D2:D265">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D271:D278 D267:D269 E266 D259:D265">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D279">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D271:D278 D267:D269 E266 D259:D265">
+  <conditionalFormatting sqref="D279">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D279">
+  <conditionalFormatting sqref="D281">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D279">
+  <conditionalFormatting sqref="D281">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D281">
+  <conditionalFormatting sqref="D286">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D281">
+  <conditionalFormatting sqref="D286">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MASTER_MS5673.xlsx
+++ b/MASTER_MS5673.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer_CA\★ Strim---MS Helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C662F6C3-C1CE-4D11-B84D-299B83A3CB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833BCA4C-C6E4-4501-886B-4FD63D158031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="25620" windowHeight="13095" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
+    <workbookView xWindow="30495" yWindow="2205" windowWidth="25620" windowHeight="13095" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8241" uniqueCount="3427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8241" uniqueCount="3428">
   <si>
     <t>무역거래처상호</t>
   </si>
@@ -11843,6 +11843,10 @@
   </si>
   <si>
     <t>MSF-091317</t>
+  </si>
+  <si>
+    <t>FLEXTRONICS-PSU,P2012,MIS-S-21 MODEL:MIS-S-2100ADE00 VOLT:200-240 V~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12597,7 +12601,7 @@
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1089" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="D1110" sqref="D1110"/>
+      <selection pane="bottomLeft" activeCell="D1107" sqref="D1107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32445,7 +32449,7 @@
         <v>3422</v>
       </c>
       <c r="D1106" s="25" t="s">
-        <v>3425</v>
+        <v>3427</v>
       </c>
       <c r="E1106" s="25" t="s">
         <v>2134</v>

--- a/MASTER_MS5673.xlsx
+++ b/MASTER_MS5673.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer_CA\★ Strim---MS Helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833BCA4C-C6E4-4501-886B-4FD63D158031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E58302-87DE-4BA9-AA1D-3B83080BA027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30495" yWindow="2205" windowWidth="25620" windowHeight="13095" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
+    <workbookView xWindow="11670" yWindow="120" windowWidth="17010" windowHeight="14550" activeTab="2" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8241" uniqueCount="3428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8258" uniqueCount="3436">
   <si>
     <t>무역거래처상호</t>
   </si>
@@ -11846,6 +11846,36 @@
   </si>
   <si>
     <t>FLEXTRONICS-PSU,P2012,MIS-S-21 MODEL:MIS-S-2100ADE00 VOLT:200-240 V~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순중량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-068571</t>
+  </si>
+  <si>
+    <t>MSF-067250</t>
+  </si>
+  <si>
+    <t>MSF-068571 (RWHHW-M018)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-067250 (RWHHW-S567)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8544422090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMPHENOL FIBER OPTIC PRODUCTS - CBL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크장비에 내장착되는 데이터전송용 케이블로 비대상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12085,7 +12115,27 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{04AB7DDF-CEE2-4E84-BB25-B76053D24319}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -12596,12 +12646,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}">
-  <dimension ref="A1:M1106"/>
+  <dimension ref="A1:N1108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1089" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1085" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="D1107" sqref="D1107"/>
+      <selection pane="bottomLeft" activeCell="B1107" sqref="B1107:D1108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12620,7 +12670,7 @@
     <col min="12" max="12" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -12660,8 +12710,11 @@
       <c r="M1" s="9" t="s">
         <v>2392</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" s="6" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -12676,7 +12729,7 @@
       </c>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -12691,7 +12744,7 @@
       </c>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -12705,8 +12758,11 @@
         <v>931</v>
       </c>
       <c r="I4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -12720,8 +12776,11 @@
         <v>251</v>
       </c>
       <c r="I5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5">
+        <v>2.1579999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -12736,7 +12795,7 @@
       </c>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -12751,7 +12810,7 @@
       </c>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -12766,7 +12825,7 @@
       </c>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -12801,7 +12860,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -12819,7 +12878,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -12834,7 +12893,7 @@
       </c>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -12849,7 +12908,7 @@
       </c>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -12864,7 +12923,7 @@
       </c>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -12879,7 +12938,7 @@
       </c>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -12897,7 +12956,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -13166,7 +13225,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -13181,7 +13240,7 @@
       </c>
       <c r="I33"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -13195,8 +13254,11 @@
         <v>143</v>
       </c>
       <c r="I34"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N34">
+        <v>3.1669999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -13211,7 +13273,7 @@
       </c>
       <c r="I35"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -13234,7 +13296,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -13249,7 +13311,7 @@
       </c>
       <c r="I37"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -13264,7 +13326,7 @@
       </c>
       <c r="I38"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -13287,7 +13349,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -13302,7 +13364,7 @@
       </c>
       <c r="I40"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -13317,7 +13379,7 @@
       </c>
       <c r="I41"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -13332,7 +13394,7 @@
       </c>
       <c r="I42"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -13347,7 +13409,7 @@
       </c>
       <c r="I43"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -13365,7 +13427,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -13380,7 +13442,7 @@
       </c>
       <c r="I45"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -13395,7 +13457,7 @@
       </c>
       <c r="I46"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>28</v>
       </c>
@@ -13410,7 +13472,7 @@
       </c>
       <c r="I47"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -13425,7 +13487,7 @@
       </c>
       <c r="I48"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -13440,7 +13502,7 @@
       </c>
       <c r="I49"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -13455,7 +13517,7 @@
       </c>
       <c r="I50"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -13470,7 +13532,7 @@
       </c>
       <c r="I51"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>28</v>
       </c>
@@ -13484,8 +13546,11 @@
         <v>1298</v>
       </c>
       <c r="I52"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N52">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -13500,7 +13565,7 @@
       </c>
       <c r="I53"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>28</v>
       </c>
@@ -13515,7 +13580,7 @@
       </c>
       <c r="I54"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>28</v>
       </c>
@@ -13530,7 +13595,7 @@
       </c>
       <c r="I55"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -13545,7 +13610,7 @@
       </c>
       <c r="I56"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>28</v>
       </c>
@@ -13563,7 +13628,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -13581,7 +13646,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -13599,7 +13664,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -13617,7 +13682,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>28</v>
       </c>
@@ -13635,7 +13700,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>28</v>
       </c>
@@ -13653,7 +13718,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>28</v>
       </c>
@@ -13668,7 +13733,7 @@
       </c>
       <c r="I63"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>28</v>
       </c>
@@ -14778,7 +14843,7 @@
       </c>
       <c r="I128"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>28</v>
       </c>
@@ -14796,7 +14861,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>28</v>
       </c>
@@ -14811,7 +14876,7 @@
       </c>
       <c r="I130"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>28</v>
       </c>
@@ -14826,7 +14891,7 @@
       </c>
       <c r="I131"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>28</v>
       </c>
@@ -14847,7 +14912,7 @@
       </c>
       <c r="I132"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>28</v>
       </c>
@@ -14864,8 +14929,11 @@
       <c r="J133" s="3" t="s">
         <v>2107</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N133">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>28</v>
       </c>
@@ -14883,7 +14951,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>28</v>
       </c>
@@ -14898,7 +14966,7 @@
       </c>
       <c r="I135"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>28</v>
       </c>
@@ -14916,7 +14984,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>28</v>
       </c>
@@ -14939,7 +15007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>28</v>
       </c>
@@ -14954,7 +15022,7 @@
       </c>
       <c r="I138"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>28</v>
       </c>
@@ -14969,7 +15037,7 @@
       </c>
       <c r="I139"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>28</v>
       </c>
@@ -14992,7 +15060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>28</v>
       </c>
@@ -15007,7 +15075,7 @@
       </c>
       <c r="I141"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>28</v>
       </c>
@@ -15022,7 +15090,7 @@
       </c>
       <c r="I142"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>28</v>
       </c>
@@ -15040,7 +15108,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>28</v>
       </c>
@@ -32467,45 +32535,73 @@
         <v>3424</v>
       </c>
       <c r="J1106" s="28"/>
+    </row>
+    <row r="1107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1107" s="1" t="s">
+        <v>3433</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>3431</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>3434</v>
+      </c>
+      <c r="J1107" s="3" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1108" s="1" t="s">
+        <v>3433</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>3432</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>3434</v>
+      </c>
+      <c r="J1108" s="3" t="s">
+        <v>3435</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1106" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C997:C1005 C1007:C1014 D1006 C994 C2:C992 C1016:C1046 D1092:D1094 D1096:D1097 C1048:C1048576">
-    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C997:C1005 C1007:C1014 D1006 C994 C1016:C1046 D1092:D1094 D1096:D1097 C1048:C1048576">
-    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E709">
-    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E709">
-    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E769">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E769">
-    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E788">
-    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E788">
-    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E832">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E832">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C996">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C995">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35724,10 +35820,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDB924F-9221-4917-B11B-3326F8C1F68D}">
-  <dimension ref="A1:N286"/>
+  <dimension ref="A1:N288"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="B289" sqref="B289"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="C290" sqref="C290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -41650,30 +41746,64 @@
         <v>3425</v>
       </c>
     </row>
+    <row r="287" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B287" s="1" t="s">
+        <v>3433</v>
+      </c>
+      <c r="C287" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D287" t="s">
+        <v>3431</v>
+      </c>
+      <c r="E287" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="288" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B288" s="1" t="s">
+        <v>3433</v>
+      </c>
+      <c r="C288" t="s">
+        <v>3430</v>
+      </c>
+      <c r="D288" t="s">
+        <v>3432</v>
+      </c>
+      <c r="E288" t="s">
+        <v>3434</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D271:D278 D267:D269 E266 D2:D265">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D271:D278 D267:D269 E266 D259:D265">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D279">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D271:D278 D267:D269 E266 D259:D265">
+  <conditionalFormatting sqref="D279">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D279">
+  <conditionalFormatting sqref="D281">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D279">
+  <conditionalFormatting sqref="D281">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D281">
+  <conditionalFormatting sqref="D286">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D281">
+  <conditionalFormatting sqref="D286">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D286">
+  <conditionalFormatting sqref="D287:D288">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D286">
+  <conditionalFormatting sqref="D287:D288">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MASTER_MS5673.xlsx
+++ b/MASTER_MS5673.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer_CA\★ Strim---MS Helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E58302-87DE-4BA9-AA1D-3B83080BA027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C3D178-F0F7-451F-8668-1E2DCDA8AAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11670" yWindow="120" windowWidth="17010" windowHeight="14550" activeTab="2" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
+    <workbookView xWindow="6930" yWindow="0" windowWidth="17010" windowHeight="14550" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="3" r:id="rId1"/>
@@ -12648,10 +12648,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}">
   <dimension ref="A1:N1108"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1085" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="B1107" sqref="B1107:D1108"/>
+      <selection pane="bottomLeft" activeCell="A1111" sqref="A1111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -35822,7 +35822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDB924F-9221-4917-B11B-3326F8C1F68D}">
   <dimension ref="A1:N288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+    <sheetView topLeftCell="A268" workbookViewId="0">
       <selection activeCell="C290" sqref="C290"/>
     </sheetView>
   </sheetViews>

--- a/MASTER_MS5673.xlsx
+++ b/MASTER_MS5673.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer_CA\★ Strim---MS Helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C3D178-F0F7-451F-8668-1E2DCDA8AAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116D899C-069E-46C1-B276-1CDBCA9C5B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="0" windowWidth="17010" windowHeight="14550" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24345" windowHeight="14700" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MASTER!$A$1:$M$1106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MASTER!$A$1:$M$1109</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$I$371</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8258" uniqueCount="3436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8262" uniqueCount="3440">
   <si>
     <t>무역거래처상호</t>
   </si>
@@ -11876,6 +11876,28 @@
   </si>
   <si>
     <t>네트워크장비에 내장착되는 데이터전송용 케이블로 비대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	XU102866-22003B
+(CN) XU100122-21032A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200-240 V~/346-415 V~, 3 W+N+PE; 50/60 Hz, 5.
+0 A OR 200-240 V~, 3 W+PE; 50/60 Hz; 5.0 A OR
+200-240 V~, 50/60 Hz, 5.0 A, X3 Output: +12.
+25 Vdc, 175 A Max. total output power not to
+exceed 2 100 W
+(CN) 200-240 V~ / 346-415 V~; 3 W + N + PE; 50/60 Hz, 5.0 A OR 200-240 V~; 3 W + PE; 50/60 Hz; 5.0 A OR 200-240 V~;50/60 Hz; 5.0 A, X3 (O/P: +12.25 Vdc, 175 A Max, Total Output power not to exceed 2100 W)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-FPC-SM-D-3M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SINGLE MODE DUPLEX FIBER UNIBOOT PATCH CORD YELLOW 3M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12026,7 +12048,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12109,6 +12131,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12646,12 +12677,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}">
-  <dimension ref="A1:N1108"/>
+  <dimension ref="A1:N1109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1085" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A1111" sqref="A1111"/>
+      <selection pane="bottomLeft" activeCell="C1115" sqref="C1115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12667,7 +12698,9 @@
     <col min="9" max="9" width="69.75" style="4" customWidth="1"/>
     <col min="10" max="10" width="10.375" style="3" customWidth="1"/>
     <col min="11" max="11" width="10.375" customWidth="1"/>
-    <col min="12" max="12" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36.625" customWidth="1"/>
+    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -12710,7 +12743,7 @@
       <c r="M1" s="9" t="s">
         <v>2392</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="29" t="s">
         <v>3428</v>
       </c>
     </row>
@@ -12758,7 +12791,7 @@
         <v>931</v>
       </c>
       <c r="I4"/>
-      <c r="N4">
+      <c r="N4" s="25">
         <v>2.64</v>
       </c>
     </row>
@@ -12776,7 +12809,7 @@
         <v>251</v>
       </c>
       <c r="I5"/>
-      <c r="N5">
+      <c r="N5" s="25">
         <v>2.1579999999999999</v>
       </c>
     </row>
@@ -12824,6 +12857,9 @@
         <v>589</v>
       </c>
       <c r="I8"/>
+      <c r="N8" s="25">
+        <v>8.5000000000000006E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -12974,7 +13010,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -12992,7 +13028,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -13007,7 +13043,7 @@
       </c>
       <c r="I18"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -13022,7 +13058,7 @@
       </c>
       <c r="I19"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -13040,7 +13076,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -13055,7 +13091,7 @@
       </c>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -13070,7 +13106,7 @@
       </c>
       <c r="I22"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -13088,7 +13124,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -13103,7 +13139,7 @@
       </c>
       <c r="I24"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -13118,7 +13154,7 @@
       </c>
       <c r="I25"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -13133,7 +13169,7 @@
       </c>
       <c r="I26"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -13148,7 +13184,7 @@
       </c>
       <c r="I27"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -13163,7 +13199,7 @@
       </c>
       <c r="I28"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -13178,7 +13214,7 @@
       </c>
       <c r="I29"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -13192,8 +13228,11 @@
         <v>1284</v>
       </c>
       <c r="I30"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N30" s="25">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -13208,7 +13247,7 @@
       </c>
       <c r="I31"/>
     </row>
-    <row r="32" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>28</v>
       </c>
@@ -13224,6 +13263,7 @@
       <c r="K32" s="8" t="s">
         <v>2105</v>
       </c>
+      <c r="N32" s="30"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -13254,7 +13294,7 @@
         <v>143</v>
       </c>
       <c r="I34"/>
-      <c r="N34">
+      <c r="N34" s="25">
         <v>3.1669999999999998</v>
       </c>
     </row>
@@ -13441,6 +13481,9 @@
         <v>1291</v>
       </c>
       <c r="I45"/>
+      <c r="N45" s="25">
+        <v>2.1000000000000001E-2</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -13531,6 +13574,9 @@
         <v>1297</v>
       </c>
       <c r="I51"/>
+      <c r="N51" s="25">
+        <v>2.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -13546,7 +13592,7 @@
         <v>1298</v>
       </c>
       <c r="I52"/>
-      <c r="N52">
+      <c r="N52" s="25">
         <v>0.03</v>
       </c>
     </row>
@@ -13748,7 +13794,7 @@
       </c>
       <c r="I64"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -13763,7 +13809,7 @@
       </c>
       <c r="I65"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -13781,7 +13827,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -13804,7 +13850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -13819,7 +13865,7 @@
       </c>
       <c r="I68"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>28</v>
       </c>
@@ -13833,8 +13879,11 @@
         <v>1305</v>
       </c>
       <c r="I69"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N69" s="25">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>28</v>
       </c>
@@ -13852,7 +13901,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -13872,7 +13921,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -13887,7 +13936,7 @@
       </c>
       <c r="I72"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>28</v>
       </c>
@@ -13902,7 +13951,7 @@
       </c>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>28</v>
       </c>
@@ -13920,7 +13969,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>28</v>
       </c>
@@ -13938,7 +13987,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -13953,7 +14002,7 @@
       </c>
       <c r="I76"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>28</v>
       </c>
@@ -13971,7 +14020,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>28</v>
       </c>
@@ -13986,7 +14035,7 @@
       </c>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>28</v>
       </c>
@@ -14001,7 +14050,7 @@
       </c>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>28</v>
       </c>
@@ -14018,6 +14067,9 @@
       <c r="J80" s="3" t="s">
         <v>2107</v>
       </c>
+      <c r="N80" s="25">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
@@ -14293,7 +14345,7 @@
       </c>
       <c r="I96"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>28</v>
       </c>
@@ -14307,8 +14359,11 @@
         <v>1315</v>
       </c>
       <c r="I97"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N97" s="25">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>28</v>
       </c>
@@ -14326,7 +14381,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>28</v>
       </c>
@@ -14344,7 +14399,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>28</v>
       </c>
@@ -14359,7 +14414,7 @@
       </c>
       <c r="I100"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -14374,7 +14429,7 @@
       </c>
       <c r="I101"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>28</v>
       </c>
@@ -14392,7 +14447,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>28</v>
       </c>
@@ -14415,7 +14470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>28</v>
       </c>
@@ -14438,7 +14493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>28</v>
       </c>
@@ -14461,7 +14516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>28</v>
       </c>
@@ -14476,7 +14531,7 @@
       </c>
       <c r="I106"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>28</v>
       </c>
@@ -14494,7 +14549,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>28</v>
       </c>
@@ -14512,7 +14567,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>28</v>
       </c>
@@ -14535,7 +14590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>28</v>
       </c>
@@ -14553,7 +14608,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>28</v>
       </c>
@@ -14568,7 +14623,7 @@
       </c>
       <c r="I111"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>28</v>
       </c>
@@ -14583,7 +14638,7 @@
       </c>
       <c r="I112"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>28</v>
       </c>
@@ -14597,8 +14652,11 @@
         <v>1329</v>
       </c>
       <c r="I113"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N113" s="25">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>28</v>
       </c>
@@ -14613,7 +14671,7 @@
       </c>
       <c r="I114"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>28</v>
       </c>
@@ -14628,7 +14686,7 @@
       </c>
       <c r="I115"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>28</v>
       </c>
@@ -14643,7 +14701,7 @@
       </c>
       <c r="I116"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>28</v>
       </c>
@@ -14658,7 +14716,7 @@
       </c>
       <c r="I117"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>28</v>
       </c>
@@ -14673,7 +14731,7 @@
       </c>
       <c r="I118"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -14691,7 +14749,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>28</v>
       </c>
@@ -14706,7 +14764,7 @@
       </c>
       <c r="I120"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>28</v>
       </c>
@@ -14721,7 +14779,7 @@
       </c>
       <c r="I121"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>28</v>
       </c>
@@ -14736,7 +14794,7 @@
       </c>
       <c r="I122"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>28</v>
       </c>
@@ -14750,8 +14808,11 @@
         <v>143</v>
       </c>
       <c r="I123"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N123" s="25">
+        <v>2.5760000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>28</v>
       </c>
@@ -14766,7 +14827,7 @@
       </c>
       <c r="I124"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>28</v>
       </c>
@@ -14781,7 +14842,7 @@
       </c>
       <c r="I125"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>28</v>
       </c>
@@ -14796,7 +14857,7 @@
       </c>
       <c r="I126"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>28</v>
       </c>
@@ -14828,7 +14889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>28</v>
       </c>
@@ -14890,6 +14951,9 @@
         <v>185</v>
       </c>
       <c r="I131"/>
+      <c r="N131" s="25">
+        <v>3.1749999999999998</v>
+      </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
@@ -14929,7 +14993,7 @@
       <c r="J133" s="3" t="s">
         <v>2107</v>
       </c>
-      <c r="N133">
+      <c r="N133" s="25">
         <v>0.107</v>
       </c>
     </row>
@@ -15126,7 +15190,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>28</v>
       </c>
@@ -15140,8 +15204,11 @@
         <v>1345</v>
       </c>
       <c r="I145"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N145" s="25">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>28</v>
       </c>
@@ -15155,8 +15222,11 @@
         <v>41</v>
       </c>
       <c r="I146"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="N146" s="25">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>28</v>
       </c>
@@ -15179,7 +15249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>28</v>
       </c>
@@ -15194,7 +15264,7 @@
       </c>
       <c r="I148"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>28</v>
       </c>
@@ -15226,7 +15296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>28</v>
       </c>
@@ -15258,7 +15328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>28</v>
       </c>
@@ -15290,7 +15360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>28</v>
       </c>
@@ -15305,7 +15375,7 @@
       </c>
       <c r="I152"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>28</v>
       </c>
@@ -15328,7 +15398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>28</v>
       </c>
@@ -15360,7 +15430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>28</v>
       </c>
@@ -15375,7 +15445,7 @@
       </c>
       <c r="I155"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>28</v>
       </c>
@@ -15390,7 +15460,7 @@
       </c>
       <c r="I156"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>28</v>
       </c>
@@ -15405,7 +15475,7 @@
       </c>
       <c r="I157"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>28</v>
       </c>
@@ -15420,7 +15490,7 @@
       </c>
       <c r="I158"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>28</v>
       </c>
@@ -15435,7 +15505,7 @@
       </c>
       <c r="I159"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>28</v>
       </c>
@@ -21008,7 +21078,7 @@
       </c>
       <c r="I496"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>17</v>
       </c>
@@ -21023,7 +21093,7 @@
       </c>
       <c r="I497"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>17</v>
       </c>
@@ -21038,7 +21108,7 @@
       </c>
       <c r="I498"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>17</v>
       </c>
@@ -21053,7 +21123,7 @@
       </c>
       <c r="I499"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>17</v>
       </c>
@@ -21068,7 +21138,7 @@
       </c>
       <c r="I500"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>17</v>
       </c>
@@ -21083,7 +21153,7 @@
       </c>
       <c r="I501"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>17</v>
       </c>
@@ -21098,7 +21168,7 @@
       </c>
       <c r="I502"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>17</v>
       </c>
@@ -21116,7 +21186,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>17</v>
       </c>
@@ -21131,7 +21201,7 @@
       </c>
       <c r="I504"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>17</v>
       </c>
@@ -21149,7 +21219,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>17</v>
       </c>
@@ -21164,7 +21234,7 @@
       </c>
       <c r="I506"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>17</v>
       </c>
@@ -21179,7 +21249,7 @@
       </c>
       <c r="I507"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>17</v>
       </c>
@@ -21197,7 +21267,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>17</v>
       </c>
@@ -21215,7 +21285,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>17</v>
       </c>
@@ -21233,7 +21303,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="511" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A511" s="12" t="s">
         <v>17</v>
       </c>
@@ -21267,8 +21337,9 @@
       <c r="K511" s="12" t="s">
         <v>2173</v>
       </c>
-    </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N511" s="31"/>
+    </row>
+    <row r="512" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>17</v>
       </c>
@@ -30999,7 +31070,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="1035" spans="2:13" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="1035" spans="2:13" ht="132" x14ac:dyDescent="0.3">
       <c r="B1035" s="1" t="s">
         <v>2421</v>
       </c>
@@ -31015,14 +31086,14 @@
       <c r="F1035" t="s">
         <v>2160</v>
       </c>
-      <c r="G1035" t="s">
-        <v>2621</v>
+      <c r="G1035" s="2" t="s">
+        <v>3436</v>
       </c>
       <c r="H1035" t="s">
         <v>2147</v>
       </c>
       <c r="I1035" s="2" t="s">
-        <v>2622</v>
+        <v>3437</v>
       </c>
       <c r="L1035" t="s">
         <v>2389</v>
@@ -32564,8 +32635,22 @@
         <v>3435</v>
       </c>
     </row>
+    <row r="1109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>3438</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>3439</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M1106" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}"/>
+  <autoFilter ref="A1:M1109" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C997:C1005 C1007:C1014 D1006 C994 C2:C992 C1016:C1046 D1092:D1094 D1096:D1097 C1048:C1048576">
     <cfRule type="duplicateValues" dxfId="21" priority="16"/>

--- a/MASTER_MS5673.xlsx
+++ b/MASTER_MS5673.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer_CA\★ Strim---MS Helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116D899C-069E-46C1-B276-1CDBCA9C5B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467F5527-12AB-4C20-BCE5-683D57FF59FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24345" windowHeight="14700" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
+    <workbookView xWindow="675" yWindow="225" windowWidth="25935" windowHeight="14700" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="인증리스트" sheetId="5" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MASTER!$A$1:$M$1109</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$I$371</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">인증리스트!$A$1:$I$371</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8262" uniqueCount="3440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8272" uniqueCount="3447">
   <si>
     <t>무역거래처상호</t>
   </si>
@@ -11898,6 +11898,34 @@
   </si>
   <si>
     <t>SINGLE MODE DUPLEX FIBER UNIBOOT PATCH CORD YELLOW 3M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-064849 (700-014464-0100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700-014464-0100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YU10710-17001A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(200 - 240) V~, (50 / 60) Hz, 3.5 A (Output : 12.25 Vd.c., 134.7 A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhongshan Artesyn Technologies.Co.,Ltd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARTESYN - PSU,ARTESYN,PS1650,N MODEL:700-014464-0100 VOLT:200-240V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSIP-REM-AIL-700-014464</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12677,12 +12705,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}">
-  <dimension ref="A1:N1109"/>
+  <dimension ref="A1:N1110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1091" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="C1115" sqref="C1115"/>
+      <selection pane="bottomLeft" activeCell="C1114" sqref="C1114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -32563,7 +32591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1105" t="s">
         <v>17</v>
       </c>
@@ -32580,7 +32608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1106" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1106" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1106" s="26" t="s">
         <v>2421</v>
       </c>
@@ -32607,7 +32635,7 @@
       </c>
       <c r="J1106" s="28"/>
     </row>
-    <row r="1107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1107" s="1" t="s">
         <v>3433</v>
       </c>
@@ -32621,7 +32649,7 @@
         <v>3435</v>
       </c>
     </row>
-    <row r="1108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1108" s="1" t="s">
         <v>3433</v>
       </c>
@@ -32635,7 +32663,7 @@
         <v>3435</v>
       </c>
     </row>
-    <row r="1109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1109" t="s">
         <v>17</v>
       </c>
@@ -32647,6 +32675,38 @@
       </c>
       <c r="D1109" t="s">
         <v>3439</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B1110" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>3441</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>3446</v>
+      </c>
+      <c r="G1110" t="s">
+        <v>3442</v>
+      </c>
+      <c r="H1110" t="s">
+        <v>2323</v>
+      </c>
+      <c r="I1110" s="4" t="s">
+        <v>3443</v>
+      </c>
+      <c r="L1110" t="s">
+        <v>2865</v>
+      </c>
+      <c r="M1110" t="s">
+        <v>3444</v>
       </c>
     </row>
   </sheetData>
@@ -32697,7 +32757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F13876-64EB-40B2-81C1-EE77F68D2575}">
   <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView topLeftCell="A162" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A168" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A166" sqref="A166:A187"/>
     </sheetView>
   </sheetViews>

--- a/MASTER_MS5673.xlsx
+++ b/MASTER_MS5673.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer_CA\★ Strim---MS Helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4249D2-C9F1-4470-8ABB-FFA0683CE1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8492C33D-ABB3-477E-AD5C-67DAC8B42ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
+    <workbookView xWindow="2250" yWindow="1785" windowWidth="26295" windowHeight="12630" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="3" r:id="rId1"/>
@@ -11987,96 +11987,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WES-CPC-14FT-14FT PC C6 WHT B8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-16FT-16FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-18FT-18FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-20FT-20FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-22FT-22FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-26FT-26FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-28FT-28FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-30FT-30FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-32FT-32FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-34FT-34FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-36FT-36FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-38FT-38FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-40FT-40FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-42FT-42FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-44FT-44FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-46FT-46FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-48FT-48FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-50FT-50FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-55FT-55FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-60FT-60FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-65FT-65FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 24 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-6FT-6FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-70FT-70FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 24 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-75FT-75FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 24 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-80FT-80FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-85FT-85FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-8FT-8FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t>WES-CPC-90FT-90FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 24 AWG OD VOLT:~NONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WES-CPC-10FT-10FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AW0 OD VOLT:~NONE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WES-CPC-12FT-12FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:~NONE </t>
-  </si>
-  <si>
     <t>PAN-PA-3410</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -12209,9 +12119,6 @@
     <t>BASIC,HORIZONTAL,(3)IEC C13,(12)IEC C19,BREAKERED,HARTING7 PIN INLET VOLT:NONE</t>
   </si>
   <si>
-    <t xml:space="preserve">WES-CPC-100FT-100FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 24 AWG OD VOLT:~NONE </t>
-  </si>
-  <si>
     <t>RITTAL, DK 7548 1945MM LONG EARTH RAILS DK GROUND RAIL VOLT: NONE</t>
   </si>
   <si>
@@ -12225,6 +12132,130 @@
   </si>
   <si>
     <t>HPE PRERACK MODEL: CHPF-067 CPU: NONE, RAM: NONE</t>
+  </si>
+  <si>
+    <t>WES-CPC-90FT-90FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 24 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-8FT-8FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-85FT-85FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-80FT-80FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-75FT-75FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 24 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-70FT-70FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 24 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-6FT-6FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-65FT-65FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 24 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-60FT-60FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-55FT-55FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-50FT-50FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-48FT-48FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-46FT-46FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-44FT-44FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-42FT-42FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-40FT-40FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-38FT-38FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-36FT-36FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-34FT-34FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-32FT-32FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-30FT-30FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-28FT-28FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-26FT-26FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-22FT-22FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-20FT-20FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-18FT-18FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-16FT-16FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-CPC-14FT-14FT PC C6 WHT B8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">WES-CPC-12FT-12FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AWG OD VOLT:NONE </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">WES-CPC-10FT-10FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 28 AW0 OD VOLT:NONE </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">WES-CPC-100FT-100FT PC C6 WHTB 8C RJ45/RJ45 GIGASPEED XL 24 AWG OD VOLT:NONE </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -13233,9 +13264,9 @@
   <dimension ref="A1:N1119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A641" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="D639" sqref="D639"/>
+      <selection pane="bottomLeft" activeCell="D638" sqref="D638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16374,7 +16405,7 @@
         <v>415</v>
       </c>
       <c r="D170" t="s">
-        <v>3511</v>
+        <v>3481</v>
       </c>
       <c r="I170"/>
       <c r="J170" s="3" t="s">
@@ -17454,7 +17485,7 @@
         <v>810</v>
       </c>
       <c r="D236" t="s">
-        <v>3512</v>
+        <v>3482</v>
       </c>
       <c r="I236"/>
     </row>
@@ -18390,7 +18421,7 @@
         <v>440</v>
       </c>
       <c r="D291" t="s">
-        <v>3536</v>
+        <v>3505</v>
       </c>
       <c r="I291"/>
       <c r="J291" s="3" t="s">
@@ -18408,7 +18439,7 @@
         <v>442</v>
       </c>
       <c r="D292" t="s">
-        <v>3513</v>
+        <v>3483</v>
       </c>
       <c r="I292"/>
       <c r="J292" s="3" t="s">
@@ -19431,7 +19462,7 @@
         <v>604</v>
       </c>
       <c r="D352" t="s">
-        <v>3514</v>
+        <v>3484</v>
       </c>
       <c r="I352"/>
       <c r="J352" s="3" t="s">
@@ -20091,7 +20122,7 @@
         <v>211</v>
       </c>
       <c r="D395" t="s">
-        <v>3515</v>
+        <v>3485</v>
       </c>
       <c r="I395"/>
       <c r="J395" s="3" t="s">
@@ -20226,7 +20257,7 @@
         <v>1116</v>
       </c>
       <c r="D403" t="s">
-        <v>3516</v>
+        <v>3486</v>
       </c>
       <c r="I403"/>
     </row>
@@ -20979,7 +21010,7 @@
         <v>595</v>
       </c>
       <c r="D447" t="s">
-        <v>3517</v>
+        <v>3487</v>
       </c>
       <c r="I447"/>
       <c r="J447" s="3" t="s">
@@ -21012,7 +21043,7 @@
         <v>212</v>
       </c>
       <c r="D449" t="s">
-        <v>3518</v>
+        <v>3488</v>
       </c>
       <c r="I449"/>
       <c r="J449" s="3" t="s">
@@ -21942,7 +21973,7 @@
         <v>596</v>
       </c>
       <c r="D508" t="s">
-        <v>3519</v>
+        <v>3489</v>
       </c>
       <c r="I508"/>
       <c r="J508" s="3" t="s">
@@ -21960,7 +21991,7 @@
         <v>610</v>
       </c>
       <c r="D509" t="s">
-        <v>3520</v>
+        <v>3490</v>
       </c>
       <c r="I509"/>
       <c r="J509" s="3" t="s">
@@ -21978,7 +22009,7 @@
         <v>963</v>
       </c>
       <c r="D510" t="s">
-        <v>3521</v>
+        <v>3491</v>
       </c>
       <c r="I510"/>
       <c r="J510" s="3" t="s">
@@ -22422,7 +22453,7 @@
         <v>973</v>
       </c>
       <c r="D536" t="s">
-        <v>3522</v>
+        <v>3492</v>
       </c>
       <c r="I536"/>
       <c r="J536" s="3" t="s">
@@ -24123,7 +24154,7 @@
         <v>63</v>
       </c>
       <c r="D632" t="s">
-        <v>3535</v>
+        <v>3540</v>
       </c>
       <c r="I632"/>
     </row>
@@ -24138,7 +24169,7 @@
         <v>131</v>
       </c>
       <c r="D633" t="s">
-        <v>3494</v>
+        <v>3539</v>
       </c>
       <c r="I633"/>
     </row>
@@ -24153,7 +24184,7 @@
         <v>339</v>
       </c>
       <c r="D634" t="s">
-        <v>3495</v>
+        <v>3538</v>
       </c>
       <c r="I634"/>
     </row>
@@ -24168,7 +24199,7 @@
         <v>132</v>
       </c>
       <c r="D635" t="s">
-        <v>3466</v>
+        <v>3537</v>
       </c>
       <c r="I635"/>
     </row>
@@ -24183,7 +24214,7 @@
         <v>703</v>
       </c>
       <c r="D636" t="s">
-        <v>3467</v>
+        <v>3536</v>
       </c>
       <c r="I636"/>
     </row>
@@ -24198,7 +24229,7 @@
         <v>133</v>
       </c>
       <c r="D637" t="s">
-        <v>3468</v>
+        <v>3535</v>
       </c>
       <c r="I637"/>
     </row>
@@ -24213,7 +24244,7 @@
         <v>134</v>
       </c>
       <c r="D638" t="s">
-        <v>3469</v>
+        <v>3534</v>
       </c>
       <c r="I638"/>
     </row>
@@ -24228,7 +24259,7 @@
         <v>704</v>
       </c>
       <c r="D639" t="s">
-        <v>3470</v>
+        <v>3533</v>
       </c>
       <c r="I639"/>
     </row>
@@ -24243,7 +24274,7 @@
         <v>338</v>
       </c>
       <c r="D640" t="s">
-        <v>3471</v>
+        <v>3532</v>
       </c>
       <c r="I640"/>
     </row>
@@ -24258,7 +24289,7 @@
         <v>337</v>
       </c>
       <c r="D641" t="s">
-        <v>3472</v>
+        <v>3531</v>
       </c>
       <c r="I641"/>
     </row>
@@ -24273,7 +24304,7 @@
         <v>307</v>
       </c>
       <c r="D642" t="s">
-        <v>3473</v>
+        <v>3530</v>
       </c>
       <c r="I642"/>
     </row>
@@ -24288,7 +24319,7 @@
         <v>66</v>
       </c>
       <c r="D643" t="s">
-        <v>3474</v>
+        <v>3529</v>
       </c>
       <c r="I643"/>
     </row>
@@ -24303,7 +24334,7 @@
         <v>65</v>
       </c>
       <c r="D644" t="s">
-        <v>3475</v>
+        <v>3528</v>
       </c>
       <c r="I644"/>
     </row>
@@ -24318,7 +24349,7 @@
         <v>306</v>
       </c>
       <c r="D645" t="s">
-        <v>3476</v>
+        <v>3527</v>
       </c>
       <c r="I645"/>
     </row>
@@ -24333,7 +24364,7 @@
         <v>336</v>
       </c>
       <c r="D646" t="s">
-        <v>3477</v>
+        <v>3526</v>
       </c>
       <c r="I646"/>
     </row>
@@ -24348,7 +24379,7 @@
         <v>221</v>
       </c>
       <c r="D647" t="s">
-        <v>3478</v>
+        <v>3525</v>
       </c>
       <c r="I647"/>
     </row>
@@ -24363,7 +24394,7 @@
         <v>220</v>
       </c>
       <c r="D648" t="s">
-        <v>3479</v>
+        <v>3524</v>
       </c>
       <c r="I648"/>
     </row>
@@ -24378,7 +24409,7 @@
         <v>67</v>
       </c>
       <c r="D649" t="s">
-        <v>3480</v>
+        <v>3523</v>
       </c>
       <c r="I649"/>
     </row>
@@ -24393,7 +24424,7 @@
         <v>305</v>
       </c>
       <c r="D650" t="s">
-        <v>3481</v>
+        <v>3522</v>
       </c>
       <c r="I650"/>
     </row>
@@ -24408,7 +24439,7 @@
         <v>362</v>
       </c>
       <c r="D651" t="s">
-        <v>3482</v>
+        <v>3521</v>
       </c>
       <c r="I651"/>
     </row>
@@ -24423,7 +24454,7 @@
         <v>304</v>
       </c>
       <c r="D652" t="s">
-        <v>3483</v>
+        <v>3520</v>
       </c>
       <c r="I652"/>
     </row>
@@ -24438,7 +24469,7 @@
         <v>669</v>
       </c>
       <c r="D653" t="s">
-        <v>3484</v>
+        <v>3519</v>
       </c>
       <c r="I653"/>
     </row>
@@ -24453,7 +24484,7 @@
         <v>303</v>
       </c>
       <c r="D654" t="s">
-        <v>3485</v>
+        <v>3518</v>
       </c>
       <c r="I654"/>
     </row>
@@ -24468,7 +24499,7 @@
         <v>302</v>
       </c>
       <c r="D655" t="s">
-        <v>3486</v>
+        <v>3517</v>
       </c>
       <c r="I655"/>
     </row>
@@ -24483,7 +24514,7 @@
         <v>129</v>
       </c>
       <c r="D656" t="s">
-        <v>3487</v>
+        <v>3516</v>
       </c>
       <c r="I656"/>
     </row>
@@ -24498,7 +24529,7 @@
         <v>301</v>
       </c>
       <c r="D657" t="s">
-        <v>3488</v>
+        <v>3515</v>
       </c>
       <c r="I657"/>
     </row>
@@ -24513,7 +24544,7 @@
         <v>300</v>
       </c>
       <c r="D658" t="s">
-        <v>3489</v>
+        <v>3514</v>
       </c>
       <c r="I658"/>
     </row>
@@ -24528,7 +24559,7 @@
         <v>331</v>
       </c>
       <c r="D659" t="s">
-        <v>3490</v>
+        <v>3513</v>
       </c>
       <c r="I659"/>
     </row>
@@ -24543,7 +24574,7 @@
         <v>327</v>
       </c>
       <c r="D660" t="s">
-        <v>3491</v>
+        <v>3512</v>
       </c>
       <c r="I660"/>
     </row>
@@ -24558,7 +24589,7 @@
         <v>130</v>
       </c>
       <c r="D661" t="s">
-        <v>3492</v>
+        <v>3511</v>
       </c>
       <c r="I661"/>
     </row>
@@ -24573,7 +24604,7 @@
         <v>479</v>
       </c>
       <c r="D662" t="s">
-        <v>3493</v>
+        <v>3510</v>
       </c>
       <c r="I662"/>
     </row>
@@ -25439,7 +25470,7 @@
         <v>1275</v>
       </c>
       <c r="D716" t="s">
-        <v>3523</v>
+        <v>3493</v>
       </c>
       <c r="I716"/>
       <c r="J716" s="7" t="s">
@@ -25732,7 +25763,7 @@
         <v>352</v>
       </c>
       <c r="D733" t="s">
-        <v>3524</v>
+        <v>3494</v>
       </c>
       <c r="I733"/>
       <c r="J733" s="7" t="s">
@@ -25750,7 +25781,7 @@
         <v>347</v>
       </c>
       <c r="D734" t="s">
-        <v>3525</v>
+        <v>3495</v>
       </c>
       <c r="I734"/>
       <c r="J734" s="3" t="s">
@@ -26873,7 +26904,7 @@
         <v>539</v>
       </c>
       <c r="D791" t="s">
-        <v>3526</v>
+        <v>3496</v>
       </c>
       <c r="E791" t="s">
         <v>2201</v>
@@ -27066,7 +27097,7 @@
         <v>164</v>
       </c>
       <c r="D801" t="s">
-        <v>3527</v>
+        <v>3497</v>
       </c>
       <c r="I801"/>
       <c r="J801" s="7" t="s">
@@ -27174,7 +27205,7 @@
         <v>227</v>
       </c>
       <c r="D807" t="s">
-        <v>3528</v>
+        <v>3498</v>
       </c>
       <c r="I807"/>
       <c r="J807" s="7" t="s">
@@ -27282,22 +27313,22 @@
         <v>639</v>
       </c>
       <c r="D813" t="s">
-        <v>3507</v>
+        <v>3477</v>
       </c>
       <c r="E813" t="s">
-        <v>3503</v>
+        <v>3473</v>
       </c>
       <c r="F813" t="s">
-        <v>3504</v>
+        <v>3474</v>
       </c>
       <c r="G813" t="s">
-        <v>3505</v>
+        <v>3475</v>
       </c>
       <c r="H813" t="s">
         <v>2093</v>
       </c>
       <c r="I813" t="s">
-        <v>3506</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="814" spans="1:10" x14ac:dyDescent="0.3">
@@ -27819,7 +27850,7 @@
         <v>733</v>
       </c>
       <c r="D841" t="s">
-        <v>3529</v>
+        <v>3499</v>
       </c>
       <c r="I841"/>
       <c r="J841" s="7" t="s">
@@ -28263,7 +28294,7 @@
         <v>27</v>
       </c>
       <c r="D867" t="s">
-        <v>3530</v>
+        <v>3500</v>
       </c>
       <c r="I867"/>
       <c r="J867" s="3" t="s">
@@ -28427,7 +28458,7 @@
         <v>749</v>
       </c>
       <c r="D875" t="s">
-        <v>3531</v>
+        <v>3501</v>
       </c>
       <c r="E875" t="s">
         <v>2226</v>
@@ -29081,7 +29112,7 @@
         <v>474</v>
       </c>
       <c r="D905" t="s">
-        <v>3532</v>
+        <v>3502</v>
       </c>
       <c r="I905"/>
       <c r="J905" s="3" t="s">
@@ -30294,7 +30325,7 @@
         <v>563</v>
       </c>
       <c r="D964" t="s">
-        <v>3533</v>
+        <v>3503</v>
       </c>
       <c r="I964"/>
       <c r="J964" s="3" t="s">
@@ -31941,7 +31972,7 @@
         <v>2590</v>
       </c>
       <c r="D1042" t="s">
-        <v>3537</v>
+        <v>3506</v>
       </c>
       <c r="E1042" t="s">
         <v>2594</v>
@@ -31964,7 +31995,7 @@
         <v>2591</v>
       </c>
       <c r="D1043" t="s">
-        <v>3538</v>
+        <v>3507</v>
       </c>
       <c r="E1043" t="s">
         <v>2594</v>
@@ -32056,7 +32087,7 @@
         <v>2617</v>
       </c>
       <c r="D1047" t="s">
-        <v>3539</v>
+        <v>3508</v>
       </c>
       <c r="E1047" t="s">
         <v>2247</v>
@@ -32148,7 +32179,7 @@
         <v>2644</v>
       </c>
       <c r="D1051" t="s">
-        <v>3534</v>
+        <v>3504</v>
       </c>
       <c r="E1051" t="s">
         <v>2652</v>
@@ -32361,7 +32392,7 @@
         <v>2704</v>
       </c>
       <c r="D1060" t="s">
-        <v>3540</v>
+        <v>3509</v>
       </c>
       <c r="E1060" t="s">
         <v>2708</v>
@@ -33509,13 +33540,13 @@
         <v>9</v>
       </c>
       <c r="C1119" t="s">
-        <v>3496</v>
+        <v>3466</v>
       </c>
       <c r="D1119" t="s">
-        <v>3497</v>
+        <v>3467</v>
       </c>
       <c r="E1119" t="s">
-        <v>3498</v>
+        <v>3468</v>
       </c>
       <c r="F1119" t="s">
         <v>2133</v>
@@ -43182,19 +43213,19 @@
     </row>
     <row r="15" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="B15" s="15" t="s">
-        <v>3499</v>
+        <v>3469</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>3500</v>
+        <v>3470</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>2330</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>3502</v>
+        <v>3472</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>3501</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -43203,13 +43234,13 @@
         <v>639</v>
       </c>
       <c r="C16" t="s">
-        <v>3507</v>
+        <v>3477</v>
       </c>
       <c r="D16" t="s">
         <v>165</v>
       </c>
       <c r="E16" t="s">
-        <v>3508</v>
+        <v>3478</v>
       </c>
       <c r="F16"/>
       <c r="J16" s="3"/>
@@ -43220,13 +43251,13 @@
         <v>458</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>3510</v>
+        <v>3480</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>3424</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>3509</v>
+        <v>3479</v>
       </c>
     </row>
   </sheetData>

--- a/MASTER_MS5673.xlsx
+++ b/MASTER_MS5673.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer_CA\★ Strim---MS Helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06676EF-B3CC-470A-BD6F-0B8E57F4589D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4957A6BF-7641-4B73-A9D0-339483547C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="0" windowWidth="22395" windowHeight="14670" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
+    <workbookView xWindow="29445" yWindow="1815" windowWidth="20745" windowHeight="13560" activeTab="3" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="3" r:id="rId1"/>
     <sheet name="인증리스트" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId3"/>
+    <sheet name="MSF리스트" sheetId="7" r:id="rId3"/>
     <sheet name="PWC &amp; 한영 확인" sheetId="8" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="12" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MASTER!$A$1:$M$1126</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8748" uniqueCount="3751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8870" uniqueCount="3836">
   <si>
     <t>무역거래처상호</t>
   </si>
@@ -11973,9 +11974,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PSU6-3KW-20A-HV=</t>
-  </si>
-  <si>
     <t>6.3KW AC/HVAC/HVDC POWER SUPPLY-20A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -12938,10 +12936,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MSF-059441 is a line card only, part of equipment &amp; can't be used alone.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>L6THM039-SD-R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -12983,10 +12977,6 @@
   </si>
   <si>
     <t>SPARE POWER UNIT / PLUGGABLE POWER SUPPLY UNIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MODEL: G1251-0550WNA 인증번호: R-R-GsW-G1251A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -13060,6 +13050,350 @@
   </si>
   <si>
     <t>MICRON - MMOD,RDIMM,64GB,SM,DD  MODEL:MTC40F2046S1RC48BA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-073273</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSU6-3KW-20A-HV=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-056639</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-012399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUNIPER POWER MODULE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWC_20250904</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 특수설비의 특정 기기에만 사용되도록 설계된 특수구조용의 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JNP-PWR1600-AC </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-240VAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">100-240VAC </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MX2000-PDM-AC-WYE-S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1063805135-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자파가 발생하지 않는 네트워크 장비의 단순 모듈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWC_20250903_전파</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWC_20251106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JUNIPER NETWORKS-POWER SUPPLY (PLUG-IN MODULE)-4.1KW - FOR P/N:MX960BASE-AC,MX960BASE-AC-ECM </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWC_20251107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOLEX SPARE BOOSTER AMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템에 전용으로 사용하기 위한 물품으로서 '특수구조'에 해당하는 물품으로 확인 (Juniper 라우터 전용으로 설계된 구조)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템에 전용으로 사용하기 위한 물품으로서 '특수구조'에 해당하는 물품으로 확인 (Metro DCI Amplifier(1834110127-R0) 과 함께 작동하는 증폭기(Amplifier))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-064201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10129500-3RB0427LF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCI - CBL,PWR,50mm,MB TO PSU,P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JL714A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-061423</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARUBA 8360 PORT-TO-POWER FAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-061272</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3HE10542AA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS - 7210 SAS-S POWER SUPPLY AC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWC_20251111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOLT:N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-078792</t>
+  </si>
+  <si>
+    <t>SEAGATE-HDD,3.5 IN,26.1MM,SATA</t>
+  </si>
+  <si>
+    <t>MSF-078792 (3KS142-401)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STL027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-R-STX-STL027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-078792</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3KS142-401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAGATE-HDD,3.5 IN,26.1MM,SATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWC_20251112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAGATE-HDD,3.5 IN,26.1MM,SATA MODEL:STL027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWR-3KT AC-RED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-029946</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-025053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPARE 3KW TITANIUM AC POWER SUPPLY FOR 7300 AND 7500N SERIES RED HANDLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원산지:TW 는 시스템 내 장착되는 특수구조 형태의 것 (전안법 비대상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 내 장착되는 특수구조 형태의 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUNIPER QFX10002 AC POWER SUPPLY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증번호: R-R-STX-STL027 모델명:STL027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-038272</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MODEL: G1251-0550WNA 인증번호: R-R-GsW-G1251A
+-&gt; 추가로 특수구조용으로 제작된 제품으로 확인받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 장비(시스템)에 전용되어 부착되는 특수구조의 물품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-059441 is a line card only, part of equipment &amp; can't be used alone.
+(시스템 내부에 설치되도록 제작된 특수구조의 것)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-029518</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOLT:5V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POWER CABLE / RJ45 DONGLE PCB ASSEMBLY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cisco.com/c/en/us/td/docs/switches/lan/catalyst9300/hardware/install/b_c9300_hig/Product-overview.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-068571</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RWHHW-M018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-057074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비범용성, 단독사용불가, 라우터 파트
+(These parts a linecards only intended to be installed in larger system. KCC not required for these parts. Thanks, AP 11.13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWC_20251117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">for data transmission or communication only (Not applicable ESAC) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30V (Not applicable ESAC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for data transmission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWC_20251119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12V (Not apllicable ESAC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOLT:DC300V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LNX-RPS-A100-US</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-013868</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC TO DC DESKTOP POWERE SUPPLY MODULE 12V/8A REGULATORY MODEL:EA11011D-1200 VOLT:AC 100-240V,50-60HZ ORIGIN:TW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원산지 TW 는 전안법 비대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전안법 : 기계기구(네트워크특수설비)에 부착되는 특수구조인 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-063907 (HMA84GR7CJR4N-XN)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HYNIX - MMOD,RDIMM,32GB,DDR4,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-063907</t>
+  </si>
+  <si>
+    <t>MSF-067257 (L64SL651-SD-R)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUXSHARE ICT - CBL EMASSY,SLIM</t>
+  </si>
+  <si>
+    <t>LUXSHARE ICT - CBL EMASSY,SLIM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-067257</t>
+  </si>
+  <si>
+    <t>MSF-073522</t>
+  </si>
+  <si>
+    <t>PCB012300183-1</t>
+  </si>
+  <si>
+    <t>JESS-LINK PRODUCTS CO LTD -CABLE</t>
+  </si>
+  <si>
+    <t>MSF-073518</t>
+  </si>
+  <si>
+    <t>P1300SL20475-1</t>
+  </si>
+  <si>
+    <t>L64SL651-SD-R</t>
+  </si>
+  <si>
+    <t>MSF-067257</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13238,7 +13572,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13359,13 +13693,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{04AB7DDF-CEE2-4E84-BB25-B76053D24319}"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13932,6 +14369,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542093</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BED899D4-BE64-4B98-AC29-A621D766F1F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="600075"/>
+          <a:ext cx="6657143" cy="2495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -14274,12 +14760,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}">
-  <dimension ref="A1:N1127"/>
+  <dimension ref="A1:N1130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1097" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1118" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="B1117" sqref="B1117"/>
+      <selection pane="bottomLeft" activeCell="C1130" sqref="C1130:D1130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17445,7 +17931,7 @@
         <v>415</v>
       </c>
       <c r="D170" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="I170"/>
       <c r="J170" s="3" t="s">
@@ -18525,7 +19011,7 @@
         <v>810</v>
       </c>
       <c r="D236" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="I236"/>
     </row>
@@ -19461,7 +19947,7 @@
         <v>440</v>
       </c>
       <c r="D291" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="I291"/>
       <c r="J291" s="3" t="s">
@@ -19479,7 +19965,7 @@
         <v>442</v>
       </c>
       <c r="D292" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="I292"/>
       <c r="J292" s="3" t="s">
@@ -20502,7 +20988,7 @@
         <v>604</v>
       </c>
       <c r="D352" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="I352"/>
       <c r="J352" s="3" t="s">
@@ -21162,7 +21648,7 @@
         <v>211</v>
       </c>
       <c r="D395" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="I395"/>
       <c r="J395" s="3" t="s">
@@ -21297,7 +21783,7 @@
         <v>1116</v>
       </c>
       <c r="D403" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="I403"/>
     </row>
@@ -22050,7 +22536,7 @@
         <v>595</v>
       </c>
       <c r="D447" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="I447"/>
       <c r="J447" s="3" t="s">
@@ -22083,7 +22569,7 @@
         <v>212</v>
       </c>
       <c r="D449" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="I449"/>
       <c r="J449" s="3" t="s">
@@ -23013,7 +23499,7 @@
         <v>596</v>
       </c>
       <c r="D508" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="I508"/>
       <c r="J508" s="3" t="s">
@@ -23031,7 +23517,7 @@
         <v>610</v>
       </c>
       <c r="D509" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="I509"/>
       <c r="J509" s="3" t="s">
@@ -23049,7 +23535,7 @@
         <v>963</v>
       </c>
       <c r="D510" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="I510"/>
       <c r="J510" s="3" t="s">
@@ -23493,7 +23979,7 @@
         <v>973</v>
       </c>
       <c r="D536" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="I536"/>
       <c r="J536" s="3" t="s">
@@ -25194,7 +25680,7 @@
         <v>63</v>
       </c>
       <c r="D632" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="I632"/>
     </row>
@@ -25209,7 +25695,7 @@
         <v>131</v>
       </c>
       <c r="D633" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="I633"/>
     </row>
@@ -25224,7 +25710,7 @@
         <v>339</v>
       </c>
       <c r="D634" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="I634"/>
     </row>
@@ -25239,7 +25725,7 @@
         <v>132</v>
       </c>
       <c r="D635" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="I635"/>
     </row>
@@ -25254,7 +25740,7 @@
         <v>703</v>
       </c>
       <c r="D636" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="I636"/>
     </row>
@@ -25269,7 +25755,7 @@
         <v>133</v>
       </c>
       <c r="D637" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="I637"/>
     </row>
@@ -25284,7 +25770,7 @@
         <v>134</v>
       </c>
       <c r="D638" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="I638"/>
     </row>
@@ -25299,7 +25785,7 @@
         <v>704</v>
       </c>
       <c r="D639" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="I639"/>
     </row>
@@ -25314,7 +25800,7 @@
         <v>338</v>
       </c>
       <c r="D640" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="I640"/>
     </row>
@@ -25329,7 +25815,7 @@
         <v>337</v>
       </c>
       <c r="D641" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="I641"/>
     </row>
@@ -25344,7 +25830,7 @@
         <v>307</v>
       </c>
       <c r="D642" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="I642"/>
     </row>
@@ -25359,7 +25845,7 @@
         <v>66</v>
       </c>
       <c r="D643" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="I643"/>
     </row>
@@ -25374,7 +25860,7 @@
         <v>65</v>
       </c>
       <c r="D644" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="I644"/>
     </row>
@@ -25389,7 +25875,7 @@
         <v>306</v>
       </c>
       <c r="D645" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="I645"/>
     </row>
@@ -25404,7 +25890,7 @@
         <v>336</v>
       </c>
       <c r="D646" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="I646"/>
     </row>
@@ -25419,7 +25905,7 @@
         <v>221</v>
       </c>
       <c r="D647" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="I647"/>
     </row>
@@ -25434,7 +25920,7 @@
         <v>220</v>
       </c>
       <c r="D648" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="I648"/>
     </row>
@@ -25449,7 +25935,7 @@
         <v>67</v>
       </c>
       <c r="D649" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="I649"/>
     </row>
@@ -25464,7 +25950,7 @@
         <v>305</v>
       </c>
       <c r="D650" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="I650"/>
     </row>
@@ -25479,7 +25965,7 @@
         <v>362</v>
       </c>
       <c r="D651" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="I651"/>
     </row>
@@ -25494,7 +25980,7 @@
         <v>304</v>
       </c>
       <c r="D652" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="I652"/>
     </row>
@@ -25509,7 +25995,7 @@
         <v>669</v>
       </c>
       <c r="D653" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="I653"/>
     </row>
@@ -25524,7 +26010,7 @@
         <v>303</v>
       </c>
       <c r="D654" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="I654"/>
     </row>
@@ -25539,7 +26025,7 @@
         <v>302</v>
       </c>
       <c r="D655" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="I655"/>
     </row>
@@ -25554,7 +26040,7 @@
         <v>129</v>
       </c>
       <c r="D656" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="I656"/>
     </row>
@@ -25569,7 +26055,7 @@
         <v>301</v>
       </c>
       <c r="D657" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="I657"/>
     </row>
@@ -25584,7 +26070,7 @@
         <v>300</v>
       </c>
       <c r="D658" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="I658"/>
     </row>
@@ -25599,7 +26085,7 @@
         <v>331</v>
       </c>
       <c r="D659" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="I659"/>
     </row>
@@ -25614,7 +26100,7 @@
         <v>327</v>
       </c>
       <c r="D660" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="I660"/>
     </row>
@@ -25629,7 +26115,7 @@
         <v>130</v>
       </c>
       <c r="D661" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="I661"/>
     </row>
@@ -25644,7 +26130,7 @@
         <v>479</v>
       </c>
       <c r="D662" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="I662"/>
     </row>
@@ -26510,7 +26996,7 @@
         <v>1275</v>
       </c>
       <c r="D716" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="I716"/>
       <c r="J716" s="7" t="s">
@@ -26803,11 +27289,11 @@
         <v>352</v>
       </c>
       <c r="D733" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="I733"/>
       <c r="J733" s="3" t="s">
-        <v>3733</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="734" spans="1:10">
@@ -26821,22 +27307,22 @@
         <v>347</v>
       </c>
       <c r="D734" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="E734" t="s">
-        <v>3735</v>
+        <v>3732</v>
       </c>
       <c r="F734" t="s">
-        <v>3737</v>
+        <v>3734</v>
       </c>
       <c r="G734" t="s">
-        <v>3734</v>
+        <v>3731</v>
       </c>
       <c r="H734" t="s">
         <v>2269</v>
       </c>
       <c r="I734" s="4" t="s">
-        <v>3736</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="735" spans="1:10">
@@ -27955,7 +28441,7 @@
         <v>539</v>
       </c>
       <c r="D791" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="E791" t="s">
         <v>2201</v>
@@ -28148,7 +28634,7 @@
         <v>164</v>
       </c>
       <c r="D801" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="I801"/>
       <c r="J801" s="7" t="s">
@@ -28256,7 +28742,7 @@
         <v>227</v>
       </c>
       <c r="D807" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="I807"/>
       <c r="J807" s="7" t="s">
@@ -28364,22 +28850,22 @@
         <v>639</v>
       </c>
       <c r="D813" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="E813" t="s">
+        <v>3465</v>
+      </c>
+      <c r="F813" t="s">
         <v>3466</v>
       </c>
-      <c r="F813" t="s">
+      <c r="G813" t="s">
         <v>3467</v>
-      </c>
-      <c r="G813" t="s">
-        <v>3468</v>
       </c>
       <c r="H813" t="s">
         <v>2093</v>
       </c>
       <c r="I813" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="814" spans="1:10">
@@ -28901,7 +29387,7 @@
         <v>733</v>
       </c>
       <c r="D841" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="I841"/>
       <c r="J841" s="7" t="s">
@@ -29345,7 +29831,7 @@
         <v>27</v>
       </c>
       <c r="D867" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="I867"/>
       <c r="J867" s="3" t="s">
@@ -29509,7 +29995,7 @@
         <v>749</v>
       </c>
       <c r="D875" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="E875" t="s">
         <v>2226</v>
@@ -30163,7 +30649,7 @@
         <v>474</v>
       </c>
       <c r="D905" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="I905"/>
       <c r="J905" s="3" t="s">
@@ -31133,19 +31619,19 @@
         <v>2003</v>
       </c>
       <c r="E952" s="2" t="s">
+        <v>3741</v>
+      </c>
+      <c r="F952" s="2" t="s">
+        <v>3742</v>
+      </c>
+      <c r="G952" s="2" t="s">
+        <v>3743</v>
+      </c>
+      <c r="H952" s="2" t="s">
         <v>3744</v>
       </c>
-      <c r="F952" s="2" t="s">
+      <c r="I952" s="2" t="s">
         <v>3745</v>
-      </c>
-      <c r="G952" s="2" t="s">
-        <v>3746</v>
-      </c>
-      <c r="H952" s="2" t="s">
-        <v>3747</v>
-      </c>
-      <c r="I952" s="2" t="s">
-        <v>3748</v>
       </c>
       <c r="J952" s="3" t="s">
         <v>1</v>
@@ -31376,7 +31862,7 @@
         <v>563</v>
       </c>
       <c r="D964" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="I964"/>
       <c r="J964" s="3" t="s">
@@ -33023,7 +33509,7 @@
         <v>2586</v>
       </c>
       <c r="D1042" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="E1042" t="s">
         <v>2590</v>
@@ -33046,7 +33532,7 @@
         <v>2587</v>
       </c>
       <c r="D1043" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="E1043" t="s">
         <v>2590</v>
@@ -33138,7 +33624,7 @@
         <v>2613</v>
       </c>
       <c r="D1047" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="E1047" t="s">
         <v>2247</v>
@@ -33230,7 +33716,7 @@
         <v>2640</v>
       </c>
       <c r="D1051" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="E1051" t="s">
         <v>2648</v>
@@ -33443,7 +33929,7 @@
         <v>2700</v>
       </c>
       <c r="D1060" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="E1060" t="s">
         <v>2704</v>
@@ -34611,18 +35097,18 @@
         <v>2308</v>
       </c>
       <c r="C1120" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="D1120" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="1121" spans="2:11">
       <c r="B1121" s="1" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="C1121" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="D1121" t="s">
         <v>1319</v>
@@ -34639,10 +35125,10 @@
         <v>2308</v>
       </c>
       <c r="C1122" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="D1122" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="1123" spans="2:11">
@@ -34650,10 +35136,10 @@
         <v>2308</v>
       </c>
       <c r="C1123" t="s">
+        <v>3555</v>
+      </c>
+      <c r="D1123" t="s">
         <v>3556</v>
-      </c>
-      <c r="D1123" t="s">
-        <v>3557</v>
       </c>
     </row>
     <row r="1124" spans="2:11">
@@ -34661,10 +35147,10 @@
         <v>3420</v>
       </c>
       <c r="C1124" t="s">
+        <v>3559</v>
+      </c>
+      <c r="D1124" t="s">
         <v>3560</v>
-      </c>
-      <c r="D1124" t="s">
-        <v>3561</v>
       </c>
     </row>
     <row r="1125" spans="2:11">
@@ -34675,27 +35161,27 @@
         <v>367680910</v>
       </c>
       <c r="D1125" s="3" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="1126" spans="2:11">
       <c r="B1126" s="1" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="C1126" t="s">
+        <v>3592</v>
+      </c>
+      <c r="D1126" s="3" t="s">
         <v>3593</v>
       </c>
-      <c r="D1126" s="3" t="s">
+      <c r="E1126" t="s">
         <v>3594</v>
       </c>
-      <c r="E1126" t="s">
+      <c r="F1126" t="s">
         <v>3595</v>
       </c>
-      <c r="F1126" t="s">
-        <v>3596</v>
-      </c>
       <c r="K1126" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="1127" spans="2:11">
@@ -34703,56 +35189,95 @@
         <v>3304</v>
       </c>
       <c r="C1127" s="35" t="s">
-        <v>3749</v>
+        <v>3746</v>
       </c>
       <c r="D1127" s="3" t="s">
-        <v>3750</v>
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="1128" spans="2:11">
+      <c r="B1128" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>3781</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>3788</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>3782</v>
+      </c>
+      <c r="F1128" t="s">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="1129" spans="2:11">
+      <c r="B1129" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>3822</v>
+      </c>
+      <c r="D1129" s="3" t="s">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="1130" spans="2:11">
+      <c r="B1130" s="1" t="s">
+        <v>3371</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>3825</v>
+      </c>
+      <c r="D1130" s="3" t="s">
+        <v>3827</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1126" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C997:C1005 C1007:C1014 D1006 C994 C2:C992 C1016:C1046 D1092:D1094 D1096:D1097 C1048:C1111 C1113:C1117 C1119:C1124 C1126 C1128:C1048576">
-    <cfRule type="duplicateValues" dxfId="49" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C997:C1005 C1007:C1014 D1006 C994 C1016:C1046 D1092:D1094 D1096:D1097 C1048:C1111 C1113:C1117 C1119:C1124 C1126 C1128:C1048576">
-    <cfRule type="duplicateValues" dxfId="48" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E709">
-    <cfRule type="duplicateValues" dxfId="47" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E709">
-    <cfRule type="duplicateValues" dxfId="46" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E769">
-    <cfRule type="duplicateValues" dxfId="45" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E769">
-    <cfRule type="duplicateValues" dxfId="44" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E788">
-    <cfRule type="duplicateValues" dxfId="43" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E788">
-    <cfRule type="duplicateValues" dxfId="42" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E832">
-    <cfRule type="duplicateValues" dxfId="41" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E832">
-    <cfRule type="duplicateValues" dxfId="40" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C996">
-    <cfRule type="duplicateValues" dxfId="39" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C995">
-    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1118">
-    <cfRule type="duplicateValues" dxfId="37" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1127">
-    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34764,7 +35289,7 @@
   <dimension ref="A1:F188"/>
   <sheetViews>
     <sheetView topLeftCell="A168" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B191" sqref="B191"/>
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -37971,10 +38496,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEDB924F-9221-4917-B11B-3326F8C1F68D}">
-  <dimension ref="A1:N300"/>
+  <dimension ref="A1:N304"/>
   <sheetViews>
     <sheetView topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="D305" sqref="D305"/>
+      <selection activeCell="C307" sqref="C307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -44044,27 +44569,27 @@
         <v>2308</v>
       </c>
       <c r="C297" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="D297" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="E297" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="298" spans="2:5">
       <c r="B298" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="C298" t="s">
         <v>3551</v>
       </c>
-      <c r="C298" t="s">
-        <v>3552</v>
-      </c>
       <c r="D298" t="s">
+        <v>3548</v>
+      </c>
+      <c r="E298" t="s">
         <v>3549</v>
-      </c>
-      <c r="E298" t="s">
-        <v>3550</v>
       </c>
     </row>
     <row r="299" spans="2:5">
@@ -44072,13 +44597,13 @@
         <v>2308</v>
       </c>
       <c r="C299" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="D299" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="E299" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="300" spans="2:5">
@@ -44086,100 +44611,177 @@
         <v>2308</v>
       </c>
       <c r="C300" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="D300" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="E300" t="s">
-        <v>3557</v>
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="301" spans="2:5">
+      <c r="B301" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C301" t="s">
+        <v>3748</v>
+      </c>
+      <c r="D301" s="35" t="s">
+        <v>3746</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="302" spans="2:5">
+      <c r="B302" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="C302" t="s">
+        <v>3779</v>
+      </c>
+      <c r="D302" t="s">
+        <v>3781</v>
+      </c>
+      <c r="E302" t="s">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="303" spans="2:5">
+      <c r="B303" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="C303" t="s">
+        <v>3824</v>
+      </c>
+      <c r="D303" t="s">
+        <v>3822</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="304" spans="2:5">
+      <c r="B304" s="1" t="s">
+        <v>3371</v>
+      </c>
+      <c r="C304" t="s">
+        <v>3828</v>
+      </c>
+      <c r="D304" t="s">
+        <v>3825</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>3827</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D271:D278 D267:D269 E266 D2:D265">
-    <cfRule type="duplicateValues" dxfId="35" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D271:D278 D267:D269 E266 D259:D265">
-    <cfRule type="duplicateValues" dxfId="34" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D279">
-    <cfRule type="duplicateValues" dxfId="33" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D279">
-    <cfRule type="duplicateValues" dxfId="32" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D281">
-    <cfRule type="duplicateValues" dxfId="31" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D281">
-    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D286">
-    <cfRule type="duplicateValues" dxfId="29" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D286">
-    <cfRule type="duplicateValues" dxfId="28" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D287:D288">
-    <cfRule type="duplicateValues" dxfId="27" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D287:D288">
-    <cfRule type="duplicateValues" dxfId="26" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D290">
-    <cfRule type="duplicateValues" dxfId="25" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D290">
-    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D292">
-    <cfRule type="duplicateValues" dxfId="23" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D292">
-    <cfRule type="duplicateValues" dxfId="22" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D293">
-    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D293">
-    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D294">
-    <cfRule type="duplicateValues" dxfId="19" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D294">
-    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D295">
-    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D295">
-    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D296">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D296">
-    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D298">
-    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D298">
-    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D299">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D299">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D300">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D300">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D301">
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D302">
+    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D302">
+    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D303">
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D303">
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D304">
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D304">
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44190,16 +44792,16 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="20.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="15" customWidth="1"/>
     <col min="3" max="3" width="84.5" style="15" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.25" style="4" customWidth="1"/>
@@ -44315,7 +44917,7 @@
         <v>3420</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -44414,7 +45016,7 @@
         <v>107</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>3458</v>
@@ -44434,13 +45036,13 @@
         <v>107</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -44457,27 +45059,33 @@
         <v>107</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>3690</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>3691</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>3692</v>
-      </c>
     </row>
     <row r="15" spans="1:14" ht="33">
+      <c r="A15" s="15" t="s">
+        <v>3750</v>
+      </c>
       <c r="B15" s="15" t="s">
+        <v>3749</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>3462</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>3463</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>2326</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>3464</v>
+        <v>3463</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>3753</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -44485,13 +45093,13 @@
         <v>639</v>
       </c>
       <c r="C16" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>165</v>
       </c>
       <c r="E16" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="F16"/>
       <c r="J16" s="3"/>
@@ -44502,100 +45110,100 @@
         <v>458</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>3420</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="15" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>3533</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>3534</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>3535</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>2336</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="G18" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="15" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>3538</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>3540</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>3539</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>3541</v>
       </c>
       <c r="D19" s="4">
         <v>8302500000</v>
       </c>
       <c r="G19" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="30" customFormat="1">
       <c r="A20" s="40" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="B20" s="40" t="s">
+        <v>3559</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>3560</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>3561</v>
       </c>
       <c r="D20" s="32" t="s">
         <v>62</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="32" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="30" customFormat="1">
       <c r="A21" s="40" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="B21" s="40">
         <v>367680910</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="D21" s="32" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="32" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="30" customFormat="1">
       <c r="A22" s="40" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
       <c r="B22" s="40" t="s">
         <v>612</v>
@@ -44607,19 +45215,19 @@
         <v>62</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="32" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="15" t="s">
+        <v>3566</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>3567</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>3568</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>113</v>
@@ -44627,27 +45235,42 @@
       <c r="D23" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="E23" s="4" t="s">
+        <v>3815</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>3814</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="15" t="s">
+        <v>3568</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>3569</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="C24" s="3" t="s">
         <v>3570</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>3571</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="E24" s="4" t="s">
+        <v>3662</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>3813</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>3762</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="15" t="s">
+        <v>3571</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>3572</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>3573</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>109</v>
@@ -44655,13 +45278,19 @@
       <c r="D25" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="E25" s="4" t="s">
+        <v>3812</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>3814</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="15" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>3574</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>3575</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>1206</v>
@@ -44669,147 +45298,153 @@
       <c r="D26" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="F26" s="4" t="s">
+        <v>3811</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>3814</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="15" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="15" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>3580</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>3582</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>3581</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>3583</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>3582</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="15" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>3584</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>3583</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>3582</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>3586</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>3585</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>3584</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>3583</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>3587</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="15" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="15" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>3604</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>3606</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>3605</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>3607</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>3371</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="G31" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="30" customFormat="1">
       <c r="A32" s="40" t="s">
+        <v>3597</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>3596</v>
+      </c>
+      <c r="C32" s="33" t="s">
         <v>3598</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>3597</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>3599</v>
       </c>
       <c r="D32" s="32" t="s">
         <v>107</v>
       </c>
       <c r="E32" s="32" t="s">
+        <v>3697</v>
+      </c>
+      <c r="F32" s="32" t="s">
         <v>3698</v>
       </c>
-      <c r="F32" s="32" t="s">
-        <v>3699</v>
-      </c>
       <c r="G32" s="4" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="30" customFormat="1">
       <c r="A33" s="40" t="s">
+        <v>3599</v>
+      </c>
+      <c r="B33" s="40" t="s">
         <v>3600</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="C33" s="33" t="s">
         <v>3601</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>3602</v>
       </c>
       <c r="D33" s="32" t="s">
         <v>107</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="30" customFormat="1">
       <c r="A34" s="40" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="C34" s="33" t="s">
         <v>3453</v>
@@ -44818,47 +45453,47 @@
         <v>107</v>
       </c>
       <c r="E34" s="32" t="s">
+        <v>3700</v>
+      </c>
+      <c r="F34" s="32" t="s">
         <v>3701</v>
       </c>
-      <c r="F34" s="32" t="s">
-        <v>3702</v>
-      </c>
       <c r="G34" s="4" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="15" t="s">
+        <v>3609</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>3611</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>3615</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>3610</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>3612</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>3616</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>3611</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="15" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>3618</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="C36" s="3" t="s">
         <v>3619</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>3620</v>
       </c>
       <c r="D36" s="22" t="s">
         <v>2340</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>3620</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>3621</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>3622</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -44866,30 +45501,30 @@
         <v>604</v>
       </c>
       <c r="C37" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="B38" s="15" t="s">
+        <v>3624</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>3625</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>3626</v>
-      </c>
       <c r="F38" s="4" t="s">
+        <v>3688</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>3689</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>3690</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -44897,175 +45532,175 @@
         <v>610</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="F39" s="4" t="s">
+        <v>3688</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>3689</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>3690</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="30" customFormat="1">
       <c r="A40" s="40" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>3628</v>
+      </c>
+      <c r="C40" s="33" t="s">
         <v>3630</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>3629</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>3631</v>
       </c>
       <c r="D40" s="41" t="s">
         <v>3371</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="H40" s="32" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="30" customFormat="1">
       <c r="A41" s="40" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="D41" s="41" t="s">
         <v>3371</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="30" customFormat="1">
       <c r="A42" s="40" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="D42" s="41" t="s">
         <v>3371</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="G42" s="30" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="30" customFormat="1">
       <c r="A43" s="40" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="B43" s="40" t="s">
+        <v>3638</v>
+      </c>
+      <c r="C43" s="33" t="s">
         <v>3639</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>3640</v>
       </c>
       <c r="D43" s="41" t="s">
         <v>3371</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="30" customFormat="1">
       <c r="A44" s="40" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="B44" s="40" t="s">
+        <v>3640</v>
+      </c>
+      <c r="C44" s="33" t="s">
         <v>3641</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>3642</v>
       </c>
       <c r="D44" s="41" t="s">
         <v>3371</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="G44" s="30" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="30" customFormat="1">
       <c r="A45" s="40" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="B45" s="40" t="s">
         <v>450</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="D45" s="41" t="s">
         <v>3371</v>
       </c>
       <c r="E45" s="32" t="s">
+        <v>3652</v>
+      </c>
+      <c r="F45" s="32" t="s">
         <v>3653</v>
       </c>
-      <c r="F45" s="32" t="s">
-        <v>3654</v>
-      </c>
       <c r="G45" s="30" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="15" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>3648</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="C46" s="3" t="s">
         <v>3649</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>3650</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="4" t="s">
+        <v>3672</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>3673</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="30" t="s">
         <v>3674</v>
-      </c>
-      <c r="G46" s="30" t="s">
-        <v>3675</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -45073,7 +45708,7 @@
         <v>3249</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>1384</v>
@@ -45082,10 +45717,10 @@
         <v>3371</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -45093,7 +45728,7 @@
         <v>3247</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>1382</v>
@@ -45102,84 +45737,84 @@
         <v>3371</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="15" t="s">
+        <v>3650</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>3614</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>3651</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>3615</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>3652</v>
       </c>
       <c r="D49" s="41" t="s">
         <v>3371</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="15" t="s">
+        <v>3657</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>3658</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="C50" s="3" t="s">
         <v>3659</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="E50" s="4" t="s">
+        <v>3661</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>3660</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>3662</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>3661</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="15" t="s">
+        <v>3665</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>3663</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>3664</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>3666</v>
       </c>
-      <c r="B51" s="15" t="s">
-        <v>3664</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>3665</v>
-      </c>
-      <c r="F51" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>3667</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>3668</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="15" t="s">
+        <v>3668</v>
+      </c>
+      <c r="B52" s="15" t="s">
         <v>3669</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="C52" s="3" t="s">
         <v>3670</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>3671</v>
-      </c>
       <c r="E52" s="4" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="F52" s="4" t="s">
+        <v>3702</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>3703</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>3704</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -45187,13 +45822,13 @@
         <v>3220</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="C53" t="s">
         <v>1359</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -45201,7 +45836,7 @@
         <v>3195</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -45209,251 +45844,551 @@
         <v>1140</v>
       </c>
       <c r="C55" s="15" t="s">
+        <v>3675</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>3677</v>
+      </c>
+      <c r="G55" t="s">
         <v>3676</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>3678</v>
-      </c>
-      <c r="G55" t="s">
-        <v>3677</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="15" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="C56" t="s">
         <v>1319</v>
       </c>
       <c r="G56" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="B57" s="15" t="s">
+        <v>3685</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>3686</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="F57" s="4" t="s">
+        <v>3627</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>3687</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>3628</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>3688</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="15" t="s">
+        <v>3692</v>
+      </c>
+      <c r="B58" s="15" t="s">
         <v>3693</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>3694</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>865</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>3705</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>3707</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>3706</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>3708</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>3707</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="15" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>3695</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="C59" s="3" t="s">
         <v>3696</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>3697</v>
-      </c>
       <c r="E59" s="4" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="G59" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="15" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
       <c r="B60" s="15" t="s">
+        <v>3711</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>3712</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>3713</v>
       </c>
       <c r="D60" s="22" t="s">
         <v>3371</v>
       </c>
       <c r="E60" s="4" t="s">
+        <v>3709</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>3673</v>
+      </c>
+      <c r="G60" t="s">
         <v>3710</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>3674</v>
-      </c>
-      <c r="G60" t="s">
-        <v>3711</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="B61" s="15" t="s">
+        <v>3713</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>3714</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="E61" s="4" t="s">
         <v>3715</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="F61" s="4" t="s">
         <v>3716</v>
       </c>
-      <c r="F61" s="4" t="s">
+    </row>
+    <row r="62" spans="1:7" ht="33">
+      <c r="B62" s="15" t="s">
         <v>3717</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="B62" s="15" t="s">
+      <c r="F62" s="2" t="s">
+        <v>3801</v>
+      </c>
+      <c r="G62" t="s">
         <v>3718</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>3720</v>
-      </c>
-      <c r="G62" t="s">
-        <v>3719</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="15" t="s">
+        <v>3720</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>3721</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>3705</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>3722</v>
       </c>
-      <c r="B63" s="15" t="s">
-        <v>3721</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="G63" s="4" t="s">
         <v>3723</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>3706</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>3724</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>3725</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="B64" s="35" t="s">
-        <v>3726</v>
+        <v>3724</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>3727</v>
+        <v>3725</v>
       </c>
       <c r="D64" s="22" t="s">
         <v>3410</v>
       </c>
       <c r="E64" s="4" t="s">
+        <v>3726</v>
+      </c>
+      <c r="G64" t="s">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="33">
+      <c r="A65" s="15" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B65" s="35" t="s">
         <v>3728</v>
       </c>
-      <c r="G64" t="s">
+      <c r="C65" s="3" t="s">
         <v>3729</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="B65" s="35" t="s">
-        <v>3730</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>3731</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>3732</v>
+      <c r="F65" s="2" t="s">
+        <v>3799</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>3798</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="15" t="s">
-        <v>3738</v>
+        <v>3735</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>721</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>3739</v>
+        <v>3736</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>3728</v>
+        <v>3726</v>
       </c>
       <c r="G66" t="s">
-        <v>3729</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="15" t="s">
-        <v>3740</v>
+        <v>3737</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>164</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>3741</v>
+        <v>3738</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>3728</v>
+        <v>3726</v>
       </c>
       <c r="G67" t="s">
-        <v>3729</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="15" t="s">
-        <v>3742</v>
+        <v>3739</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>631</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>3743</v>
+        <v>3740</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>3728</v>
+        <v>3726</v>
       </c>
       <c r="G68" t="s">
-        <v>3729</v>
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="15" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>3752</v>
+      </c>
+      <c r="D69" s="22"/>
+      <c r="E69" s="4" t="s">
+        <v>3757</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>3754</v>
+      </c>
+      <c r="G69" t="s">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="B70" s="15" t="s">
+        <v>3755</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>3756</v>
+      </c>
+      <c r="G70" t="s">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="B71" s="15" t="s">
+        <v>3758</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>3756</v>
+      </c>
+      <c r="G71" t="s">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="B72" s="15" t="s">
+        <v>3759</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>3760</v>
+      </c>
+      <c r="G72" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="B73" s="15" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>3763</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>3766</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="B74" s="15">
+        <v>1834110167</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>3765</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>3767</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="15" t="s">
+        <v>3768</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>3769</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="15" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>3771</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>3773</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>3778</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>3800</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="15" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>3775</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>3776</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>3778</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>3754</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="15" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>3785</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>3786</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>3796</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="15" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>3789</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>3792</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>3793</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="15" t="s">
+        <v>3790</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>3795</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>3794</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="15" t="s">
+        <v>3802</v>
+      </c>
+      <c r="B81" s="15">
+        <v>73422000047</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>3804</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>3803</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="15" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>3807</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>3453</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>3816</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>3814</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="49.5">
+      <c r="A83" s="15" t="s">
+        <v>3808</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>3808</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>1943</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>3809</v>
+      </c>
+      <c r="G83" t="s">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="15" t="s">
+        <v>3818</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>3817</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>3819</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>3820</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="15" t="s">
+        <v>3829</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>3830</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>3831</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="15" t="s">
+        <v>3832</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>3833</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>3831</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>3835</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>3834</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>3826</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B12">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
+  <conditionalFormatting sqref="A32">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
+  <conditionalFormatting sqref="B37">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
+  <conditionalFormatting sqref="B54:B77 B1:B52 B79:B86 B88:B1048576">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
+  <conditionalFormatting sqref="B53">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
+  <conditionalFormatting sqref="B78">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54:B1048576 B1:B52">
+  <conditionalFormatting sqref="A87">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
+  <conditionalFormatting sqref="A87">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -45466,10 +46401,41 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBAB452C-702A-4C99-89D6-2B95BC08193B}">
+  <dimension ref="B1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="42" t="s">
+        <v>3805</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{11E803AC-7832-47E3-A1DA-5F0A70225AA1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37065DC5-6887-4241-BB34-51C45D974CC3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>

--- a/MASTER_MS5673.xlsx
+++ b/MASTER_MS5673.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer_CA\★ Strim---MS Helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4957A6BF-7641-4B73-A9D0-339483547C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D3BBA8-564B-4FBA-B659-79EA8EC52EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29445" yWindow="1815" windowWidth="20745" windowHeight="13560" activeTab="3" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
+    <workbookView xWindow="4425" yWindow="720" windowWidth="20640" windowHeight="13365" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MASTER!$A$1:$M$1126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'PWC &amp; 한영 확인'!$A$1:$N$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">인증리스트!$A$1:$I$371</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8870" uniqueCount="3836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8955" uniqueCount="3901">
   <si>
     <t>무역거래처상호</t>
   </si>
@@ -13396,12 +13397,250 @@
     <t>MSF-067257</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Foxconn - CBL,ASSY,420mm,C2030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WDH2401-WD008-DF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-063426</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC (Direct Current) cable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power/Signal cable connecting the motherboard (MB) to fans.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amphenol - CBL,CSTM,165mm,SIGN</t>
+  </si>
+  <si>
+    <t>Amphenol - CBL,ASSY,700mm,C203</t>
+  </si>
+  <si>
+    <t>Foxconn - CBL,ASSY,150mm,S2130</t>
+  </si>
+  <si>
+    <t>Luxshare - CBL,ASSY,140mm,S213</t>
+  </si>
+  <si>
+    <t>Foxconn - CBL,ASSY,260mm,C2130</t>
+  </si>
+  <si>
+    <t>Luxshare Precision Limited-CBL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSF-064269 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSF-064418 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSF-064469 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSF-064470 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSF-064473 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSF-068409 </t>
+  </si>
+  <si>
+    <t>RWHHW-8428</t>
+  </si>
+  <si>
+    <t>RSS22-0395</t>
+  </si>
+  <si>
+    <t>WDH0401-WD004-DF</t>
+  </si>
+  <si>
+    <t>L6TWH029-SD-R</t>
+  </si>
+  <si>
+    <t>WDH2402-WD002-DF</t>
+  </si>
+  <si>
+    <t>L64WH00M-SD-R</t>
+  </si>
+  <si>
+    <r>
+      <t>DC (Direct Current)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t> cable</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power/Signal cable connecting the motherboard/hot swap controller (HSC) to the power distribution board (PDB).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data cable connecting the motherboard to the drive.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power cable connecting the motherboard to the panel for temperature sensor.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power/Signal cable connecting the control panel to fans.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power/Signal cable connecting the motherboard to the control panel.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power cable connecting the panel to the temperature sensor board (TSB).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-063427</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L64WH00F-SD-RA</t>
+  </si>
+  <si>
+    <t>MSF-067256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOLEX - CBL EMASSY,SLIM-SAS, H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOLT:dc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWC_20251124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직류전압을 사용하는 케이블로 비대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOLT:~DC30V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저전압 및 데이터 전송용, DATA TRANSMISSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWC_20251125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PURPOSE: DATA TRANSMISSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB012700160-1</t>
+  </si>
+  <si>
+    <t>JESS-LINK PRODUCTS CO., LTD. -</t>
+  </si>
+  <si>
+    <t>PCB012700159-1</t>
+  </si>
+  <si>
+    <t>JESS-LINK PRODUCTS CO., LTD.-C</t>
+  </si>
+  <si>
+    <t>MSF-077681</t>
+  </si>
+  <si>
+    <t>RWHHW-U201</t>
+  </si>
+  <si>
+    <t>MSF-075041</t>
+  </si>
+  <si>
+    <t>RWHHW-K820</t>
+  </si>
+  <si>
+    <t>MSF-067233</t>
+  </si>
+  <si>
+    <t>P1300DL10740-1</t>
+  </si>
+  <si>
+    <t>MSF-067185</t>
+  </si>
+  <si>
+    <t>RWHHW-F149</t>
+  </si>
+  <si>
+    <t>MOLEX - CBL,INT,450MM,C2190,OC-</t>
+  </si>
+  <si>
+    <t>FOR DATA/SIGNAL COMMUNICATION AND TRANSMISSION.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWC_20251127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOR POWER SUPPORT AND SIGNAL CONTROLLING.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWC_20251128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-FPC-SM-U-30M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-FPC-SM-U-32M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-FPC-SM-U-35M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8544700000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SINGLE MODE F IBER UNIBOOT PATCH CORD Y ELLOW 30M</t>
+  </si>
+  <si>
+    <t>SINGLE MODE F IBER UNIBOOT PATCH CORD Y ELLOW 32M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SINGLE MODE F IBER UNIBOOT PATCH CORD Y ELLOW 35M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13511,6 +13750,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -13702,17 +13947,7 @@
     <cellStyle name="표준 2" xfId="1" xr:uid="{04AB7DDF-CEE2-4E84-BB25-B76053D24319}"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="59">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -14760,12 +14995,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}">
-  <dimension ref="A1:N1130"/>
+  <dimension ref="A1:N1133"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1118" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1111" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="C1130" sqref="C1130:D1130"/>
+      <selection pane="bottomLeft" activeCell="A1135" sqref="A1135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -35234,50 +35469,83 @@
         <v>3827</v>
       </c>
     </row>
+    <row r="1131" spans="2:11">
+      <c r="B1131" s="1" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D1131" s="3" t="s">
+        <v>3898</v>
+      </c>
+    </row>
+    <row r="1132" spans="2:11">
+      <c r="B1132" s="1" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>3895</v>
+      </c>
+      <c r="D1132" s="3" t="s">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="1133" spans="2:11">
+      <c r="B1133" s="1" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>3896</v>
+      </c>
+      <c r="D1133" s="3" t="s">
+        <v>3900</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M1126" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C997:C1005 C1007:C1014 D1006 C994 C2:C992 C1016:C1046 D1092:D1094 D1096:D1097 C1048:C1111 C1113:C1117 C1119:C1124 C1126 C1128:C1048576">
-    <cfRule type="duplicateValues" dxfId="59" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C997:C1005 C1007:C1014 D1006 C994 C1016:C1046 D1092:D1094 D1096:D1097 C1048:C1111 C1113:C1117 C1119:C1124 C1126 C1128:C1048576">
-    <cfRule type="duplicateValues" dxfId="58" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E709">
-    <cfRule type="duplicateValues" dxfId="57" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E709">
-    <cfRule type="duplicateValues" dxfId="56" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E769">
-    <cfRule type="duplicateValues" dxfId="55" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E769">
-    <cfRule type="duplicateValues" dxfId="54" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E788">
-    <cfRule type="duplicateValues" dxfId="53" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E788">
-    <cfRule type="duplicateValues" dxfId="52" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E832">
-    <cfRule type="duplicateValues" dxfId="51" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E832">
-    <cfRule type="duplicateValues" dxfId="50" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C996">
-    <cfRule type="duplicateValues" dxfId="49" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C995">
-    <cfRule type="duplicateValues" dxfId="48" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1118">
-    <cfRule type="duplicateValues" dxfId="47" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1127">
-    <cfRule type="duplicateValues" dxfId="46" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35289,7 +35557,7 @@
   <dimension ref="A1:F188"/>
   <sheetViews>
     <sheetView topLeftCell="A168" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -38499,7 +38767,7 @@
   <dimension ref="A1:N304"/>
   <sheetViews>
     <sheetView topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="C307" sqref="C307"/>
+      <selection activeCell="C306" sqref="C306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -44679,109 +44947,109 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D271:D278 D267:D269 E266 D2:D265">
-    <cfRule type="duplicateValues" dxfId="45" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D271:D278 D267:D269 E266 D259:D265">
-    <cfRule type="duplicateValues" dxfId="44" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D279">
-    <cfRule type="duplicateValues" dxfId="43" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D279">
-    <cfRule type="duplicateValues" dxfId="42" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D281">
-    <cfRule type="duplicateValues" dxfId="41" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D281">
-    <cfRule type="duplicateValues" dxfId="40" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D286">
-    <cfRule type="duplicateValues" dxfId="39" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D286">
-    <cfRule type="duplicateValues" dxfId="38" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D287:D288">
-    <cfRule type="duplicateValues" dxfId="37" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D287:D288">
-    <cfRule type="duplicateValues" dxfId="36" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D290">
-    <cfRule type="duplicateValues" dxfId="35" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D290">
-    <cfRule type="duplicateValues" dxfId="34" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D292">
-    <cfRule type="duplicateValues" dxfId="33" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D292">
-    <cfRule type="duplicateValues" dxfId="32" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D293">
-    <cfRule type="duplicateValues" dxfId="31" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D293">
-    <cfRule type="duplicateValues" dxfId="30" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D294">
-    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D294">
-    <cfRule type="duplicateValues" dxfId="28" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D295">
-    <cfRule type="duplicateValues" dxfId="27" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D295">
-    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D296">
-    <cfRule type="duplicateValues" dxfId="25" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D296">
-    <cfRule type="duplicateValues" dxfId="24" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D298">
-    <cfRule type="duplicateValues" dxfId="23" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D298">
-    <cfRule type="duplicateValues" dxfId="22" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D299">
-    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D299">
-    <cfRule type="duplicateValues" dxfId="20" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D300">
-    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D300">
-    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D301">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D302">
-    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D302">
-    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D303">
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D303">
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D304">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D304">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44792,10 +45060,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView topLeftCell="C73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="16.5"/>
@@ -46163,6 +46431,15 @@
       <c r="C75" s="3" t="s">
         <v>3770</v>
       </c>
+      <c r="E75" s="4" t="s">
+        <v>3870</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>3872</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>3871</v>
+      </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="15" t="s">
@@ -46333,6 +46610,12 @@
       <c r="C85" s="3" t="s">
         <v>3831</v>
       </c>
+      <c r="E85" s="4" t="s">
+        <v>3422</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>3876</v>
+      </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="15" t="s">
@@ -46344,51 +46627,303 @@
       <c r="C86" s="3" t="s">
         <v>3831</v>
       </c>
+      <c r="E86" s="4" t="s">
+        <v>3422</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>3876</v>
+      </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" t="s">
+      <c r="A87" s="15" t="s">
         <v>3835</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="15" t="s">
         <v>3834</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>3826</v>
       </c>
+      <c r="E87" s="4" t="s">
+        <v>3662</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>3890</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="15" t="s">
+        <v>3838</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>3837</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>3836</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>3839</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="15" t="s">
+        <v>3847</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>3853</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>3841</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>3859</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="15" t="s">
+        <v>3848</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>3854</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>3842</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>3859</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>3861</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="15" t="s">
+        <v>3849</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>3855</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>3843</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>3859</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>3862</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="15" t="s">
+        <v>3850</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>3856</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>3844</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>3859</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>3863</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="15" t="s">
+        <v>3851</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>3857</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>3845</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>3859</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="15" t="s">
+        <v>3852</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>3858</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>3846</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>3859</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="15" t="s">
+        <v>3866</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>3867</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>3690</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>3892</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="15" t="s">
+        <v>3868</v>
+      </c>
+      <c r="B96" s="15">
+        <v>2079901056</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>3869</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>3873</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>3874</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>3875</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="15" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>3877</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="15" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>3879</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="15" t="s">
+        <v>3881</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>3882</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="15" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>3884</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="15" t="s">
+        <v>3885</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>3886</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="15" t="s">
+        <v>3887</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>3888</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="15" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B103" s="15">
+        <v>2060372048</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>3889</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="C104" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N96" xr:uid="{F3672AAC-5183-4455-9D0B-72863BBDB2E9}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54:B77 B1:B52 B79:B86 B88:B1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  <conditionalFormatting sqref="B54:B77 B1:B52 B79:B86 B95:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A87">
+  <conditionalFormatting sqref="B87:B94">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -46441,6 +46976,7 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/MASTER_MS5673.xlsx
+++ b/MASTER_MS5673.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer_CA\★ Strim---MS Helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D3BBA8-564B-4FBA-B659-79EA8EC52EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29519539-F333-4E3A-BE2D-E5219BBE4322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="720" windowWidth="20640" windowHeight="13365" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
+    <workbookView xWindow="7470" yWindow="1815" windowWidth="20640" windowHeight="13365" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Sheet2" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MASTER!$A$1:$M$1126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MASTER!$A$1:$M$1136</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'PWC &amp; 한영 확인'!$A$1:$N$96</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">인증리스트!$A$1:$I$371</definedName>
   </definedNames>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8955" uniqueCount="3901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8964" uniqueCount="3907">
   <si>
     <t>무역거래처상호</t>
   </si>
@@ -13633,6 +13633,30 @@
   </si>
   <si>
     <t>SINGLE MODE F IBER UNIBOOT PATCH CORD Y ELLOW 35M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-200G-Y-AOC-12M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-200G-Y-AOC-16M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WES-200G-Y-AOC-18M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSFP-DD TO 2XQSFP, 2X100G Y CABLE AOC, 12M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSFP-DD TO 2XQSFP, 2X100G Y CABLE AOC, 16M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QSFP-DD TO 2XQSFP, 2X100G Y CABLE AOC, 18M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14995,12 +15019,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}">
-  <dimension ref="A1:N1133"/>
+  <dimension ref="A1:N1136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1111" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A1135" sqref="A1135"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -35502,8 +35526,41 @@
         <v>3900</v>
       </c>
     </row>
+    <row r="1134" spans="2:11">
+      <c r="B1134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>3901</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="1135" spans="2:11">
+      <c r="B1135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>3902</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>3905</v>
+      </c>
+    </row>
+    <row r="1136" spans="2:11">
+      <c r="B1136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>3906</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M1126" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}"/>
+  <autoFilter ref="A1:M1136" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C997:C1005 C1007:C1014 D1006 C994 C2:C992 C1016:C1046 D1092:D1094 D1096:D1097 C1048:C1111 C1113:C1117 C1119:C1124 C1126 C1128:C1048576">
     <cfRule type="duplicateValues" dxfId="58" priority="19"/>

--- a/MASTER_MS5673.xlsx
+++ b/MASTER_MS5673.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer_CA\★ Strim---MS Helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29519539-F333-4E3A-BE2D-E5219BBE4322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6558F050-5F46-4788-96C5-04E7FEFDB5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7470" yWindow="1815" windowWidth="20640" windowHeight="13365" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
+    <workbookView xWindow="3615" yWindow="240" windowWidth="22080" windowHeight="15435" xr2:uid="{0659EE3A-700C-4BA5-8BA7-8A59FA9E8EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8964" uniqueCount="3907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8990" uniqueCount="3917">
   <si>
     <t>무역거래처상호</t>
   </si>
@@ -13657,6 +13657,39 @@
   </si>
   <si>
     <t>QSFP-DD TO 2XQSFP, 2X100G Y CABLE AOC, 18M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300V DC</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>300V</t>
+  </si>
+  <si>
+    <t>Data transmission</t>
+  </si>
+  <si>
+    <t>Power transmission</t>
+  </si>
+  <si>
+    <t>PWC_20251204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSF-067080</t>
+  </si>
+  <si>
+    <t>RWHHW-9153</t>
+  </si>
+  <si>
+    <t>WES-100GAOC-31M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100G QSFP28 ACTIVE OPTICAL CABLE, 31M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13971,7 +14004,17 @@
     <cellStyle name="표준 2" xfId="1" xr:uid="{04AB7DDF-CEE2-4E84-BB25-B76053D24319}"/>
     <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -15019,12 +15062,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}">
-  <dimension ref="A1:N1136"/>
+  <dimension ref="A1:N1137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A574" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="D1138" sqref="D1138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -35559,50 +35602,71 @@
         <v>3906</v>
       </c>
     </row>
+    <row r="1137" spans="1:10">
+      <c r="A1137" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>3915</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>3916</v>
+      </c>
+      <c r="I1137"/>
+      <c r="J1137" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:M1136" xr:uid="{AA1AB1B7-4662-4C58-9F56-BB8ACFA1530D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C997:C1005 C1007:C1014 D1006 C994 C2:C992 C1016:C1046 D1092:D1094 D1096:D1097 C1048:C1111 C1113:C1117 C1119:C1124 C1126 C1128:C1048576">
-    <cfRule type="duplicateValues" dxfId="58" priority="19"/>
+  <conditionalFormatting sqref="C997:C1005 C1007:C1014 D1006 C994 C2:C992 C1016:C1046 D1092:D1094 D1096:D1097 C1048:C1111 C1113:C1117 C1119:C1124 C1126 C1128:C1136 C1138:C1048576">
+    <cfRule type="duplicateValues" dxfId="59" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C997:C1005 C1007:C1014 D1006 C994 C1016:C1046 D1092:D1094 D1096:D1097 C1048:C1111 C1113:C1117 C1119:C1124 C1126 C1128:C1048576">
+  <conditionalFormatting sqref="C997:C1005 C1007:C1014 D1006 C994 C1016:C1046 D1092:D1094 D1096:D1097 C1048:C1111 C1113:C1117 C1119:C1124 C1126 C1128:C1136 C1138:C1048576">
+    <cfRule type="duplicateValues" dxfId="58" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E709">
     <cfRule type="duplicateValues" dxfId="57" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E709">
     <cfRule type="duplicateValues" dxfId="56" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E709">
+  <conditionalFormatting sqref="E769">
     <cfRule type="duplicateValues" dxfId="55" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E769">
     <cfRule type="duplicateValues" dxfId="54" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E769">
+  <conditionalFormatting sqref="E788">
     <cfRule type="duplicateValues" dxfId="53" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E788">
     <cfRule type="duplicateValues" dxfId="52" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E788">
+  <conditionalFormatting sqref="E832">
     <cfRule type="duplicateValues" dxfId="51" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E832">
     <cfRule type="duplicateValues" dxfId="50" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E832">
+  <conditionalFormatting sqref="C996">
     <cfRule type="duplicateValues" dxfId="49" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C996">
+  <conditionalFormatting sqref="C995">
     <cfRule type="duplicateValues" dxfId="48" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C995">
+  <conditionalFormatting sqref="C1118">
     <cfRule type="duplicateValues" dxfId="47" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1118">
-    <cfRule type="duplicateValues" dxfId="46" priority="3"/>
+  <conditionalFormatting sqref="C1127">
+    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1127">
-    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
+  <conditionalFormatting sqref="C1137">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -45004,109 +45068,109 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D271:D278 D267:D269 E266 D2:D265">
-    <cfRule type="duplicateValues" dxfId="44" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D271:D278 D267:D269 E266 D259:D265">
-    <cfRule type="duplicateValues" dxfId="43" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D279">
-    <cfRule type="duplicateValues" dxfId="42" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D279">
-    <cfRule type="duplicateValues" dxfId="41" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D281">
-    <cfRule type="duplicateValues" dxfId="40" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D281">
-    <cfRule type="duplicateValues" dxfId="39" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D286">
-    <cfRule type="duplicateValues" dxfId="38" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D286">
-    <cfRule type="duplicateValues" dxfId="37" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D287:D288">
-    <cfRule type="duplicateValues" dxfId="36" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D287:D288">
-    <cfRule type="duplicateValues" dxfId="35" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D290">
-    <cfRule type="duplicateValues" dxfId="34" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D290">
-    <cfRule type="duplicateValues" dxfId="33" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D292">
-    <cfRule type="duplicateValues" dxfId="32" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D292">
-    <cfRule type="duplicateValues" dxfId="31" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D293">
-    <cfRule type="duplicateValues" dxfId="30" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D293">
-    <cfRule type="duplicateValues" dxfId="29" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D294">
-    <cfRule type="duplicateValues" dxfId="28" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D294">
-    <cfRule type="duplicateValues" dxfId="27" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D295">
-    <cfRule type="duplicateValues" dxfId="26" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D295">
-    <cfRule type="duplicateValues" dxfId="25" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D296">
-    <cfRule type="duplicateValues" dxfId="24" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D296">
-    <cfRule type="duplicateValues" dxfId="23" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D298">
-    <cfRule type="duplicateValues" dxfId="22" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D298">
-    <cfRule type="duplicateValues" dxfId="21" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D299">
-    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D299">
-    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D300">
-    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D300">
-    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D301">
-    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D302">
-    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D302">
-    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D303">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D303">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D304">
-    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D304">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45119,8 +45183,8 @@
   </sheetPr>
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView topLeftCell="C73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView topLeftCell="A85" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="16.5"/>
@@ -46870,7 +46934,7 @@
         <v>3875</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:7">
       <c r="A97" s="15" t="s">
         <v>3181</v>
       </c>
@@ -46880,8 +46944,17 @@
       <c r="C97" s="3" t="s">
         <v>3878</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="E97" s="4" t="s">
+        <v>3907</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>3908</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="15" t="s">
         <v>3188</v>
       </c>
@@ -46891,41 +46964,77 @@
       <c r="C98" s="3" t="s">
         <v>3880</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="E98" s="4" t="s">
+        <v>3907</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>3908</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="15" t="s">
+        <v>3885</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>3886</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>3878</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>3909</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>3910</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="15" t="s">
         <v>3881</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B100" s="15" t="s">
         <v>3882</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="15" t="s">
-        <v>3883</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>3884</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="E100" s="4" t="s">
+        <v>3907</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>3911</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="15" t="s">
-        <v>3885</v>
+        <v>3883</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>3886</v>
+        <v>3884</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>3878</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>523</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>3907</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>3911</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="15" t="s">
         <v>3887</v>
       </c>
@@ -46935,8 +47044,17 @@
       <c r="C102" s="3" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="E102" s="4" t="s">
+        <v>3907</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>3911</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="15" t="s">
         <v>3073</v>
       </c>
@@ -46947,41 +47065,49 @@
         <v>3889</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="C104" s="3"/>
+    <row r="104" spans="1:7">
+      <c r="A104" s="15" t="s">
+        <v>3913</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>3914</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>3696</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:N96" xr:uid="{F3672AAC-5183-4455-9D0B-72863BBDB2E9}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="duplicateValues" dxfId="8" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:B77 B1:B52 B79:B86 B95:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B87:B94">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G13" r:id="rId1" xr:uid="{E760DB93-B415-4120-9C80-185345A25C5F}"/>
